--- a/01_基本設計書/20191231リリース/SC-M14_ＩＰアドレス管理マスタ.xlsx
+++ b/01_基本設計書/20191231リリース/SC-M14_ＩＰアドレス管理マスタ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\マスタ\20191018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF63D28-A5D3-4F79-B658-B93B845E5966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88473661-5818-408B-9D96-E8A638A4BE68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="258">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1307,10 +1307,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Equipment type</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>テキスト</t>
   </si>
   <si>
@@ -1774,10 +1770,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Facility</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ＩＰアドレス管理マスタの設備コード、設備マスタの設備略称</t>
   </si>
   <si>
@@ -1852,10 +1844,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Facility NO</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <r>
       <t>画面．</t>
     </r>
@@ -1873,6 +1861,22 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>コンボボックス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Equipment NO</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -2694,6 +2698,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2703,6 +2713,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2730,90 +2825,17 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2851,18 +2873,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2890,20 +2900,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -3756,6 +3760,336 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD92662F-28CA-4AEC-9647-FC78DEF9FA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733676" y="3590925"/>
+          <a:ext cx="400050" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1241850-7B0F-4718-ACC5-EC6BBDEC83B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="3600450"/>
+          <a:ext cx="800099" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AEA1535-1458-4B0A-9337-B47D8F31061C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371476" y="2847975"/>
+          <a:ext cx="542924" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBC384B-0612-41B2-A751-A88B4926E723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="7200900"/>
+          <a:ext cx="542924" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769A96A3-9F2C-4C64-8372-876D38624394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="7200900"/>
+          <a:ext cx="1028700" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4445,108 +4779,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="120"/>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="120"/>
-      <c r="AC32" s="120"/>
-      <c r="AD32" s="120"/>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="120"/>
-      <c r="AH32" s="120"/>
-      <c r="AI32" s="120"/>
-      <c r="AJ32" s="120"/>
-      <c r="AK32" s="120"/>
-      <c r="AL32" s="120"/>
-      <c r="AM32" s="120"/>
-      <c r="AN32" s="120"/>
-      <c r="AO32" s="120"/>
-      <c r="AP32" s="120"/>
-      <c r="AQ32" s="120"/>
-      <c r="AR32" s="120"/>
-      <c r="AS32" s="120"/>
-      <c r="AT32" s="120"/>
-      <c r="AU32" s="120"/>
-      <c r="AV32" s="120"/>
-      <c r="AW32" s="120"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="122"/>
+      <c r="V32" s="122"/>
+      <c r="W32" s="122"/>
+      <c r="X32" s="122"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="122"/>
+      <c r="AB32" s="122"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="122"/>
+      <c r="AE32" s="122"/>
+      <c r="AF32" s="122"/>
+      <c r="AG32" s="122"/>
+      <c r="AH32" s="122"/>
+      <c r="AI32" s="122"/>
+      <c r="AJ32" s="122"/>
+      <c r="AK32" s="122"/>
+      <c r="AL32" s="122"/>
+      <c r="AM32" s="122"/>
+      <c r="AN32" s="122"/>
+      <c r="AO32" s="122"/>
+      <c r="AP32" s="122"/>
+      <c r="AQ32" s="122"/>
+      <c r="AR32" s="122"/>
+      <c r="AS32" s="122"/>
+      <c r="AT32" s="122"/>
+      <c r="AU32" s="122"/>
+      <c r="AV32" s="122"/>
+      <c r="AW32" s="122"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="121"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="121"/>
-      <c r="R33" s="121"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="121"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="121"/>
-      <c r="W33" s="121"/>
-      <c r="X33" s="121"/>
-      <c r="Y33" s="121"/>
-      <c r="Z33" s="121"/>
-      <c r="AA33" s="121"/>
-      <c r="AB33" s="121"/>
-      <c r="AC33" s="121"/>
-      <c r="AD33" s="121"/>
-      <c r="AE33" s="121"/>
-      <c r="AF33" s="121"/>
-      <c r="AG33" s="121"/>
-      <c r="AH33" s="121"/>
-      <c r="AI33" s="121"/>
-      <c r="AJ33" s="121"/>
-      <c r="AK33" s="121"/>
-      <c r="AL33" s="121"/>
-      <c r="AM33" s="121"/>
-      <c r="AN33" s="121"/>
-      <c r="AO33" s="121"/>
-      <c r="AP33" s="121"/>
-      <c r="AQ33" s="121"/>
-      <c r="AR33" s="121"/>
-      <c r="AS33" s="121"/>
-      <c r="AT33" s="121"/>
-      <c r="AU33" s="121"/>
-      <c r="AV33" s="121"/>
-      <c r="AW33" s="121"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="123"/>
+      <c r="U33" s="123"/>
+      <c r="V33" s="123"/>
+      <c r="W33" s="123"/>
+      <c r="X33" s="123"/>
+      <c r="Y33" s="123"/>
+      <c r="Z33" s="123"/>
+      <c r="AA33" s="123"/>
+      <c r="AB33" s="123"/>
+      <c r="AC33" s="123"/>
+      <c r="AD33" s="123"/>
+      <c r="AE33" s="123"/>
+      <c r="AF33" s="123"/>
+      <c r="AG33" s="123"/>
+      <c r="AH33" s="123"/>
+      <c r="AI33" s="123"/>
+      <c r="AJ33" s="123"/>
+      <c r="AK33" s="123"/>
+      <c r="AL33" s="123"/>
+      <c r="AM33" s="123"/>
+      <c r="AN33" s="123"/>
+      <c r="AO33" s="123"/>
+      <c r="AP33" s="123"/>
+      <c r="AQ33" s="123"/>
+      <c r="AR33" s="123"/>
+      <c r="AS33" s="123"/>
+      <c r="AT33" s="123"/>
+      <c r="AU33" s="123"/>
+      <c r="AV33" s="123"/>
+      <c r="AW33" s="123"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -4584,55 +4918,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="122"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="122"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="122"/>
-      <c r="T35" s="122"/>
-      <c r="U35" s="122"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
-      <c r="Y35" s="122"/>
-      <c r="Z35" s="122"/>
-      <c r="AA35" s="122"/>
-      <c r="AB35" s="122"/>
-      <c r="AC35" s="122"/>
-      <c r="AD35" s="122"/>
-      <c r="AE35" s="122"/>
-      <c r="AF35" s="122"/>
-      <c r="AG35" s="122"/>
-      <c r="AH35" s="122"/>
-      <c r="AI35" s="122"/>
-      <c r="AJ35" s="122"/>
-      <c r="AK35" s="122"/>
-      <c r="AL35" s="122"/>
-      <c r="AM35" s="122"/>
-      <c r="AN35" s="122"/>
-      <c r="AO35" s="122"/>
-      <c r="AP35" s="122"/>
-      <c r="AQ35" s="122"/>
-      <c r="AR35" s="122"/>
-      <c r="AS35" s="122"/>
-      <c r="AT35" s="122"/>
-      <c r="AU35" s="122"/>
-      <c r="AV35" s="122"/>
-      <c r="AW35" s="122"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="124"/>
+      <c r="O35" s="124"/>
+      <c r="P35" s="124"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="124"/>
+      <c r="S35" s="124"/>
+      <c r="T35" s="124"/>
+      <c r="U35" s="124"/>
+      <c r="V35" s="124"/>
+      <c r="W35" s="124"/>
+      <c r="X35" s="124"/>
+      <c r="Y35" s="124"/>
+      <c r="Z35" s="124"/>
+      <c r="AA35" s="124"/>
+      <c r="AB35" s="124"/>
+      <c r="AC35" s="124"/>
+      <c r="AD35" s="124"/>
+      <c r="AE35" s="124"/>
+      <c r="AF35" s="124"/>
+      <c r="AG35" s="124"/>
+      <c r="AH35" s="124"/>
+      <c r="AI35" s="124"/>
+      <c r="AJ35" s="124"/>
+      <c r="AK35" s="124"/>
+      <c r="AL35" s="124"/>
+      <c r="AM35" s="124"/>
+      <c r="AN35" s="124"/>
+      <c r="AO35" s="124"/>
+      <c r="AP35" s="124"/>
+      <c r="AQ35" s="124"/>
+      <c r="AR35" s="124"/>
+      <c r="AS35" s="124"/>
+      <c r="AT35" s="124"/>
+      <c r="AU35" s="124"/>
+      <c r="AV35" s="124"/>
+      <c r="AW35" s="124"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -4667,1770 +5001,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="57"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="123"/>
-      <c r="AU1" s="123"/>
-      <c r="AV1" s="123"/>
-      <c r="AW1" s="123"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="156"/>
+      <c r="AJ1" s="156"/>
+      <c r="AK1" s="156"/>
+      <c r="AL1" s="156"/>
+      <c r="AM1" s="156"/>
+      <c r="AN1" s="156"/>
+      <c r="AO1" s="156"/>
+      <c r="AP1" s="156"/>
+      <c r="AQ1" s="156"/>
+      <c r="AR1" s="156"/>
+      <c r="AS1" s="156"/>
+      <c r="AT1" s="156"/>
+      <c r="AU1" s="156"/>
+      <c r="AV1" s="156"/>
+      <c r="AW1" s="156"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="124"/>
-      <c r="AM2" s="124"/>
-      <c r="AN2" s="124"/>
-      <c r="AO2" s="124"/>
-      <c r="AP2" s="124"/>
-      <c r="AQ2" s="124"/>
-      <c r="AR2" s="124"/>
-      <c r="AS2" s="124"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="124"/>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="157"/>
+      <c r="AG2" s="157"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="157"/>
+      <c r="AL2" s="157"/>
+      <c r="AM2" s="157"/>
+      <c r="AN2" s="157"/>
+      <c r="AO2" s="157"/>
+      <c r="AP2" s="157"/>
+      <c r="AQ2" s="157"/>
+      <c r="AR2" s="157"/>
+      <c r="AS2" s="157"/>
+      <c r="AT2" s="157"/>
+      <c r="AU2" s="157"/>
+      <c r="AV2" s="157"/>
+      <c r="AW2" s="157"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125" t="s">
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126" t="s">
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="127"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="126" t="s">
+      <c r="K3" s="160"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="125" t="s">
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125" t="s">
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
-      <c r="AL3" s="125"/>
-      <c r="AM3" s="125"/>
-      <c r="AN3" s="125" t="s">
+      <c r="W3" s="158"/>
+      <c r="X3" s="158"/>
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="158"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="158"/>
+      <c r="AC3" s="158"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="158"/>
+      <c r="AJ3" s="158"/>
+      <c r="AK3" s="158"/>
+      <c r="AL3" s="158"/>
+      <c r="AM3" s="158"/>
+      <c r="AN3" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="125"/>
-      <c r="AP3" s="125"/>
-      <c r="AQ3" s="125"/>
-      <c r="AR3" s="125"/>
-      <c r="AS3" s="125" t="s">
+      <c r="AO3" s="158"/>
+      <c r="AP3" s="158"/>
+      <c r="AQ3" s="158"/>
+      <c r="AR3" s="158"/>
+      <c r="AS3" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="125"/>
-      <c r="AU3" s="125"/>
-      <c r="AV3" s="125"/>
-      <c r="AW3" s="125"/>
+      <c r="AT3" s="158"/>
+      <c r="AU3" s="158"/>
+      <c r="AV3" s="158"/>
+      <c r="AW3" s="158"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="125"/>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="125"/>
-      <c r="AG4" s="125"/>
-      <c r="AH4" s="125"/>
-      <c r="AI4" s="125"/>
-      <c r="AJ4" s="125"/>
-      <c r="AK4" s="125"/>
-      <c r="AL4" s="125"/>
-      <c r="AM4" s="125"/>
-      <c r="AN4" s="125"/>
-      <c r="AO4" s="125"/>
-      <c r="AP4" s="125"/>
-      <c r="AQ4" s="125"/>
-      <c r="AR4" s="125"/>
-      <c r="AS4" s="125"/>
-      <c r="AT4" s="125"/>
-      <c r="AU4" s="125"/>
-      <c r="AV4" s="125"/>
-      <c r="AW4" s="125"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="158"/>
+      <c r="AD4" s="158"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="158"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="158"/>
+      <c r="AI4" s="158"/>
+      <c r="AJ4" s="158"/>
+      <c r="AK4" s="158"/>
+      <c r="AL4" s="158"/>
+      <c r="AM4" s="158"/>
+      <c r="AN4" s="158"/>
+      <c r="AO4" s="158"/>
+      <c r="AP4" s="158"/>
+      <c r="AQ4" s="158"/>
+      <c r="AR4" s="158"/>
+      <c r="AS4" s="158"/>
+      <c r="AT4" s="158"/>
+      <c r="AU4" s="158"/>
+      <c r="AV4" s="158"/>
+      <c r="AW4" s="158"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
-      <c r="B5" s="133">
+      <c r="B5" s="150">
         <v>1</v>
       </c>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="134">
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="131">
         <v>43706</v>
       </c>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="135" t="s">
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="136"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="135" t="s">
+      <c r="K5" s="133"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="132" t="s">
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="141" t="s">
+      <c r="T5" s="138"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="141"/>
-      <c r="AC5" s="141"/>
-      <c r="AD5" s="141"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="141"/>
-      <c r="AG5" s="141"/>
-      <c r="AH5" s="141"/>
-      <c r="AI5" s="141"/>
-      <c r="AJ5" s="141"/>
-      <c r="AK5" s="141"/>
-      <c r="AL5" s="141"/>
-      <c r="AM5" s="141"/>
-      <c r="AN5" s="132" t="s">
+      <c r="W5" s="149"/>
+      <c r="X5" s="149"/>
+      <c r="Y5" s="149"/>
+      <c r="Z5" s="149"/>
+      <c r="AA5" s="149"/>
+      <c r="AB5" s="149"/>
+      <c r="AC5" s="149"/>
+      <c r="AD5" s="149"/>
+      <c r="AE5" s="149"/>
+      <c r="AF5" s="149"/>
+      <c r="AG5" s="149"/>
+      <c r="AH5" s="149"/>
+      <c r="AI5" s="149"/>
+      <c r="AJ5" s="149"/>
+      <c r="AK5" s="149"/>
+      <c r="AL5" s="149"/>
+      <c r="AM5" s="149"/>
+      <c r="AN5" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="AO5" s="132"/>
-      <c r="AP5" s="132"/>
-      <c r="AQ5" s="132"/>
-      <c r="AR5" s="132"/>
-      <c r="AS5" s="132"/>
-      <c r="AT5" s="132"/>
-      <c r="AU5" s="132"/>
-      <c r="AV5" s="132"/>
-      <c r="AW5" s="132"/>
+      <c r="AO5" s="138"/>
+      <c r="AP5" s="138"/>
+      <c r="AQ5" s="138"/>
+      <c r="AR5" s="138"/>
+      <c r="AS5" s="138"/>
+      <c r="AT5" s="138"/>
+      <c r="AU5" s="138"/>
+      <c r="AV5" s="138"/>
+      <c r="AW5" s="138"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="140"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="141"/>
-      <c r="W6" s="141"/>
-      <c r="X6" s="141"/>
-      <c r="Y6" s="141"/>
-      <c r="Z6" s="141"/>
-      <c r="AA6" s="141"/>
-      <c r="AB6" s="141"/>
-      <c r="AC6" s="141"/>
-      <c r="AD6" s="141"/>
-      <c r="AE6" s="141"/>
-      <c r="AF6" s="141"/>
-      <c r="AG6" s="141"/>
-      <c r="AH6" s="141"/>
-      <c r="AI6" s="141"/>
-      <c r="AJ6" s="141"/>
-      <c r="AK6" s="141"/>
-      <c r="AL6" s="141"/>
-      <c r="AM6" s="141"/>
-      <c r="AN6" s="132"/>
-      <c r="AO6" s="132"/>
-      <c r="AP6" s="132"/>
-      <c r="AQ6" s="132"/>
-      <c r="AR6" s="132"/>
-      <c r="AS6" s="132"/>
-      <c r="AT6" s="132"/>
-      <c r="AU6" s="132"/>
-      <c r="AV6" s="132"/>
-      <c r="AW6" s="132"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="153"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="154"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="154"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="138"/>
+      <c r="U6" s="138"/>
+      <c r="V6" s="149"/>
+      <c r="W6" s="149"/>
+      <c r="X6" s="149"/>
+      <c r="Y6" s="149"/>
+      <c r="Z6" s="149"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="149"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="149"/>
+      <c r="AF6" s="149"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="149"/>
+      <c r="AI6" s="149"/>
+      <c r="AJ6" s="149"/>
+      <c r="AK6" s="149"/>
+      <c r="AL6" s="149"/>
+      <c r="AM6" s="149"/>
+      <c r="AN6" s="138"/>
+      <c r="AO6" s="138"/>
+      <c r="AP6" s="138"/>
+      <c r="AQ6" s="138"/>
+      <c r="AR6" s="138"/>
+      <c r="AS6" s="138"/>
+      <c r="AT6" s="138"/>
+      <c r="AU6" s="138"/>
+      <c r="AV6" s="138"/>
+      <c r="AW6" s="138"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="140"/>
-      <c r="S7" s="132"/>
-      <c r="T7" s="132"/>
-      <c r="U7" s="132"/>
-      <c r="V7" s="141"/>
-      <c r="W7" s="141"/>
-      <c r="X7" s="141"/>
-      <c r="Y7" s="141"/>
-      <c r="Z7" s="141"/>
-      <c r="AA7" s="141"/>
-      <c r="AB7" s="141"/>
-      <c r="AC7" s="141"/>
-      <c r="AD7" s="141"/>
-      <c r="AE7" s="141"/>
-      <c r="AF7" s="141"/>
-      <c r="AG7" s="141"/>
-      <c r="AH7" s="141"/>
-      <c r="AI7" s="141"/>
-      <c r="AJ7" s="141"/>
-      <c r="AK7" s="141"/>
-      <c r="AL7" s="141"/>
-      <c r="AM7" s="141"/>
-      <c r="AN7" s="132"/>
-      <c r="AO7" s="132"/>
-      <c r="AP7" s="132"/>
-      <c r="AQ7" s="132"/>
-      <c r="AR7" s="132"/>
-      <c r="AS7" s="132"/>
-      <c r="AT7" s="132"/>
-      <c r="AU7" s="132"/>
-      <c r="AV7" s="132"/>
-      <c r="AW7" s="132"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="155"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="149"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AI7" s="149"/>
+      <c r="AJ7" s="149"/>
+      <c r="AK7" s="149"/>
+      <c r="AL7" s="149"/>
+      <c r="AM7" s="149"/>
+      <c r="AN7" s="138"/>
+      <c r="AO7" s="138"/>
+      <c r="AP7" s="138"/>
+      <c r="AQ7" s="138"/>
+      <c r="AR7" s="138"/>
+      <c r="AS7" s="138"/>
+      <c r="AT7" s="138"/>
+      <c r="AU7" s="138"/>
+      <c r="AV7" s="138"/>
+      <c r="AW7" s="138"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="132"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="141"/>
-      <c r="AD8" s="141"/>
-      <c r="AE8" s="141"/>
-      <c r="AF8" s="141"/>
-      <c r="AG8" s="141"/>
-      <c r="AH8" s="141"/>
-      <c r="AI8" s="141"/>
-      <c r="AJ8" s="141"/>
-      <c r="AK8" s="141"/>
-      <c r="AL8" s="141"/>
-      <c r="AM8" s="141"/>
-      <c r="AN8" s="132"/>
-      <c r="AO8" s="132"/>
-      <c r="AP8" s="132"/>
-      <c r="AQ8" s="132"/>
-      <c r="AR8" s="132"/>
-      <c r="AS8" s="132"/>
-      <c r="AT8" s="132"/>
-      <c r="AU8" s="132"/>
-      <c r="AV8" s="132"/>
-      <c r="AW8" s="132"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="154"/>
+      <c r="R8" s="155"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="149"/>
+      <c r="AF8" s="149"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="149"/>
+      <c r="AJ8" s="149"/>
+      <c r="AK8" s="149"/>
+      <c r="AL8" s="149"/>
+      <c r="AM8" s="149"/>
+      <c r="AN8" s="138"/>
+      <c r="AO8" s="138"/>
+      <c r="AP8" s="138"/>
+      <c r="AQ8" s="138"/>
+      <c r="AR8" s="138"/>
+      <c r="AS8" s="138"/>
+      <c r="AT8" s="138"/>
+      <c r="AU8" s="138"/>
+      <c r="AV8" s="138"/>
+      <c r="AW8" s="138"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="140"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="141"/>
-      <c r="W9" s="141"/>
-      <c r="X9" s="141"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="141"/>
-      <c r="AE9" s="141"/>
-      <c r="AF9" s="141"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
-      <c r="AI9" s="141"/>
-      <c r="AJ9" s="141"/>
-      <c r="AK9" s="141"/>
-      <c r="AL9" s="141"/>
-      <c r="AM9" s="141"/>
-      <c r="AN9" s="132"/>
-      <c r="AO9" s="132"/>
-      <c r="AP9" s="132"/>
-      <c r="AQ9" s="132"/>
-      <c r="AR9" s="132"/>
-      <c r="AS9" s="132"/>
-      <c r="AT9" s="132"/>
-      <c r="AU9" s="132"/>
-      <c r="AV9" s="132"/>
-      <c r="AW9" s="132"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="149"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="149"/>
+      <c r="Z9" s="149"/>
+      <c r="AA9" s="149"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="149"/>
+      <c r="AD9" s="149"/>
+      <c r="AE9" s="149"/>
+      <c r="AF9" s="149"/>
+      <c r="AG9" s="149"/>
+      <c r="AH9" s="149"/>
+      <c r="AI9" s="149"/>
+      <c r="AJ9" s="149"/>
+      <c r="AK9" s="149"/>
+      <c r="AL9" s="149"/>
+      <c r="AM9" s="149"/>
+      <c r="AN9" s="138"/>
+      <c r="AO9" s="138"/>
+      <c r="AP9" s="138"/>
+      <c r="AQ9" s="138"/>
+      <c r="AR9" s="138"/>
+      <c r="AS9" s="138"/>
+      <c r="AT9" s="138"/>
+      <c r="AU9" s="138"/>
+      <c r="AV9" s="138"/>
+      <c r="AW9" s="138"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="59"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="139"/>
-      <c r="Q10" s="139"/>
-      <c r="R10" s="140"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="141"/>
-      <c r="W10" s="141"/>
-      <c r="X10" s="141"/>
-      <c r="Y10" s="141"/>
-      <c r="Z10" s="141"/>
-      <c r="AA10" s="141"/>
-      <c r="AB10" s="141"/>
-      <c r="AC10" s="141"/>
-      <c r="AD10" s="141"/>
-      <c r="AE10" s="141"/>
-      <c r="AF10" s="141"/>
-      <c r="AG10" s="141"/>
-      <c r="AH10" s="141"/>
-      <c r="AI10" s="141"/>
-      <c r="AJ10" s="141"/>
-      <c r="AK10" s="141"/>
-      <c r="AL10" s="141"/>
-      <c r="AM10" s="141"/>
-      <c r="AN10" s="132"/>
-      <c r="AO10" s="132"/>
-      <c r="AP10" s="132"/>
-      <c r="AQ10" s="132"/>
-      <c r="AR10" s="132"/>
-      <c r="AS10" s="132"/>
-      <c r="AT10" s="132"/>
-      <c r="AU10" s="132"/>
-      <c r="AV10" s="132"/>
-      <c r="AW10" s="132"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="149"/>
+      <c r="Y10" s="149"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="149"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="149"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="149"/>
+      <c r="AG10" s="149"/>
+      <c r="AH10" s="149"/>
+      <c r="AI10" s="149"/>
+      <c r="AJ10" s="149"/>
+      <c r="AK10" s="149"/>
+      <c r="AL10" s="149"/>
+      <c r="AM10" s="149"/>
+      <c r="AN10" s="138"/>
+      <c r="AO10" s="138"/>
+      <c r="AP10" s="138"/>
+      <c r="AQ10" s="138"/>
+      <c r="AR10" s="138"/>
+      <c r="AS10" s="138"/>
+      <c r="AT10" s="138"/>
+      <c r="AU10" s="138"/>
+      <c r="AV10" s="138"/>
+      <c r="AW10" s="138"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="137"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="134"/>
       <c r="M11" s="145"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="154"/>
-      <c r="Z11" s="154"/>
-      <c r="AA11" s="154"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="154"/>
-      <c r="AD11" s="154"/>
-      <c r="AE11" s="154"/>
-      <c r="AF11" s="154"/>
-      <c r="AG11" s="154"/>
-      <c r="AH11" s="154"/>
-      <c r="AI11" s="154"/>
-      <c r="AJ11" s="154"/>
-      <c r="AK11" s="154"/>
-      <c r="AL11" s="154"/>
-      <c r="AM11" s="155"/>
-      <c r="AN11" s="132"/>
-      <c r="AO11" s="132"/>
-      <c r="AP11" s="132"/>
-      <c r="AQ11" s="132"/>
-      <c r="AR11" s="132"/>
-      <c r="AS11" s="132"/>
-      <c r="AT11" s="132"/>
-      <c r="AU11" s="132"/>
-      <c r="AV11" s="132"/>
-      <c r="AW11" s="132"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="151"/>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="151"/>
+      <c r="Z11" s="151"/>
+      <c r="AA11" s="151"/>
+      <c r="AB11" s="151"/>
+      <c r="AC11" s="151"/>
+      <c r="AD11" s="151"/>
+      <c r="AE11" s="151"/>
+      <c r="AF11" s="151"/>
+      <c r="AG11" s="151"/>
+      <c r="AH11" s="151"/>
+      <c r="AI11" s="151"/>
+      <c r="AJ11" s="151"/>
+      <c r="AK11" s="151"/>
+      <c r="AL11" s="151"/>
+      <c r="AM11" s="152"/>
+      <c r="AN11" s="138"/>
+      <c r="AO11" s="138"/>
+      <c r="AP11" s="138"/>
+      <c r="AQ11" s="138"/>
+      <c r="AR11" s="138"/>
+      <c r="AS11" s="138"/>
+      <c r="AT11" s="138"/>
+      <c r="AU11" s="138"/>
+      <c r="AV11" s="138"/>
+      <c r="AW11" s="138"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="137"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="134"/>
       <c r="M12" s="145"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="149"/>
-      <c r="X12" s="149"/>
-      <c r="Y12" s="149"/>
-      <c r="Z12" s="149"/>
-      <c r="AA12" s="149"/>
-      <c r="AB12" s="149"/>
-      <c r="AC12" s="149"/>
-      <c r="AD12" s="149"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="149"/>
-      <c r="AG12" s="149"/>
-      <c r="AH12" s="149"/>
-      <c r="AI12" s="149"/>
-      <c r="AJ12" s="149"/>
-      <c r="AK12" s="149"/>
-      <c r="AL12" s="149"/>
-      <c r="AM12" s="150"/>
-      <c r="AN12" s="151"/>
-      <c r="AO12" s="152"/>
-      <c r="AP12" s="152"/>
-      <c r="AQ12" s="152"/>
-      <c r="AR12" s="153"/>
-      <c r="AS12" s="151"/>
-      <c r="AT12" s="152"/>
-      <c r="AU12" s="152"/>
-      <c r="AV12" s="152"/>
-      <c r="AW12" s="153"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="140"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="140"/>
+      <c r="AF12" s="140"/>
+      <c r="AG12" s="140"/>
+      <c r="AH12" s="140"/>
+      <c r="AI12" s="140"/>
+      <c r="AJ12" s="140"/>
+      <c r="AK12" s="140"/>
+      <c r="AL12" s="140"/>
+      <c r="AM12" s="141"/>
+      <c r="AN12" s="125"/>
+      <c r="AO12" s="126"/>
+      <c r="AP12" s="126"/>
+      <c r="AQ12" s="126"/>
+      <c r="AR12" s="127"/>
+      <c r="AS12" s="125"/>
+      <c r="AT12" s="126"/>
+      <c r="AU12" s="126"/>
+      <c r="AV12" s="126"/>
+      <c r="AW12" s="127"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="149"/>
-      <c r="Z13" s="149"/>
-      <c r="AA13" s="149"/>
-      <c r="AB13" s="149"/>
-      <c r="AC13" s="149"/>
-      <c r="AD13" s="149"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="149"/>
-      <c r="AG13" s="149"/>
-      <c r="AH13" s="149"/>
-      <c r="AI13" s="149"/>
-      <c r="AJ13" s="149"/>
-      <c r="AK13" s="149"/>
-      <c r="AL13" s="149"/>
-      <c r="AM13" s="150"/>
-      <c r="AN13" s="151"/>
-      <c r="AO13" s="152"/>
-      <c r="AP13" s="152"/>
-      <c r="AQ13" s="152"/>
-      <c r="AR13" s="153"/>
-      <c r="AS13" s="151"/>
-      <c r="AT13" s="152"/>
-      <c r="AU13" s="152"/>
-      <c r="AV13" s="152"/>
-      <c r="AW13" s="153"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="140"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="140"/>
+      <c r="AF13" s="140"/>
+      <c r="AG13" s="140"/>
+      <c r="AH13" s="140"/>
+      <c r="AI13" s="140"/>
+      <c r="AJ13" s="140"/>
+      <c r="AK13" s="140"/>
+      <c r="AL13" s="140"/>
+      <c r="AM13" s="141"/>
+      <c r="AN13" s="125"/>
+      <c r="AO13" s="126"/>
+      <c r="AP13" s="126"/>
+      <c r="AQ13" s="126"/>
+      <c r="AR13" s="127"/>
+      <c r="AS13" s="125"/>
+      <c r="AT13" s="126"/>
+      <c r="AU13" s="126"/>
+      <c r="AV13" s="126"/>
+      <c r="AW13" s="127"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="157"/>
-      <c r="W14" s="141"/>
-      <c r="X14" s="141"/>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="141"/>
-      <c r="AA14" s="141"/>
-      <c r="AB14" s="141"/>
-      <c r="AC14" s="141"/>
-      <c r="AD14" s="141"/>
-      <c r="AE14" s="141"/>
-      <c r="AF14" s="141"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="141"/>
-      <c r="AJ14" s="141"/>
-      <c r="AK14" s="141"/>
-      <c r="AL14" s="141"/>
-      <c r="AM14" s="141"/>
-      <c r="AN14" s="132"/>
-      <c r="AO14" s="132"/>
-      <c r="AP14" s="132"/>
-      <c r="AQ14" s="132"/>
-      <c r="AR14" s="132"/>
-      <c r="AS14" s="151"/>
-      <c r="AT14" s="152"/>
-      <c r="AU14" s="152"/>
-      <c r="AV14" s="152"/>
-      <c r="AW14" s="153"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="143"/>
+      <c r="R14" s="144"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="138"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="149"/>
+      <c r="AA14" s="149"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="149"/>
+      <c r="AE14" s="149"/>
+      <c r="AF14" s="149"/>
+      <c r="AG14" s="149"/>
+      <c r="AH14" s="149"/>
+      <c r="AI14" s="149"/>
+      <c r="AJ14" s="149"/>
+      <c r="AK14" s="149"/>
+      <c r="AL14" s="149"/>
+      <c r="AM14" s="149"/>
+      <c r="AN14" s="138"/>
+      <c r="AO14" s="138"/>
+      <c r="AP14" s="138"/>
+      <c r="AQ14" s="138"/>
+      <c r="AR14" s="138"/>
+      <c r="AS14" s="125"/>
+      <c r="AT14" s="126"/>
+      <c r="AU14" s="126"/>
+      <c r="AV14" s="126"/>
+      <c r="AW14" s="127"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
-      <c r="B15" s="142"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="137"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="134"/>
       <c r="M15" s="145"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="147"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="149"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="149"/>
-      <c r="AB15" s="149"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="149"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="149"/>
-      <c r="AG15" s="149"/>
-      <c r="AH15" s="149"/>
-      <c r="AI15" s="149"/>
-      <c r="AJ15" s="149"/>
-      <c r="AK15" s="149"/>
-      <c r="AL15" s="149"/>
-      <c r="AM15" s="150"/>
-      <c r="AN15" s="151"/>
-      <c r="AO15" s="152"/>
-      <c r="AP15" s="152"/>
-      <c r="AQ15" s="152"/>
-      <c r="AR15" s="153"/>
-      <c r="AS15" s="151"/>
-      <c r="AT15" s="152"/>
-      <c r="AU15" s="152"/>
-      <c r="AV15" s="152"/>
-      <c r="AW15" s="153"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="144"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="140"/>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="140"/>
+      <c r="Z15" s="140"/>
+      <c r="AA15" s="140"/>
+      <c r="AB15" s="140"/>
+      <c r="AC15" s="140"/>
+      <c r="AD15" s="140"/>
+      <c r="AE15" s="140"/>
+      <c r="AF15" s="140"/>
+      <c r="AG15" s="140"/>
+      <c r="AH15" s="140"/>
+      <c r="AI15" s="140"/>
+      <c r="AJ15" s="140"/>
+      <c r="AK15" s="140"/>
+      <c r="AL15" s="140"/>
+      <c r="AM15" s="141"/>
+      <c r="AN15" s="125"/>
+      <c r="AO15" s="126"/>
+      <c r="AP15" s="126"/>
+      <c r="AQ15" s="126"/>
+      <c r="AR15" s="127"/>
+      <c r="AS15" s="125"/>
+      <c r="AT15" s="126"/>
+      <c r="AU15" s="126"/>
+      <c r="AV15" s="126"/>
+      <c r="AW15" s="127"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="137"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="134"/>
       <c r="M16" s="145"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="146"/>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="147"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="149"/>
-      <c r="X16" s="149"/>
-      <c r="Y16" s="149"/>
-      <c r="Z16" s="149"/>
-      <c r="AA16" s="149"/>
-      <c r="AB16" s="149"/>
-      <c r="AC16" s="149"/>
-      <c r="AD16" s="149"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="149"/>
-      <c r="AG16" s="149"/>
-      <c r="AH16" s="149"/>
-      <c r="AI16" s="149"/>
-      <c r="AJ16" s="149"/>
-      <c r="AK16" s="149"/>
-      <c r="AL16" s="149"/>
-      <c r="AM16" s="150"/>
-      <c r="AN16" s="151"/>
-      <c r="AO16" s="152"/>
-      <c r="AP16" s="152"/>
-      <c r="AQ16" s="152"/>
-      <c r="AR16" s="153"/>
-      <c r="AS16" s="151"/>
-      <c r="AT16" s="152"/>
-      <c r="AU16" s="152"/>
-      <c r="AV16" s="152"/>
-      <c r="AW16" s="153"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="140"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="140"/>
+      <c r="Z16" s="140"/>
+      <c r="AA16" s="140"/>
+      <c r="AB16" s="140"/>
+      <c r="AC16" s="140"/>
+      <c r="AD16" s="140"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="140"/>
+      <c r="AI16" s="140"/>
+      <c r="AJ16" s="140"/>
+      <c r="AK16" s="140"/>
+      <c r="AL16" s="140"/>
+      <c r="AM16" s="141"/>
+      <c r="AN16" s="125"/>
+      <c r="AO16" s="126"/>
+      <c r="AP16" s="126"/>
+      <c r="AQ16" s="126"/>
+      <c r="AR16" s="127"/>
+      <c r="AS16" s="125"/>
+      <c r="AT16" s="126"/>
+      <c r="AU16" s="126"/>
+      <c r="AV16" s="126"/>
+      <c r="AW16" s="127"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="137"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134"/>
       <c r="M17" s="145"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="158"/>
-      <c r="S17" s="159"/>
-      <c r="T17" s="159"/>
-      <c r="U17" s="159"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="149"/>
-      <c r="Y17" s="149"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="149"/>
-      <c r="AB17" s="149"/>
-      <c r="AC17" s="149"/>
-      <c r="AD17" s="149"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="149"/>
-      <c r="AG17" s="149"/>
-      <c r="AH17" s="149"/>
-      <c r="AI17" s="149"/>
-      <c r="AJ17" s="149"/>
-      <c r="AK17" s="149"/>
-      <c r="AL17" s="149"/>
-      <c r="AM17" s="150"/>
-      <c r="AN17" s="151"/>
-      <c r="AO17" s="152"/>
-      <c r="AP17" s="152"/>
-      <c r="AQ17" s="152"/>
-      <c r="AR17" s="153"/>
-      <c r="AS17" s="151"/>
-      <c r="AT17" s="152"/>
-      <c r="AU17" s="152"/>
-      <c r="AV17" s="152"/>
-      <c r="AW17" s="153"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="146"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="140"/>
+      <c r="X17" s="140"/>
+      <c r="Y17" s="140"/>
+      <c r="Z17" s="140"/>
+      <c r="AA17" s="140"/>
+      <c r="AB17" s="140"/>
+      <c r="AC17" s="140"/>
+      <c r="AD17" s="140"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="140"/>
+      <c r="AG17" s="140"/>
+      <c r="AH17" s="140"/>
+      <c r="AI17" s="140"/>
+      <c r="AJ17" s="140"/>
+      <c r="AK17" s="140"/>
+      <c r="AL17" s="140"/>
+      <c r="AM17" s="141"/>
+      <c r="AN17" s="125"/>
+      <c r="AO17" s="126"/>
+      <c r="AP17" s="126"/>
+      <c r="AQ17" s="126"/>
+      <c r="AR17" s="127"/>
+      <c r="AS17" s="125"/>
+      <c r="AT17" s="126"/>
+      <c r="AU17" s="126"/>
+      <c r="AV17" s="126"/>
+      <c r="AW17" s="127"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="149"/>
-      <c r="X18" s="149"/>
-      <c r="Y18" s="149"/>
-      <c r="Z18" s="149"/>
-      <c r="AA18" s="149"/>
-      <c r="AB18" s="149"/>
-      <c r="AC18" s="149"/>
-      <c r="AD18" s="149"/>
-      <c r="AE18" s="149"/>
-      <c r="AF18" s="149"/>
-      <c r="AG18" s="149"/>
-      <c r="AH18" s="149"/>
-      <c r="AI18" s="149"/>
-      <c r="AJ18" s="149"/>
-      <c r="AK18" s="149"/>
-      <c r="AL18" s="149"/>
-      <c r="AM18" s="150"/>
-      <c r="AN18" s="151"/>
-      <c r="AO18" s="152"/>
-      <c r="AP18" s="152"/>
-      <c r="AQ18" s="152"/>
-      <c r="AR18" s="153"/>
-      <c r="AS18" s="151"/>
-      <c r="AT18" s="152"/>
-      <c r="AU18" s="152"/>
-      <c r="AV18" s="152"/>
-      <c r="AW18" s="153"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="144"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="140"/>
+      <c r="X18" s="140"/>
+      <c r="Y18" s="140"/>
+      <c r="Z18" s="140"/>
+      <c r="AA18" s="140"/>
+      <c r="AB18" s="140"/>
+      <c r="AC18" s="140"/>
+      <c r="AD18" s="140"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="140"/>
+      <c r="AG18" s="140"/>
+      <c r="AH18" s="140"/>
+      <c r="AI18" s="140"/>
+      <c r="AJ18" s="140"/>
+      <c r="AK18" s="140"/>
+      <c r="AL18" s="140"/>
+      <c r="AM18" s="141"/>
+      <c r="AN18" s="125"/>
+      <c r="AO18" s="126"/>
+      <c r="AP18" s="126"/>
+      <c r="AQ18" s="126"/>
+      <c r="AR18" s="127"/>
+      <c r="AS18" s="125"/>
+      <c r="AT18" s="126"/>
+      <c r="AU18" s="126"/>
+      <c r="AV18" s="126"/>
+      <c r="AW18" s="127"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="137"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="134"/>
       <c r="M19" s="145"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="149"/>
-      <c r="X19" s="149"/>
-      <c r="Y19" s="149"/>
-      <c r="Z19" s="149"/>
-      <c r="AA19" s="149"/>
-      <c r="AB19" s="149"/>
-      <c r="AC19" s="149"/>
-      <c r="AD19" s="149"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="149"/>
-      <c r="AG19" s="149"/>
-      <c r="AH19" s="149"/>
-      <c r="AI19" s="149"/>
-      <c r="AJ19" s="149"/>
-      <c r="AK19" s="149"/>
-      <c r="AL19" s="149"/>
-      <c r="AM19" s="150"/>
-      <c r="AN19" s="132"/>
-      <c r="AO19" s="132"/>
-      <c r="AP19" s="132"/>
-      <c r="AQ19" s="132"/>
-      <c r="AR19" s="132"/>
-      <c r="AS19" s="151"/>
-      <c r="AT19" s="152"/>
-      <c r="AU19" s="152"/>
-      <c r="AV19" s="152"/>
-      <c r="AW19" s="153"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="144"/>
+      <c r="S19" s="138"/>
+      <c r="T19" s="138"/>
+      <c r="U19" s="138"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="140"/>
+      <c r="X19" s="140"/>
+      <c r="Y19" s="140"/>
+      <c r="Z19" s="140"/>
+      <c r="AA19" s="140"/>
+      <c r="AB19" s="140"/>
+      <c r="AC19" s="140"/>
+      <c r="AD19" s="140"/>
+      <c r="AE19" s="140"/>
+      <c r="AF19" s="140"/>
+      <c r="AG19" s="140"/>
+      <c r="AH19" s="140"/>
+      <c r="AI19" s="140"/>
+      <c r="AJ19" s="140"/>
+      <c r="AK19" s="140"/>
+      <c r="AL19" s="140"/>
+      <c r="AM19" s="141"/>
+      <c r="AN19" s="138"/>
+      <c r="AO19" s="138"/>
+      <c r="AP19" s="138"/>
+      <c r="AQ19" s="138"/>
+      <c r="AR19" s="138"/>
+      <c r="AS19" s="125"/>
+      <c r="AT19" s="126"/>
+      <c r="AU19" s="126"/>
+      <c r="AV19" s="126"/>
+      <c r="AW19" s="127"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="137"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="134"/>
       <c r="M20" s="145"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="152"/>
-      <c r="U20" s="153"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="149"/>
-      <c r="X20" s="149"/>
-      <c r="Y20" s="149"/>
-      <c r="Z20" s="149"/>
-      <c r="AA20" s="149"/>
-      <c r="AB20" s="149"/>
-      <c r="AC20" s="149"/>
-      <c r="AD20" s="149"/>
-      <c r="AE20" s="149"/>
-      <c r="AF20" s="149"/>
-      <c r="AG20" s="149"/>
-      <c r="AH20" s="149"/>
-      <c r="AI20" s="149"/>
-      <c r="AJ20" s="149"/>
-      <c r="AK20" s="149"/>
-      <c r="AL20" s="149"/>
-      <c r="AM20" s="150"/>
-      <c r="AN20" s="151"/>
-      <c r="AO20" s="152"/>
-      <c r="AP20" s="152"/>
-      <c r="AQ20" s="152"/>
-      <c r="AR20" s="153"/>
-      <c r="AS20" s="151"/>
-      <c r="AT20" s="152"/>
-      <c r="AU20" s="152"/>
-      <c r="AV20" s="152"/>
-      <c r="AW20" s="153"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="144"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="140"/>
+      <c r="X20" s="140"/>
+      <c r="Y20" s="140"/>
+      <c r="Z20" s="140"/>
+      <c r="AA20" s="140"/>
+      <c r="AB20" s="140"/>
+      <c r="AC20" s="140"/>
+      <c r="AD20" s="140"/>
+      <c r="AE20" s="140"/>
+      <c r="AF20" s="140"/>
+      <c r="AG20" s="140"/>
+      <c r="AH20" s="140"/>
+      <c r="AI20" s="140"/>
+      <c r="AJ20" s="140"/>
+      <c r="AK20" s="140"/>
+      <c r="AL20" s="140"/>
+      <c r="AM20" s="141"/>
+      <c r="AN20" s="125"/>
+      <c r="AO20" s="126"/>
+      <c r="AP20" s="126"/>
+      <c r="AQ20" s="126"/>
+      <c r="AR20" s="127"/>
+      <c r="AS20" s="125"/>
+      <c r="AT20" s="126"/>
+      <c r="AU20" s="126"/>
+      <c r="AV20" s="126"/>
+      <c r="AW20" s="127"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="137"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="134"/>
       <c r="M21" s="145"/>
-      <c r="N21" s="146"/>
-      <c r="O21" s="146"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="149"/>
-      <c r="X21" s="149"/>
-      <c r="Y21" s="149"/>
-      <c r="Z21" s="149"/>
-      <c r="AA21" s="149"/>
-      <c r="AB21" s="149"/>
-      <c r="AC21" s="149"/>
-      <c r="AD21" s="149"/>
-      <c r="AE21" s="149"/>
-      <c r="AF21" s="149"/>
-      <c r="AG21" s="149"/>
-      <c r="AH21" s="149"/>
-      <c r="AI21" s="149"/>
-      <c r="AJ21" s="149"/>
-      <c r="AK21" s="149"/>
-      <c r="AL21" s="149"/>
-      <c r="AM21" s="150"/>
-      <c r="AN21" s="151"/>
-      <c r="AO21" s="152"/>
-      <c r="AP21" s="152"/>
-      <c r="AQ21" s="152"/>
-      <c r="AR21" s="153"/>
-      <c r="AS21" s="151"/>
-      <c r="AT21" s="152"/>
-      <c r="AU21" s="152"/>
-      <c r="AV21" s="152"/>
-      <c r="AW21" s="153"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="143"/>
+      <c r="Q21" s="143"/>
+      <c r="R21" s="144"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="138"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="140"/>
+      <c r="X21" s="140"/>
+      <c r="Y21" s="140"/>
+      <c r="Z21" s="140"/>
+      <c r="AA21" s="140"/>
+      <c r="AB21" s="140"/>
+      <c r="AC21" s="140"/>
+      <c r="AD21" s="140"/>
+      <c r="AE21" s="140"/>
+      <c r="AF21" s="140"/>
+      <c r="AG21" s="140"/>
+      <c r="AH21" s="140"/>
+      <c r="AI21" s="140"/>
+      <c r="AJ21" s="140"/>
+      <c r="AK21" s="140"/>
+      <c r="AL21" s="140"/>
+      <c r="AM21" s="141"/>
+      <c r="AN21" s="125"/>
+      <c r="AO21" s="126"/>
+      <c r="AP21" s="126"/>
+      <c r="AQ21" s="126"/>
+      <c r="AR21" s="127"/>
+      <c r="AS21" s="125"/>
+      <c r="AT21" s="126"/>
+      <c r="AU21" s="126"/>
+      <c r="AV21" s="126"/>
+      <c r="AW21" s="127"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="59"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="137"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="134"/>
       <c r="M22" s="145"/>
-      <c r="N22" s="146"/>
-      <c r="O22" s="146"/>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="149"/>
-      <c r="X22" s="149"/>
-      <c r="Y22" s="149"/>
-      <c r="Z22" s="149"/>
-      <c r="AA22" s="149"/>
-      <c r="AB22" s="149"/>
-      <c r="AC22" s="149"/>
-      <c r="AD22" s="149"/>
-      <c r="AE22" s="149"/>
-      <c r="AF22" s="149"/>
-      <c r="AG22" s="149"/>
-      <c r="AH22" s="149"/>
-      <c r="AI22" s="149"/>
-      <c r="AJ22" s="149"/>
-      <c r="AK22" s="149"/>
-      <c r="AL22" s="149"/>
-      <c r="AM22" s="150"/>
-      <c r="AN22" s="151"/>
-      <c r="AO22" s="152"/>
-      <c r="AP22" s="152"/>
-      <c r="AQ22" s="152"/>
-      <c r="AR22" s="153"/>
-      <c r="AS22" s="151"/>
-      <c r="AT22" s="152"/>
-      <c r="AU22" s="152"/>
-      <c r="AV22" s="152"/>
-      <c r="AW22" s="153"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="144"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="138"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="140"/>
+      <c r="X22" s="140"/>
+      <c r="Y22" s="140"/>
+      <c r="Z22" s="140"/>
+      <c r="AA22" s="140"/>
+      <c r="AB22" s="140"/>
+      <c r="AC22" s="140"/>
+      <c r="AD22" s="140"/>
+      <c r="AE22" s="140"/>
+      <c r="AF22" s="140"/>
+      <c r="AG22" s="140"/>
+      <c r="AH22" s="140"/>
+      <c r="AI22" s="140"/>
+      <c r="AJ22" s="140"/>
+      <c r="AK22" s="140"/>
+      <c r="AL22" s="140"/>
+      <c r="AM22" s="141"/>
+      <c r="AN22" s="125"/>
+      <c r="AO22" s="126"/>
+      <c r="AP22" s="126"/>
+      <c r="AQ22" s="126"/>
+      <c r="AR22" s="127"/>
+      <c r="AS22" s="125"/>
+      <c r="AT22" s="126"/>
+      <c r="AU22" s="126"/>
+      <c r="AV22" s="126"/>
+      <c r="AW22" s="127"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="137"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="134"/>
       <c r="M23" s="145"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="147"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="149"/>
-      <c r="X23" s="149"/>
-      <c r="Y23" s="149"/>
-      <c r="Z23" s="149"/>
-      <c r="AA23" s="149"/>
-      <c r="AB23" s="149"/>
-      <c r="AC23" s="149"/>
-      <c r="AD23" s="149"/>
-      <c r="AE23" s="149"/>
-      <c r="AF23" s="149"/>
-      <c r="AG23" s="149"/>
-      <c r="AH23" s="149"/>
-      <c r="AI23" s="149"/>
-      <c r="AJ23" s="149"/>
-      <c r="AK23" s="149"/>
-      <c r="AL23" s="149"/>
-      <c r="AM23" s="150"/>
-      <c r="AN23" s="151"/>
-      <c r="AO23" s="152"/>
-      <c r="AP23" s="152"/>
-      <c r="AQ23" s="152"/>
-      <c r="AR23" s="153"/>
-      <c r="AS23" s="151"/>
-      <c r="AT23" s="152"/>
-      <c r="AU23" s="152"/>
-      <c r="AV23" s="152"/>
-      <c r="AW23" s="153"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="144"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="140"/>
+      <c r="X23" s="140"/>
+      <c r="Y23" s="140"/>
+      <c r="Z23" s="140"/>
+      <c r="AA23" s="140"/>
+      <c r="AB23" s="140"/>
+      <c r="AC23" s="140"/>
+      <c r="AD23" s="140"/>
+      <c r="AE23" s="140"/>
+      <c r="AF23" s="140"/>
+      <c r="AG23" s="140"/>
+      <c r="AH23" s="140"/>
+      <c r="AI23" s="140"/>
+      <c r="AJ23" s="140"/>
+      <c r="AK23" s="140"/>
+      <c r="AL23" s="140"/>
+      <c r="AM23" s="141"/>
+      <c r="AN23" s="125"/>
+      <c r="AO23" s="126"/>
+      <c r="AP23" s="126"/>
+      <c r="AQ23" s="126"/>
+      <c r="AR23" s="127"/>
+      <c r="AS23" s="125"/>
+      <c r="AT23" s="126"/>
+      <c r="AU23" s="126"/>
+      <c r="AV23" s="126"/>
+      <c r="AW23" s="127"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="137"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="134"/>
       <c r="M24" s="145"/>
-      <c r="N24" s="146"/>
-      <c r="O24" s="146"/>
-      <c r="P24" s="146"/>
-      <c r="Q24" s="146"/>
-      <c r="R24" s="147"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="149"/>
-      <c r="X24" s="149"/>
-      <c r="Y24" s="149"/>
-      <c r="Z24" s="149"/>
-      <c r="AA24" s="149"/>
-      <c r="AB24" s="149"/>
-      <c r="AC24" s="149"/>
-      <c r="AD24" s="149"/>
-      <c r="AE24" s="149"/>
-      <c r="AF24" s="149"/>
-      <c r="AG24" s="149"/>
-      <c r="AH24" s="149"/>
-      <c r="AI24" s="149"/>
-      <c r="AJ24" s="149"/>
-      <c r="AK24" s="149"/>
-      <c r="AL24" s="149"/>
-      <c r="AM24" s="150"/>
-      <c r="AN24" s="151"/>
-      <c r="AO24" s="152"/>
-      <c r="AP24" s="152"/>
-      <c r="AQ24" s="152"/>
-      <c r="AR24" s="153"/>
-      <c r="AS24" s="151"/>
-      <c r="AT24" s="152"/>
-      <c r="AU24" s="152"/>
-      <c r="AV24" s="152"/>
-      <c r="AW24" s="153"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="143"/>
+      <c r="Q24" s="143"/>
+      <c r="R24" s="144"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="138"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="140"/>
+      <c r="X24" s="140"/>
+      <c r="Y24" s="140"/>
+      <c r="Z24" s="140"/>
+      <c r="AA24" s="140"/>
+      <c r="AB24" s="140"/>
+      <c r="AC24" s="140"/>
+      <c r="AD24" s="140"/>
+      <c r="AE24" s="140"/>
+      <c r="AF24" s="140"/>
+      <c r="AG24" s="140"/>
+      <c r="AH24" s="140"/>
+      <c r="AI24" s="140"/>
+      <c r="AJ24" s="140"/>
+      <c r="AK24" s="140"/>
+      <c r="AL24" s="140"/>
+      <c r="AM24" s="141"/>
+      <c r="AN24" s="125"/>
+      <c r="AO24" s="126"/>
+      <c r="AP24" s="126"/>
+      <c r="AQ24" s="126"/>
+      <c r="AR24" s="127"/>
+      <c r="AS24" s="125"/>
+      <c r="AT24" s="126"/>
+      <c r="AU24" s="126"/>
+      <c r="AV24" s="126"/>
+      <c r="AW24" s="127"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="132"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="149"/>
-      <c r="X25" s="149"/>
-      <c r="Y25" s="149"/>
-      <c r="Z25" s="149"/>
-      <c r="AA25" s="149"/>
-      <c r="AB25" s="149"/>
-      <c r="AC25" s="149"/>
-      <c r="AD25" s="149"/>
-      <c r="AE25" s="149"/>
-      <c r="AF25" s="149"/>
-      <c r="AG25" s="149"/>
-      <c r="AH25" s="149"/>
-      <c r="AI25" s="149"/>
-      <c r="AJ25" s="149"/>
-      <c r="AK25" s="149"/>
-      <c r="AL25" s="149"/>
-      <c r="AM25" s="150"/>
-      <c r="AN25" s="151"/>
-      <c r="AO25" s="152"/>
-      <c r="AP25" s="152"/>
-      <c r="AQ25" s="152"/>
-      <c r="AR25" s="153"/>
-      <c r="AS25" s="151"/>
-      <c r="AT25" s="152"/>
-      <c r="AU25" s="152"/>
-      <c r="AV25" s="152"/>
-      <c r="AW25" s="153"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="143"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="140"/>
+      <c r="X25" s="140"/>
+      <c r="Y25" s="140"/>
+      <c r="Z25" s="140"/>
+      <c r="AA25" s="140"/>
+      <c r="AB25" s="140"/>
+      <c r="AC25" s="140"/>
+      <c r="AD25" s="140"/>
+      <c r="AE25" s="140"/>
+      <c r="AF25" s="140"/>
+      <c r="AG25" s="140"/>
+      <c r="AH25" s="140"/>
+      <c r="AI25" s="140"/>
+      <c r="AJ25" s="140"/>
+      <c r="AK25" s="140"/>
+      <c r="AL25" s="140"/>
+      <c r="AM25" s="141"/>
+      <c r="AN25" s="125"/>
+      <c r="AO25" s="126"/>
+      <c r="AP25" s="126"/>
+      <c r="AQ25" s="126"/>
+      <c r="AR25" s="127"/>
+      <c r="AS25" s="125"/>
+      <c r="AT25" s="126"/>
+      <c r="AU25" s="126"/>
+      <c r="AV25" s="126"/>
+      <c r="AW25" s="127"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="149"/>
-      <c r="X26" s="149"/>
-      <c r="Y26" s="149"/>
-      <c r="Z26" s="149"/>
-      <c r="AA26" s="149"/>
-      <c r="AB26" s="149"/>
-      <c r="AC26" s="149"/>
-      <c r="AD26" s="149"/>
-      <c r="AE26" s="149"/>
-      <c r="AF26" s="149"/>
-      <c r="AG26" s="149"/>
-      <c r="AH26" s="149"/>
-      <c r="AI26" s="149"/>
-      <c r="AJ26" s="149"/>
-      <c r="AK26" s="149"/>
-      <c r="AL26" s="149"/>
-      <c r="AM26" s="150"/>
-      <c r="AN26" s="151"/>
-      <c r="AO26" s="152"/>
-      <c r="AP26" s="152"/>
-      <c r="AQ26" s="152"/>
-      <c r="AR26" s="153"/>
-      <c r="AS26" s="151"/>
-      <c r="AT26" s="152"/>
-      <c r="AU26" s="152"/>
-      <c r="AV26" s="152"/>
-      <c r="AW26" s="153"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="144"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="140"/>
+      <c r="X26" s="140"/>
+      <c r="Y26" s="140"/>
+      <c r="Z26" s="140"/>
+      <c r="AA26" s="140"/>
+      <c r="AB26" s="140"/>
+      <c r="AC26" s="140"/>
+      <c r="AD26" s="140"/>
+      <c r="AE26" s="140"/>
+      <c r="AF26" s="140"/>
+      <c r="AG26" s="140"/>
+      <c r="AH26" s="140"/>
+      <c r="AI26" s="140"/>
+      <c r="AJ26" s="140"/>
+      <c r="AK26" s="140"/>
+      <c r="AL26" s="140"/>
+      <c r="AM26" s="141"/>
+      <c r="AN26" s="125"/>
+      <c r="AO26" s="126"/>
+      <c r="AP26" s="126"/>
+      <c r="AQ26" s="126"/>
+      <c r="AR26" s="127"/>
+      <c r="AS26" s="125"/>
+      <c r="AT26" s="126"/>
+      <c r="AU26" s="126"/>
+      <c r="AV26" s="126"/>
+      <c r="AW26" s="127"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="146"/>
-      <c r="O27" s="146"/>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="147"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="132"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="149"/>
-      <c r="X27" s="149"/>
-      <c r="Y27" s="149"/>
-      <c r="Z27" s="149"/>
-      <c r="AA27" s="149"/>
-      <c r="AB27" s="149"/>
-      <c r="AC27" s="149"/>
-      <c r="AD27" s="149"/>
-      <c r="AE27" s="149"/>
-      <c r="AF27" s="149"/>
-      <c r="AG27" s="149"/>
-      <c r="AH27" s="149"/>
-      <c r="AI27" s="149"/>
-      <c r="AJ27" s="149"/>
-      <c r="AK27" s="149"/>
-      <c r="AL27" s="149"/>
-      <c r="AM27" s="150"/>
-      <c r="AN27" s="151"/>
-      <c r="AO27" s="152"/>
-      <c r="AP27" s="152"/>
-      <c r="AQ27" s="152"/>
-      <c r="AR27" s="153"/>
-      <c r="AS27" s="151"/>
-      <c r="AT27" s="152"/>
-      <c r="AU27" s="152"/>
-      <c r="AV27" s="152"/>
-      <c r="AW27" s="153"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="144"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="138"/>
+      <c r="U27" s="138"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="140"/>
+      <c r="X27" s="140"/>
+      <c r="Y27" s="140"/>
+      <c r="Z27" s="140"/>
+      <c r="AA27" s="140"/>
+      <c r="AB27" s="140"/>
+      <c r="AC27" s="140"/>
+      <c r="AD27" s="140"/>
+      <c r="AE27" s="140"/>
+      <c r="AF27" s="140"/>
+      <c r="AG27" s="140"/>
+      <c r="AH27" s="140"/>
+      <c r="AI27" s="140"/>
+      <c r="AJ27" s="140"/>
+      <c r="AK27" s="140"/>
+      <c r="AL27" s="140"/>
+      <c r="AM27" s="141"/>
+      <c r="AN27" s="125"/>
+      <c r="AO27" s="126"/>
+      <c r="AP27" s="126"/>
+      <c r="AQ27" s="126"/>
+      <c r="AR27" s="127"/>
+      <c r="AS27" s="125"/>
+      <c r="AT27" s="126"/>
+      <c r="AU27" s="126"/>
+      <c r="AV27" s="126"/>
+      <c r="AW27" s="127"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="137"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="134"/>
       <c r="M28" s="145"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="147"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="149"/>
-      <c r="X28" s="149"/>
-      <c r="Y28" s="149"/>
-      <c r="Z28" s="149"/>
-      <c r="AA28" s="149"/>
-      <c r="AB28" s="149"/>
-      <c r="AC28" s="149"/>
-      <c r="AD28" s="149"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="149"/>
-      <c r="AG28" s="149"/>
-      <c r="AH28" s="149"/>
-      <c r="AI28" s="149"/>
-      <c r="AJ28" s="149"/>
-      <c r="AK28" s="149"/>
-      <c r="AL28" s="149"/>
-      <c r="AM28" s="150"/>
-      <c r="AN28" s="151"/>
-      <c r="AO28" s="152"/>
-      <c r="AP28" s="152"/>
-      <c r="AQ28" s="152"/>
-      <c r="AR28" s="153"/>
-      <c r="AS28" s="151"/>
-      <c r="AT28" s="152"/>
-      <c r="AU28" s="152"/>
-      <c r="AV28" s="152"/>
-      <c r="AW28" s="153"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="143"/>
+      <c r="Q28" s="143"/>
+      <c r="R28" s="144"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="140"/>
+      <c r="X28" s="140"/>
+      <c r="Y28" s="140"/>
+      <c r="Z28" s="140"/>
+      <c r="AA28" s="140"/>
+      <c r="AB28" s="140"/>
+      <c r="AC28" s="140"/>
+      <c r="AD28" s="140"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="140"/>
+      <c r="AH28" s="140"/>
+      <c r="AI28" s="140"/>
+      <c r="AJ28" s="140"/>
+      <c r="AK28" s="140"/>
+      <c r="AL28" s="140"/>
+      <c r="AM28" s="141"/>
+      <c r="AN28" s="125"/>
+      <c r="AO28" s="126"/>
+      <c r="AP28" s="126"/>
+      <c r="AQ28" s="126"/>
+      <c r="AR28" s="127"/>
+      <c r="AS28" s="125"/>
+      <c r="AT28" s="126"/>
+      <c r="AU28" s="126"/>
+      <c r="AV28" s="126"/>
+      <c r="AW28" s="127"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="137"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="134"/>
       <c r="M29" s="145"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
-      <c r="U29" s="132"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="149"/>
-      <c r="X29" s="149"/>
-      <c r="Y29" s="149"/>
-      <c r="Z29" s="149"/>
-      <c r="AA29" s="149"/>
-      <c r="AB29" s="149"/>
-      <c r="AC29" s="149"/>
-      <c r="AD29" s="149"/>
-      <c r="AE29" s="149"/>
-      <c r="AF29" s="149"/>
-      <c r="AG29" s="149"/>
-      <c r="AH29" s="149"/>
-      <c r="AI29" s="149"/>
-      <c r="AJ29" s="149"/>
-      <c r="AK29" s="149"/>
-      <c r="AL29" s="149"/>
-      <c r="AM29" s="150"/>
-      <c r="AN29" s="151"/>
-      <c r="AO29" s="152"/>
-      <c r="AP29" s="152"/>
-      <c r="AQ29" s="152"/>
-      <c r="AR29" s="153"/>
-      <c r="AS29" s="151"/>
-      <c r="AT29" s="152"/>
-      <c r="AU29" s="152"/>
-      <c r="AV29" s="152"/>
-      <c r="AW29" s="153"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="143"/>
+      <c r="Q29" s="143"/>
+      <c r="R29" s="144"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="139"/>
+      <c r="W29" s="140"/>
+      <c r="X29" s="140"/>
+      <c r="Y29" s="140"/>
+      <c r="Z29" s="140"/>
+      <c r="AA29" s="140"/>
+      <c r="AB29" s="140"/>
+      <c r="AC29" s="140"/>
+      <c r="AD29" s="140"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="140"/>
+      <c r="AG29" s="140"/>
+      <c r="AH29" s="140"/>
+      <c r="AI29" s="140"/>
+      <c r="AJ29" s="140"/>
+      <c r="AK29" s="140"/>
+      <c r="AL29" s="140"/>
+      <c r="AM29" s="141"/>
+      <c r="AN29" s="125"/>
+      <c r="AO29" s="126"/>
+      <c r="AP29" s="126"/>
+      <c r="AQ29" s="126"/>
+      <c r="AR29" s="127"/>
+      <c r="AS29" s="125"/>
+      <c r="AT29" s="126"/>
+      <c r="AU29" s="126"/>
+      <c r="AV29" s="126"/>
+      <c r="AW29" s="127"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="147"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
-      <c r="U30" s="132"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="149"/>
-      <c r="X30" s="149"/>
-      <c r="Y30" s="149"/>
-      <c r="Z30" s="149"/>
-      <c r="AA30" s="149"/>
-      <c r="AB30" s="149"/>
-      <c r="AC30" s="149"/>
-      <c r="AD30" s="149"/>
-      <c r="AE30" s="149"/>
-      <c r="AF30" s="149"/>
-      <c r="AG30" s="149"/>
-      <c r="AH30" s="149"/>
-      <c r="AI30" s="149"/>
-      <c r="AJ30" s="149"/>
-      <c r="AK30" s="149"/>
-      <c r="AL30" s="149"/>
-      <c r="AM30" s="150"/>
-      <c r="AN30" s="151"/>
-      <c r="AO30" s="152"/>
-      <c r="AP30" s="152"/>
-      <c r="AQ30" s="152"/>
-      <c r="AR30" s="153"/>
-      <c r="AS30" s="151"/>
-      <c r="AT30" s="152"/>
-      <c r="AU30" s="152"/>
-      <c r="AV30" s="152"/>
-      <c r="AW30" s="153"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="143"/>
+      <c r="O30" s="143"/>
+      <c r="P30" s="143"/>
+      <c r="Q30" s="143"/>
+      <c r="R30" s="144"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="138"/>
+      <c r="U30" s="138"/>
+      <c r="V30" s="139"/>
+      <c r="W30" s="140"/>
+      <c r="X30" s="140"/>
+      <c r="Y30" s="140"/>
+      <c r="Z30" s="140"/>
+      <c r="AA30" s="140"/>
+      <c r="AB30" s="140"/>
+      <c r="AC30" s="140"/>
+      <c r="AD30" s="140"/>
+      <c r="AE30" s="140"/>
+      <c r="AF30" s="140"/>
+      <c r="AG30" s="140"/>
+      <c r="AH30" s="140"/>
+      <c r="AI30" s="140"/>
+      <c r="AJ30" s="140"/>
+      <c r="AK30" s="140"/>
+      <c r="AL30" s="140"/>
+      <c r="AM30" s="141"/>
+      <c r="AN30" s="125"/>
+      <c r="AO30" s="126"/>
+      <c r="AP30" s="126"/>
+      <c r="AQ30" s="126"/>
+      <c r="AR30" s="127"/>
+      <c r="AS30" s="125"/>
+      <c r="AT30" s="126"/>
+      <c r="AU30" s="126"/>
+      <c r="AV30" s="126"/>
+      <c r="AW30" s="127"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
-      <c r="U31" s="132"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="149"/>
-      <c r="X31" s="149"/>
-      <c r="Y31" s="149"/>
-      <c r="Z31" s="149"/>
-      <c r="AA31" s="149"/>
-      <c r="AB31" s="149"/>
-      <c r="AC31" s="149"/>
-      <c r="AD31" s="149"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="149"/>
-      <c r="AG31" s="149"/>
-      <c r="AH31" s="149"/>
-      <c r="AI31" s="149"/>
-      <c r="AJ31" s="149"/>
-      <c r="AK31" s="149"/>
-      <c r="AL31" s="149"/>
-      <c r="AM31" s="150"/>
-      <c r="AN31" s="151"/>
-      <c r="AO31" s="152"/>
-      <c r="AP31" s="152"/>
-      <c r="AQ31" s="152"/>
-      <c r="AR31" s="153"/>
-      <c r="AS31" s="151"/>
-      <c r="AT31" s="152"/>
-      <c r="AU31" s="152"/>
-      <c r="AV31" s="152"/>
-      <c r="AW31" s="153"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="143"/>
+      <c r="O31" s="143"/>
+      <c r="P31" s="143"/>
+      <c r="Q31" s="143"/>
+      <c r="R31" s="144"/>
+      <c r="S31" s="138"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="138"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="140"/>
+      <c r="X31" s="140"/>
+      <c r="Y31" s="140"/>
+      <c r="Z31" s="140"/>
+      <c r="AA31" s="140"/>
+      <c r="AB31" s="140"/>
+      <c r="AC31" s="140"/>
+      <c r="AD31" s="140"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="140"/>
+      <c r="AG31" s="140"/>
+      <c r="AH31" s="140"/>
+      <c r="AI31" s="140"/>
+      <c r="AJ31" s="140"/>
+      <c r="AK31" s="140"/>
+      <c r="AL31" s="140"/>
+      <c r="AM31" s="141"/>
+      <c r="AN31" s="125"/>
+      <c r="AO31" s="126"/>
+      <c r="AP31" s="126"/>
+      <c r="AQ31" s="126"/>
+      <c r="AR31" s="127"/>
+      <c r="AS31" s="125"/>
+      <c r="AT31" s="126"/>
+      <c r="AU31" s="126"/>
+      <c r="AV31" s="126"/>
+      <c r="AW31" s="127"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="147"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="132"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="149"/>
-      <c r="X32" s="149"/>
-      <c r="Y32" s="149"/>
-      <c r="Z32" s="149"/>
-      <c r="AA32" s="149"/>
-      <c r="AB32" s="149"/>
-      <c r="AC32" s="149"/>
-      <c r="AD32" s="149"/>
-      <c r="AE32" s="149"/>
-      <c r="AF32" s="149"/>
-      <c r="AG32" s="149"/>
-      <c r="AH32" s="149"/>
-      <c r="AI32" s="149"/>
-      <c r="AJ32" s="149"/>
-      <c r="AK32" s="149"/>
-      <c r="AL32" s="149"/>
-      <c r="AM32" s="150"/>
-      <c r="AN32" s="151"/>
-      <c r="AO32" s="152"/>
-      <c r="AP32" s="152"/>
-      <c r="AQ32" s="152"/>
-      <c r="AR32" s="153"/>
-      <c r="AS32" s="151"/>
-      <c r="AT32" s="152"/>
-      <c r="AU32" s="152"/>
-      <c r="AV32" s="152"/>
-      <c r="AW32" s="153"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="143"/>
+      <c r="P32" s="143"/>
+      <c r="Q32" s="143"/>
+      <c r="R32" s="144"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="138"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="140"/>
+      <c r="X32" s="140"/>
+      <c r="Y32" s="140"/>
+      <c r="Z32" s="140"/>
+      <c r="AA32" s="140"/>
+      <c r="AB32" s="140"/>
+      <c r="AC32" s="140"/>
+      <c r="AD32" s="140"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="140"/>
+      <c r="AG32" s="140"/>
+      <c r="AH32" s="140"/>
+      <c r="AI32" s="140"/>
+      <c r="AJ32" s="140"/>
+      <c r="AK32" s="140"/>
+      <c r="AL32" s="140"/>
+      <c r="AM32" s="141"/>
+      <c r="AN32" s="125"/>
+      <c r="AO32" s="126"/>
+      <c r="AP32" s="126"/>
+      <c r="AQ32" s="126"/>
+      <c r="AR32" s="127"/>
+      <c r="AS32" s="125"/>
+      <c r="AT32" s="126"/>
+      <c r="AU32" s="126"/>
+      <c r="AV32" s="126"/>
+      <c r="AW32" s="127"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="142"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="137"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="132"/>
-      <c r="U33" s="132"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="149"/>
-      <c r="X33" s="149"/>
-      <c r="Y33" s="149"/>
-      <c r="Z33" s="149"/>
-      <c r="AA33" s="149"/>
-      <c r="AB33" s="149"/>
-      <c r="AC33" s="149"/>
-      <c r="AD33" s="149"/>
-      <c r="AE33" s="149"/>
-      <c r="AF33" s="149"/>
-      <c r="AG33" s="149"/>
-      <c r="AH33" s="149"/>
-      <c r="AI33" s="149"/>
-      <c r="AJ33" s="149"/>
-      <c r="AK33" s="149"/>
-      <c r="AL33" s="149"/>
-      <c r="AM33" s="150"/>
-      <c r="AN33" s="151"/>
-      <c r="AO33" s="152"/>
-      <c r="AP33" s="152"/>
-      <c r="AQ33" s="152"/>
-      <c r="AR33" s="153"/>
-      <c r="AS33" s="151"/>
-      <c r="AT33" s="152"/>
-      <c r="AU33" s="152"/>
-      <c r="AV33" s="152"/>
-      <c r="AW33" s="153"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="143"/>
+      <c r="Q33" s="143"/>
+      <c r="R33" s="144"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="138"/>
+      <c r="V33" s="139"/>
+      <c r="W33" s="140"/>
+      <c r="X33" s="140"/>
+      <c r="Y33" s="140"/>
+      <c r="Z33" s="140"/>
+      <c r="AA33" s="140"/>
+      <c r="AB33" s="140"/>
+      <c r="AC33" s="140"/>
+      <c r="AD33" s="140"/>
+      <c r="AE33" s="140"/>
+      <c r="AF33" s="140"/>
+      <c r="AG33" s="140"/>
+      <c r="AH33" s="140"/>
+      <c r="AI33" s="140"/>
+      <c r="AJ33" s="140"/>
+      <c r="AK33" s="140"/>
+      <c r="AL33" s="140"/>
+      <c r="AM33" s="141"/>
+      <c r="AN33" s="125"/>
+      <c r="AO33" s="126"/>
+      <c r="AP33" s="126"/>
+      <c r="AQ33" s="126"/>
+      <c r="AR33" s="127"/>
+      <c r="AS33" s="125"/>
+      <c r="AT33" s="126"/>
+      <c r="AU33" s="126"/>
+      <c r="AV33" s="126"/>
+      <c r="AW33" s="127"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="142"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="137"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="161"/>
-      <c r="R34" s="162"/>
-      <c r="S34" s="132"/>
-      <c r="T34" s="132"/>
-      <c r="U34" s="132"/>
-      <c r="V34" s="148"/>
-      <c r="W34" s="149"/>
-      <c r="X34" s="149"/>
-      <c r="Y34" s="149"/>
-      <c r="Z34" s="149"/>
-      <c r="AA34" s="149"/>
-      <c r="AB34" s="149"/>
-      <c r="AC34" s="149"/>
-      <c r="AD34" s="149"/>
-      <c r="AE34" s="149"/>
-      <c r="AF34" s="149"/>
-      <c r="AG34" s="149"/>
-      <c r="AH34" s="149"/>
-      <c r="AI34" s="149"/>
-      <c r="AJ34" s="149"/>
-      <c r="AK34" s="149"/>
-      <c r="AL34" s="149"/>
-      <c r="AM34" s="150"/>
-      <c r="AN34" s="151"/>
-      <c r="AO34" s="152"/>
-      <c r="AP34" s="152"/>
-      <c r="AQ34" s="152"/>
-      <c r="AR34" s="153"/>
-      <c r="AS34" s="151"/>
-      <c r="AT34" s="152"/>
-      <c r="AU34" s="152"/>
-      <c r="AV34" s="152"/>
-      <c r="AW34" s="153"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="135"/>
+      <c r="N34" s="136"/>
+      <c r="O34" s="136"/>
+      <c r="P34" s="136"/>
+      <c r="Q34" s="136"/>
+      <c r="R34" s="137"/>
+      <c r="S34" s="138"/>
+      <c r="T34" s="138"/>
+      <c r="U34" s="138"/>
+      <c r="V34" s="139"/>
+      <c r="W34" s="140"/>
+      <c r="X34" s="140"/>
+      <c r="Y34" s="140"/>
+      <c r="Z34" s="140"/>
+      <c r="AA34" s="140"/>
+      <c r="AB34" s="140"/>
+      <c r="AC34" s="140"/>
+      <c r="AD34" s="140"/>
+      <c r="AE34" s="140"/>
+      <c r="AF34" s="140"/>
+      <c r="AG34" s="140"/>
+      <c r="AH34" s="140"/>
+      <c r="AI34" s="140"/>
+      <c r="AJ34" s="140"/>
+      <c r="AK34" s="140"/>
+      <c r="AL34" s="140"/>
+      <c r="AM34" s="141"/>
+      <c r="AN34" s="125"/>
+      <c r="AO34" s="126"/>
+      <c r="AP34" s="126"/>
+      <c r="AQ34" s="126"/>
+      <c r="AR34" s="127"/>
+      <c r="AS34" s="125"/>
+      <c r="AT34" s="126"/>
+      <c r="AU34" s="126"/>
+      <c r="AV34" s="126"/>
+      <c r="AW34" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6447,239 +7014,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6811,7 +7145,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S2" s="87"/>
       <c r="T2" s="87"/>
@@ -6839,11 +7173,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="165"/>
-      <c r="AP2" s="166"/>
-      <c r="AQ2" s="166"/>
-      <c r="AR2" s="166"/>
-      <c r="AS2" s="167"/>
+      <c r="AO2" s="171"/>
+      <c r="AP2" s="172"/>
+      <c r="AQ2" s="172"/>
+      <c r="AR2" s="172"/>
+      <c r="AS2" s="173"/>
       <c r="AT2" s="33" t="s">
         <v>26</v>
       </c>
@@ -6852,14 +7186,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="168"/>
-      <c r="BA2" s="169"/>
-      <c r="BB2" s="169"/>
-      <c r="BC2" s="169"/>
-      <c r="BD2" s="169"/>
-      <c r="BE2" s="169"/>
-      <c r="BF2" s="169"/>
-      <c r="BG2" s="170"/>
+      <c r="AZ2" s="174"/>
+      <c r="BA2" s="175"/>
+      <c r="BB2" s="175"/>
+      <c r="BC2" s="175"/>
+      <c r="BD2" s="175"/>
+      <c r="BE2" s="175"/>
+      <c r="BF2" s="175"/>
+      <c r="BG2" s="176"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -6940,7 +7274,7 @@
     </row>
     <row r="8" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
@@ -7877,7 +8211,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="112" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -8258,10 +8592,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="171" t="s">
+      <c r="B43" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="172"/>
+      <c r="C43" s="178"/>
       <c r="D43" s="80" t="s">
         <v>102</v>
       </c>
@@ -8344,10 +8678,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="173">
+      <c r="B44" s="179">
         <v>1</v>
       </c>
-      <c r="C44" s="174"/>
+      <c r="C44" s="180"/>
       <c r="D44" s="104" t="s">
         <v>164</v>
       </c>
@@ -8358,7 +8692,7 @@
       <c r="I44" s="79"/>
       <c r="J44" s="105"/>
       <c r="K44" s="104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L44" s="79"/>
       <c r="M44" s="79"/>
@@ -8379,24 +8713,24 @@
       <c r="AB44" s="79"/>
       <c r="AC44" s="79"/>
       <c r="AD44" s="105"/>
-      <c r="AE44" s="163" t="s">
+      <c r="AE44" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="AF44" s="164"/>
-      <c r="AG44" s="163" t="s">
+      <c r="AF44" s="170"/>
+      <c r="AG44" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="AH44" s="164"/>
-      <c r="AI44" s="163" t="s">
+      <c r="AH44" s="170"/>
+      <c r="AI44" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="AJ44" s="164"/>
-      <c r="AK44" s="163" t="s">
+      <c r="AJ44" s="170"/>
+      <c r="AK44" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="AL44" s="164"/>
+      <c r="AL44" s="170"/>
       <c r="AM44" s="76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AN44" s="77"/>
       <c r="AO44" s="77"/>
@@ -8428,12 +8762,12 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="113"/>
-      <c r="B45" s="175">
+      <c r="B45" s="165">
         <v>2</v>
       </c>
-      <c r="C45" s="176"/>
+      <c r="C45" s="166"/>
       <c r="D45" s="114" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E45" s="115"/>
       <c r="F45" s="115"/>
@@ -8442,7 +8776,7 @@
       <c r="I45" s="115"/>
       <c r="J45" s="116"/>
       <c r="K45" s="114" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L45" s="115"/>
       <c r="M45" s="115"/>
@@ -8463,18 +8797,18 @@
       <c r="AB45" s="115"/>
       <c r="AC45" s="115"/>
       <c r="AD45" s="116"/>
-      <c r="AE45" s="177" t="s">
+      <c r="AE45" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="AF45" s="178"/>
-      <c r="AG45" s="177"/>
-      <c r="AH45" s="178"/>
-      <c r="AI45" s="177"/>
-      <c r="AJ45" s="178"/>
-      <c r="AK45" s="177"/>
-      <c r="AL45" s="178"/>
+      <c r="AF45" s="168"/>
+      <c r="AG45" s="167"/>
+      <c r="AH45" s="168"/>
+      <c r="AI45" s="167"/>
+      <c r="AJ45" s="168"/>
+      <c r="AK45" s="167"/>
+      <c r="AL45" s="168"/>
       <c r="AM45" s="117" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AN45" s="118"/>
       <c r="AO45" s="118"/>
@@ -8498,11 +8832,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
     <mergeCell ref="AI44:AJ44"/>
     <mergeCell ref="AK44:AL44"/>
     <mergeCell ref="AO2:AS2"/>
@@ -8511,6 +8840,11 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="AE44:AF44"/>
     <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8634,20 +8968,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="181">
+      <c r="CD1" s="183">
         <f>変更履歴!E5</f>
         <v>43706</v>
       </c>
-      <c r="CE1" s="182"/>
-      <c r="CF1" s="182"/>
-      <c r="CG1" s="182"/>
-      <c r="CH1" s="182"/>
-      <c r="CI1" s="182"/>
-      <c r="CJ1" s="182"/>
-      <c r="CK1" s="182"/>
-      <c r="CL1" s="182"/>
-      <c r="CM1" s="182"/>
-      <c r="CN1" s="183"/>
+      <c r="CE1" s="184"/>
+      <c r="CF1" s="184"/>
+      <c r="CG1" s="184"/>
+      <c r="CH1" s="184"/>
+      <c r="CI1" s="184"/>
+      <c r="CJ1" s="184"/>
+      <c r="CK1" s="184"/>
+      <c r="CL1" s="184"/>
+      <c r="CM1" s="184"/>
+      <c r="CN1" s="185"/>
       <c r="CO1" s="33" t="s">
         <v>25</v>
       </c>
@@ -8656,23 +8990,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="168" t="str">
+      <c r="CU1" s="174" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="CV1" s="179"/>
-      <c r="CW1" s="179"/>
-      <c r="CX1" s="179"/>
-      <c r="CY1" s="179"/>
-      <c r="CZ1" s="179"/>
-      <c r="DA1" s="179"/>
-      <c r="DB1" s="179"/>
-      <c r="DC1" s="179"/>
-      <c r="DD1" s="179"/>
-      <c r="DE1" s="179"/>
-      <c r="DF1" s="179"/>
-      <c r="DG1" s="179"/>
-      <c r="DH1" s="180"/>
+      <c r="CV1" s="181"/>
+      <c r="CW1" s="181"/>
+      <c r="CX1" s="181"/>
+      <c r="CY1" s="181"/>
+      <c r="CZ1" s="181"/>
+      <c r="DA1" s="181"/>
+      <c r="DB1" s="181"/>
+      <c r="DC1" s="181"/>
+      <c r="DD1" s="181"/>
+      <c r="DE1" s="181"/>
+      <c r="DF1" s="181"/>
+      <c r="DG1" s="181"/>
+      <c r="DH1" s="182"/>
     </row>
     <row r="2" spans="1:113" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -8727,39 +9061,39 @@
       <c r="AQ2" s="87"/>
       <c r="AR2" s="87"/>
       <c r="AS2" s="88"/>
-      <c r="AT2" s="185" t="str">
+      <c r="AT2" s="187" t="str">
         <f>'１．機能概要'!W2</f>
         <v>ＩＰアドレス管理マスタ</v>
       </c>
-      <c r="AU2" s="186"/>
-      <c r="AV2" s="186"/>
-      <c r="AW2" s="186"/>
-      <c r="AX2" s="186"/>
-      <c r="AY2" s="186"/>
-      <c r="AZ2" s="186"/>
-      <c r="BA2" s="186"/>
-      <c r="BB2" s="186"/>
-      <c r="BC2" s="186"/>
-      <c r="BD2" s="186"/>
-      <c r="BE2" s="186"/>
-      <c r="BF2" s="186"/>
-      <c r="BG2" s="186"/>
-      <c r="BH2" s="186"/>
-      <c r="BI2" s="186"/>
-      <c r="BJ2" s="186"/>
-      <c r="BK2" s="186"/>
-      <c r="BL2" s="186"/>
-      <c r="BM2" s="186"/>
-      <c r="BN2" s="186"/>
-      <c r="BO2" s="186"/>
-      <c r="BP2" s="186"/>
-      <c r="BQ2" s="186"/>
-      <c r="BR2" s="186"/>
-      <c r="BS2" s="186"/>
-      <c r="BT2" s="186"/>
-      <c r="BU2" s="186"/>
-      <c r="BV2" s="186"/>
-      <c r="BW2" s="187"/>
+      <c r="AU2" s="188"/>
+      <c r="AV2" s="188"/>
+      <c r="AW2" s="188"/>
+      <c r="AX2" s="188"/>
+      <c r="AY2" s="188"/>
+      <c r="AZ2" s="188"/>
+      <c r="BA2" s="188"/>
+      <c r="BB2" s="188"/>
+      <c r="BC2" s="188"/>
+      <c r="BD2" s="188"/>
+      <c r="BE2" s="188"/>
+      <c r="BF2" s="188"/>
+      <c r="BG2" s="188"/>
+      <c r="BH2" s="188"/>
+      <c r="BI2" s="188"/>
+      <c r="BJ2" s="188"/>
+      <c r="BK2" s="188"/>
+      <c r="BL2" s="188"/>
+      <c r="BM2" s="188"/>
+      <c r="BN2" s="188"/>
+      <c r="BO2" s="188"/>
+      <c r="BP2" s="188"/>
+      <c r="BQ2" s="188"/>
+      <c r="BR2" s="188"/>
+      <c r="BS2" s="188"/>
+      <c r="BT2" s="188"/>
+      <c r="BU2" s="188"/>
+      <c r="BV2" s="188"/>
+      <c r="BW2" s="189"/>
       <c r="BX2" s="33" t="s">
         <v>24</v>
       </c>
@@ -8768,17 +9102,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="184"/>
-      <c r="CE2" s="179"/>
-      <c r="CF2" s="179"/>
-      <c r="CG2" s="179"/>
-      <c r="CH2" s="179"/>
-      <c r="CI2" s="179"/>
-      <c r="CJ2" s="179"/>
-      <c r="CK2" s="179"/>
-      <c r="CL2" s="179"/>
-      <c r="CM2" s="179"/>
-      <c r="CN2" s="180"/>
+      <c r="CD2" s="186"/>
+      <c r="CE2" s="181"/>
+      <c r="CF2" s="181"/>
+      <c r="CG2" s="181"/>
+      <c r="CH2" s="181"/>
+      <c r="CI2" s="181"/>
+      <c r="CJ2" s="181"/>
+      <c r="CK2" s="181"/>
+      <c r="CL2" s="181"/>
+      <c r="CM2" s="181"/>
+      <c r="CN2" s="182"/>
       <c r="CO2" s="33" t="s">
         <v>26</v>
       </c>
@@ -8787,20 +9121,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="168"/>
-      <c r="CV2" s="179"/>
-      <c r="CW2" s="179"/>
-      <c r="CX2" s="179"/>
-      <c r="CY2" s="179"/>
-      <c r="CZ2" s="179"/>
-      <c r="DA2" s="179"/>
-      <c r="DB2" s="179"/>
-      <c r="DC2" s="179"/>
-      <c r="DD2" s="179"/>
-      <c r="DE2" s="179"/>
-      <c r="DF2" s="179"/>
-      <c r="DG2" s="179"/>
-      <c r="DH2" s="180"/>
+      <c r="CU2" s="174"/>
+      <c r="CV2" s="181"/>
+      <c r="CW2" s="181"/>
+      <c r="CX2" s="181"/>
+      <c r="CY2" s="181"/>
+      <c r="CZ2" s="181"/>
+      <c r="DA2" s="181"/>
+      <c r="DB2" s="181"/>
+      <c r="DC2" s="181"/>
+      <c r="DD2" s="181"/>
+      <c r="DE2" s="181"/>
+      <c r="DF2" s="181"/>
+      <c r="DG2" s="181"/>
+      <c r="DH2" s="182"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="55"/>
@@ -9003,37 +9337,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="125" t="s">
+      <c r="E6" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G6" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="188" t="s">
+      <c r="I6" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="188" t="s">
+      <c r="J6" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="125" t="s">
+      <c r="K6" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="125" t="s">
+      <c r="M6" s="158" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="69" t="s">
@@ -9041,24 +9375,24 @@
       </c>
       <c r="O6" s="69"/>
       <c r="P6" s="69"/>
-      <c r="Q6" s="188" t="s">
+      <c r="Q6" s="192" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
       <c r="N7" s="42" t="s">
         <v>80</v>
       </c>
@@ -9068,7 +9402,7 @@
       <c r="P7" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="188"/>
+      <c r="Q7" s="192"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -9127,10 +9461,10 @@
         <v>60</v>
       </c>
       <c r="E9" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>113</v>
@@ -9163,7 +9497,7 @@
         <v>34</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -9174,10 +9508,10 @@
         <v>61</v>
       </c>
       <c r="E10" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>113</v>
@@ -9210,7 +9544,7 @@
         <v>34</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -9221,10 +9555,10 @@
         <v>62</v>
       </c>
       <c r="E11" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>113</v>
@@ -9257,7 +9591,7 @@
         <v>34</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -9267,7 +9601,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E12" s="43" t="s">
         <v>53</v>
@@ -9316,7 +9650,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -9371,37 +9705,37 @@
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="125" t="s">
+      <c r="E16" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="125" t="s">
+      <c r="F16" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="125" t="s">
+      <c r="G16" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="125" t="s">
+      <c r="H16" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="189" t="s">
+      <c r="I16" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="188" t="s">
+      <c r="J16" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="125" t="s">
+      <c r="K16" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="125" t="s">
+      <c r="L16" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="125" t="s">
+      <c r="M16" s="158" t="s">
         <v>33</v>
       </c>
       <c r="N16" s="69" t="s">
@@ -9409,24 +9743,24 @@
       </c>
       <c r="O16" s="69"/>
       <c r="P16" s="69"/>
-      <c r="Q16" s="189" t="s">
+      <c r="Q16" s="190" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="188"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
       <c r="N17" s="42" t="s">
         <v>80</v>
       </c>
@@ -9436,20 +9770,20 @@
       <c r="P17" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q17" s="190"/>
+      <c r="Q17" s="191"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="191" t="s">
-        <v>254</v>
-      </c>
-      <c r="F18" s="192" t="s">
-        <v>255</v>
+        <v>202</v>
+      </c>
+      <c r="E18" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="121" t="s">
+        <v>257</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>36</v>
@@ -9473,13 +9807,13 @@
         <v>34</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>34</v>
@@ -9492,7 +9826,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>165</v>
@@ -9522,7 +9856,7 @@
         <v>34</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -9541,7 +9875,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>166</v>
@@ -9577,7 +9911,7 @@
         <v>34</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>34</v>
@@ -9596,37 +9930,37 @@
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="61"/>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="D23" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="125" t="s">
+      <c r="E23" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="125" t="s">
+      <c r="F23" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="125" t="s">
+      <c r="G23" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="125" t="s">
+      <c r="H23" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="188" t="s">
+      <c r="I23" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="188" t="s">
+      <c r="J23" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="125" t="s">
+      <c r="K23" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="125" t="s">
+      <c r="L23" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="125" t="s">
+      <c r="M23" s="158" t="s">
         <v>33</v>
       </c>
       <c r="N23" s="69" t="s">
@@ -9634,24 +9968,24 @@
       </c>
       <c r="O23" s="69"/>
       <c r="P23" s="69"/>
-      <c r="Q23" s="188" t="s">
+      <c r="Q23" s="192" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="61"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="188"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="192"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
       <c r="N24" s="42" t="s">
         <v>80</v>
       </c>
@@ -9661,7 +9995,7 @@
       <c r="P24" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q24" s="188"/>
+      <c r="Q24" s="192"/>
     </row>
     <row r="25" spans="1:17" s="50" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="56"/>
@@ -9745,10 +10079,10 @@
         <v>81</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>35</v>
@@ -9763,7 +10097,7 @@
         <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>34</v>
@@ -9824,7 +10158,7 @@
         <v>35</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>35</v>
@@ -9839,10 +10173,10 @@
         <v>169</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="F29" s="121" t="s">
+        <v>255</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>36</v>
@@ -9872,7 +10206,7 @@
         <v>35</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>35</v>
@@ -9894,7 +10228,7 @@
         <v>167</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>29</v>
@@ -9921,10 +10255,10 @@
         <v>35</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -9939,8 +10273,8 @@
       <c r="E31" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>173</v>
+      <c r="F31" s="121" t="s">
+        <v>256</v>
       </c>
       <c r="G31" s="44" t="s">
         <v>51</v>
@@ -9961,7 +10295,7 @@
         <v>35</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>35</v>
@@ -9970,7 +10304,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>35</v>
@@ -9983,13 +10317,13 @@
         <v>7</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G32" s="44" t="s">
         <v>51</v>
@@ -10010,7 +10344,7 @@
         <v>35</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>35</v>
@@ -10019,7 +10353,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -10053,37 +10387,37 @@
     <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="61"/>
-      <c r="C35" s="125" t="s">
+      <c r="C35" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="125" t="s">
+      <c r="D35" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="125" t="s">
+      <c r="E35" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="125" t="s">
+      <c r="F35" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="125" t="s">
+      <c r="G35" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="125" t="s">
+      <c r="H35" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="188" t="s">
+      <c r="I35" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="J35" s="188" t="s">
+      <c r="J35" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="K35" s="125" t="s">
+      <c r="K35" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="L35" s="125" t="s">
+      <c r="L35" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="M35" s="125" t="s">
+      <c r="M35" s="158" t="s">
         <v>33</v>
       </c>
       <c r="N35" s="69" t="s">
@@ -10091,24 +10425,24 @@
       </c>
       <c r="O35" s="69"/>
       <c r="P35" s="69"/>
-      <c r="Q35" s="188" t="s">
+      <c r="Q35" s="192" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="61"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="192"/>
+      <c r="J36" s="192"/>
+      <c r="K36" s="158"/>
+      <c r="L36" s="158"/>
+      <c r="M36" s="158"/>
       <c r="N36" s="85" t="s">
         <v>80</v>
       </c>
@@ -10118,7 +10452,7 @@
       <c r="P36" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="Q36" s="188"/>
+      <c r="Q36" s="192"/>
     </row>
     <row r="37" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
@@ -10177,11 +10511,11 @@
       <c r="D38" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="191" t="s">
-        <v>254</v>
-      </c>
-      <c r="F38" s="192" t="s">
-        <v>255</v>
+      <c r="E38" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="F38" s="121" t="s">
+        <v>257</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>36</v>
@@ -10205,13 +10539,13 @@
         <v>35</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>35</v>
@@ -10224,10 +10558,10 @@
         <v>3</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>167</v>
@@ -10254,7 +10588,7 @@
         <v>35</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>35</v>
@@ -10273,16 +10607,16 @@
         <v>4</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="121" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" s="44" t="s">
         <v>173</v>
-      </c>
-      <c r="G40" s="44" t="s">
-        <v>174</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>115</v>
@@ -10300,7 +10634,7 @@
         <v>127</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N40" s="7" t="s">
         <v>35</v>
@@ -10322,16 +10656,16 @@
         <v>5</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>115</v>
@@ -10349,7 +10683,7 @@
         <v>127</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>35</v>
@@ -10387,6 +10721,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="I23:I24"/>
@@ -10403,38 +10769,6 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10508,14 +10842,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="165">
+      <c r="AI1" s="171">
         <f>変更履歴!E5</f>
         <v>43706</v>
       </c>
-      <c r="AJ1" s="186"/>
-      <c r="AK1" s="186"/>
-      <c r="AL1" s="186"/>
-      <c r="AM1" s="187"/>
+      <c r="AJ1" s="188"/>
+      <c r="AK1" s="188"/>
+      <c r="AL1" s="188"/>
+      <c r="AM1" s="189"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -10524,16 +10858,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="168" t="str">
+      <c r="AT1" s="174" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="179"/>
-      <c r="AV1" s="179"/>
-      <c r="AW1" s="179"/>
-      <c r="AX1" s="179"/>
-      <c r="AY1" s="179"/>
-      <c r="AZ1" s="180"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="181"/>
+      <c r="AW1" s="181"/>
+      <c r="AX1" s="181"/>
+      <c r="AY1" s="181"/>
+      <c r="AZ1" s="182"/>
     </row>
     <row r="2" spans="1:52" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -10561,32 +10895,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="185" t="str">
+      <c r="S2" s="187" t="str">
         <f>'１．機能概要'!W2</f>
         <v>ＩＰアドレス管理マスタ</v>
       </c>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="187"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="189"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="184"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="179"/>
-      <c r="AL2" s="179"/>
-      <c r="AM2" s="180"/>
+      <c r="AI2" s="186"/>
+      <c r="AJ2" s="181"/>
+      <c r="AK2" s="181"/>
+      <c r="AL2" s="181"/>
+      <c r="AM2" s="182"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -10595,13 +10929,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="179"/>
-      <c r="AV2" s="179"/>
-      <c r="AW2" s="179"/>
-      <c r="AX2" s="179"/>
-      <c r="AY2" s="179"/>
-      <c r="AZ2" s="180"/>
+      <c r="AT2" s="174"/>
+      <c r="AU2" s="181"/>
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="181"/>
+      <c r="AX2" s="181"/>
+      <c r="AY2" s="181"/>
+      <c r="AZ2" s="182"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="60"/>
@@ -11100,7 +11434,7 @@
       <c r="G14" s="72"/>
       <c r="K14" s="73"/>
       <c r="N14" s="103" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O14" s="103"/>
       <c r="P14" s="103"/>
@@ -11132,7 +11466,7 @@
       <c r="G15" s="72"/>
       <c r="K15" s="73"/>
       <c r="N15" s="103" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O15" s="103"/>
       <c r="P15" s="103"/>
@@ -11195,7 +11529,7 @@
       <c r="G17" s="72"/>
       <c r="L17" s="72"/>
       <c r="M17" s="103" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N17" s="103"/>
       <c r="O17" s="103"/>
@@ -11236,7 +11570,7 @@
       <c r="L18" s="72"/>
       <c r="M18" s="103"/>
       <c r="N18" s="103" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O18" s="103"/>
       <c r="P18" s="103"/>
@@ -11276,7 +11610,7 @@
       <c r="L19" s="72"/>
       <c r="M19" s="103"/>
       <c r="N19" s="103" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O19" s="103"/>
       <c r="P19" s="103"/>
@@ -11315,7 +11649,7 @@
       <c r="G20" s="72"/>
       <c r="L20" s="72"/>
       <c r="O20" s="103" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P20" s="103"/>
       <c r="Q20" s="103"/>
@@ -11453,7 +11787,7 @@
       <c r="G23" s="72"/>
       <c r="K23" s="73"/>
       <c r="N23" s="103" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O23" s="103"/>
       <c r="P23" s="103"/>
@@ -11467,7 +11801,7 @@
         <v>37</v>
       </c>
       <c r="Y23" s="103" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Z23" s="103"/>
       <c r="AA23" s="103"/>
@@ -11492,7 +11826,7 @@
       <c r="K24" s="73"/>
       <c r="L24" s="23"/>
       <c r="N24" s="103" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O24" s="103"/>
       <c r="P24" s="103"/>
@@ -11506,7 +11840,7 @@
         <v>37</v>
       </c>
       <c r="Y24" s="103" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z24" s="103"/>
       <c r="AA24" s="103"/>
@@ -11543,7 +11877,7 @@
       <c r="K25" s="73"/>
       <c r="L25" s="23"/>
       <c r="N25" s="103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O25" s="103"/>
       <c r="P25" s="103"/>
@@ -11557,7 +11891,7 @@
         <v>37</v>
       </c>
       <c r="Y25" s="103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z25" s="103"/>
       <c r="AA25" s="103"/>
@@ -11650,7 +11984,7 @@
       <c r="K28" s="73"/>
       <c r="L28" s="23"/>
       <c r="N28" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AJ28" s="23"/>
       <c r="AK28" s="23"/>
@@ -11820,13 +12154,13 @@
         <v>3</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="22"/>
       <c r="G32" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
@@ -12003,7 +12337,7 @@
       <c r="J38" s="23"/>
       <c r="K38" s="73"/>
       <c r="L38" s="72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ38" s="23"/>
       <c r="AK38" s="23"/>
@@ -12223,7 +12557,7 @@
       <c r="K43" s="73"/>
       <c r="L43" s="72"/>
       <c r="N43" s="103" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O43" s="103"/>
       <c r="P43" s="103"/>
@@ -12237,7 +12571,7 @@
         <v>37</v>
       </c>
       <c r="Y43" s="103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z43" s="103"/>
       <c r="AA43" s="103"/>
@@ -12405,7 +12739,7 @@
       <c r="F50" s="73"/>
       <c r="G50" s="72"/>
       <c r="L50" s="72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AV50" s="73"/>
     </row>
@@ -12463,13 +12797,13 @@
         <v>4</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="22"/>
       <c r="G52" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
@@ -12767,7 +13101,7 @@
       <c r="J58" s="23"/>
       <c r="K58" s="73"/>
       <c r="L58" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
@@ -12909,13 +13243,13 @@
         <v>5</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
       <c r="G61" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
@@ -13001,7 +13335,7 @@
       <c r="J64" s="23"/>
       <c r="K64" s="73"/>
       <c r="L64" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AJ64" s="23"/>
       <c r="AK64" s="23"/>
@@ -20628,14 +20962,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="165">
+      <c r="AI1" s="171">
         <f>変更履歴!E5</f>
         <v>43706</v>
       </c>
-      <c r="AJ1" s="186"/>
-      <c r="AK1" s="186"/>
-      <c r="AL1" s="186"/>
-      <c r="AM1" s="187"/>
+      <c r="AJ1" s="188"/>
+      <c r="AK1" s="188"/>
+      <c r="AL1" s="188"/>
+      <c r="AM1" s="189"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -20644,16 +20978,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="168" t="str">
+      <c r="AT1" s="174" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="179"/>
-      <c r="AV1" s="179"/>
-      <c r="AW1" s="179"/>
-      <c r="AX1" s="179"/>
-      <c r="AY1" s="179"/>
-      <c r="AZ1" s="180"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="181"/>
+      <c r="AW1" s="181"/>
+      <c r="AX1" s="181"/>
+      <c r="AY1" s="181"/>
+      <c r="AZ1" s="182"/>
     </row>
     <row r="2" spans="1:52" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -20681,32 +21015,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="185" t="str">
+      <c r="S2" s="187" t="str">
         <f>'１．機能概要'!W2</f>
         <v>ＩＰアドレス管理マスタ</v>
       </c>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="187"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="189"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="184"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="179"/>
-      <c r="AL2" s="179"/>
-      <c r="AM2" s="180"/>
+      <c r="AI2" s="186"/>
+      <c r="AJ2" s="181"/>
+      <c r="AK2" s="181"/>
+      <c r="AL2" s="181"/>
+      <c r="AM2" s="182"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -20715,13 +21049,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="179"/>
-      <c r="AV2" s="179"/>
-      <c r="AW2" s="179"/>
-      <c r="AX2" s="179"/>
-      <c r="AY2" s="179"/>
-      <c r="AZ2" s="180"/>
+      <c r="AT2" s="174"/>
+      <c r="AU2" s="181"/>
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="181"/>
+      <c r="AX2" s="181"/>
+      <c r="AY2" s="181"/>
+      <c r="AZ2" s="182"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="60"/>
@@ -21079,7 +21413,7 @@
       <c r="R9" s="21"/>
       <c r="S9" s="22"/>
       <c r="T9" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
@@ -21168,7 +21502,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -21277,7 +21611,7 @@
       <c r="C13" s="72"/>
       <c r="I13" s="73"/>
       <c r="J13" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
@@ -21291,7 +21625,7 @@
       <c r="R13" s="21"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
@@ -21303,7 +21637,7 @@
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
@@ -21389,7 +21723,7 @@
       <c r="R15" s="21"/>
       <c r="S15" s="22"/>
       <c r="T15" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
@@ -21487,7 +21821,7 @@
       <c r="R17" s="21"/>
       <c r="S17" s="22"/>
       <c r="T17" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
@@ -21571,7 +21905,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -21592,7 +21926,7 @@
       <c r="R19" s="21"/>
       <c r="S19" s="22"/>
       <c r="T19" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
@@ -21604,7 +21938,7 @@
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
@@ -21778,7 +22112,7 @@
       <c r="C23" s="72"/>
       <c r="I23" s="73"/>
       <c r="J23" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
@@ -21792,7 +22126,7 @@
       <c r="R23" s="21"/>
       <c r="S23" s="22"/>
       <c r="T23" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
@@ -21804,7 +22138,7 @@
       <c r="AB23" s="21"/>
       <c r="AC23" s="21"/>
       <c r="AD23" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE23" s="21"/>
       <c r="AF23" s="21"/>
@@ -21890,7 +22224,7 @@
       <c r="R25" s="21"/>
       <c r="S25" s="22"/>
       <c r="T25" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
@@ -21988,7 +22322,7 @@
       <c r="R27" s="21"/>
       <c r="S27" s="22"/>
       <c r="T27" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
@@ -22077,7 +22411,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -22100,7 +22434,7 @@
       <c r="R29" s="21"/>
       <c r="S29" s="22"/>
       <c r="T29" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
@@ -22112,7 +22446,7 @@
       <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
       <c r="AD29" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE29" s="21"/>
       <c r="AF29" s="21"/>
@@ -22198,7 +22532,7 @@
       <c r="R31" s="21"/>
       <c r="S31" s="22"/>
       <c r="T31" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
@@ -22296,7 +22630,7 @@
       <c r="R33" s="21"/>
       <c r="S33" s="22"/>
       <c r="T33" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
@@ -22406,7 +22740,7 @@
       <c r="R35" s="21"/>
       <c r="S35" s="22"/>
       <c r="T35" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
@@ -22511,7 +22845,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
       <c r="T37" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
@@ -26558,14 +26892,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="165">
+      <c r="AI1" s="171">
         <f>変更履歴!E5</f>
         <v>43706</v>
       </c>
-      <c r="AJ1" s="186"/>
-      <c r="AK1" s="186"/>
-      <c r="AL1" s="186"/>
-      <c r="AM1" s="187"/>
+      <c r="AJ1" s="188"/>
+      <c r="AK1" s="188"/>
+      <c r="AL1" s="188"/>
+      <c r="AM1" s="189"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -26574,16 +26908,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="168" t="str">
+      <c r="AT1" s="174" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="179"/>
-      <c r="AV1" s="179"/>
-      <c r="AW1" s="179"/>
-      <c r="AX1" s="179"/>
-      <c r="AY1" s="179"/>
-      <c r="AZ1" s="180"/>
+      <c r="AU1" s="181"/>
+      <c r="AV1" s="181"/>
+      <c r="AW1" s="181"/>
+      <c r="AX1" s="181"/>
+      <c r="AY1" s="181"/>
+      <c r="AZ1" s="182"/>
     </row>
     <row r="2" spans="1:52" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -26611,32 +26945,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="185" t="str">
+      <c r="S2" s="187" t="str">
         <f>'１．機能概要'!W2</f>
         <v>ＩＰアドレス管理マスタ</v>
       </c>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="187"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="189"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="184"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="179"/>
-      <c r="AL2" s="179"/>
-      <c r="AM2" s="180"/>
+      <c r="AI2" s="186"/>
+      <c r="AJ2" s="181"/>
+      <c r="AK2" s="181"/>
+      <c r="AL2" s="181"/>
+      <c r="AM2" s="182"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -26645,13 +26979,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="179"/>
-      <c r="AV2" s="179"/>
-      <c r="AW2" s="179"/>
-      <c r="AX2" s="179"/>
-      <c r="AY2" s="179"/>
-      <c r="AZ2" s="180"/>
+      <c r="AT2" s="174"/>
+      <c r="AU2" s="181"/>
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="181"/>
+      <c r="AX2" s="181"/>
+      <c r="AY2" s="181"/>
+      <c r="AZ2" s="182"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="60"/>
@@ -26929,22 +27263,22 @@
     </row>
     <row r="8" spans="1:52" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:52" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="111" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:52" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="111" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:52" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.15">
@@ -37765,12 +38099,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -37928,6 +38256,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -37938,15 +38272,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37964,6 +38289,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>

--- a/01_基本設計書/20191231リリース/SC-M14_ＩＰアドレス管理マスタ.xlsx
+++ b/01_基本設計書/20191231リリース/SC-M14_ＩＰアドレス管理マスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\マスタ\20191018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88473661-5818-408B-9D96-E8A638A4BE68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CD060C-526A-42A8-A191-D1061433F2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="251">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -934,11 +934,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>必須チェック
-重複チェック</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>下記の条件よりデータを表示する。</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -959,13 +954,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>＜必須＞</t>
-    <rPh sb="1" eb="3">
-      <t>ヒッス</t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -1011,84 +999,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>修正処理の入力チェックをする。</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>入力チェックが異常の場合、メッセージを表示して、修正処理を終止する。</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>「No」の場合、修正処理を終止する。</t>
-    <rPh sb="8" eb="10">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュウシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>追加処理の入力チェックをする。</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>入力チェックが異常の場合、メッセージを表示して、追加処理を終止する。</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>なし</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>「No」の場合、追加処理を終止する。</t>
     <rPh sb="8" eb="10">
       <t>ツイカ</t>
@@ -1098,22 +1008,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>シュウシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>該当レコードが存在する場合、メッセージを表示して、追加処理を終止する。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1195,17 +1089,6 @@
     <t>Q0002(修正します、よろしいですか。)</t>
     <rPh sb="6" eb="8">
       <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>更新した件数が0の場合、メッセージを表示する。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>削除した件数が0の場合、メッセージを表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1344,17 +1227,6 @@
   </si>
   <si>
     <t>画面．ＩＰアドレス</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>ＩＰアドレスの存在チェックをする。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>画面追加部．ＩＰアドレス</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
@@ -1569,19 +1441,6 @@
     <t>ＩＰアドレス管理マスタ.ＩＰアドレス（昇順）</t>
   </si>
   <si>
-    <t>テーブル「ＩＰアドレス管理マスタ」に入力したデータを追加する。</t>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1595,27 +1454,6 @@
   </si>
   <si>
     <t>Remarks</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＩＰアドレス</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>選択行に、入力したデータをテーブル「ＩＰアドレス管理マスタ」に更新する。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>選択行を削除する。</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1763,13 +1601,6 @@
     <t>COND-003</t>
   </si>
   <si>
-    <t>設備</t>
-    <rPh sb="0" eb="2">
-      <t>セツビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ＩＰアドレス管理マスタの設備コード、設備マスタの設備略称</t>
   </si>
   <si>
@@ -1867,15 +1698,145 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Equipment</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Model</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Equipment NO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">必須チェック
+重複チェック
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>半角チェック</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力チェックを実行する。</t>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問題がある場合、メッセージを表示して、追加処理を終止する。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ダイアログを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>重複チェックを実行する。</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データをテーブルに追加する。</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>選択レコードがあるかどうかのチェックを実行する。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ないの場合、メッセージを表示して、更新処理を終止する。</t>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「No」の場合、更新処理を終止する。</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データをテーブルに更新する。</t>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ないの場合、メッセージを表示して、削除処理を終止する。</t>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データをテーブルに削除する。</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1887,7 +1848,7 @@
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2106,6 +2067,12 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2357,7 +2324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -2713,91 +2680,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2825,17 +2707,90 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2873,6 +2828,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2900,14 +2867,23 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -4780,7 +4756,7 @@
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" s="122" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B32" s="122"/>
       <c r="C32" s="122"/>
@@ -5001,1779 +4977,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="57"/>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="156"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="156"/>
-      <c r="AB1" s="156"/>
-      <c r="AC1" s="156"/>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="156"/>
-      <c r="AH1" s="156"/>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="156"/>
-      <c r="AK1" s="156"/>
-      <c r="AL1" s="156"/>
-      <c r="AM1" s="156"/>
-      <c r="AN1" s="156"/>
-      <c r="AO1" s="156"/>
-      <c r="AP1" s="156"/>
-      <c r="AQ1" s="156"/>
-      <c r="AR1" s="156"/>
-      <c r="AS1" s="156"/>
-      <c r="AT1" s="156"/>
-      <c r="AU1" s="156"/>
-      <c r="AV1" s="156"/>
-      <c r="AW1" s="156"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="125"/>
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="125"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="157"/>
-      <c r="AG2" s="157"/>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="157"/>
-      <c r="AJ2" s="157"/>
-      <c r="AK2" s="157"/>
-      <c r="AL2" s="157"/>
-      <c r="AM2" s="157"/>
-      <c r="AN2" s="157"/>
-      <c r="AO2" s="157"/>
-      <c r="AP2" s="157"/>
-      <c r="AQ2" s="157"/>
-      <c r="AR2" s="157"/>
-      <c r="AS2" s="157"/>
-      <c r="AT2" s="157"/>
-      <c r="AU2" s="157"/>
-      <c r="AV2" s="157"/>
-      <c r="AW2" s="157"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="126"/>
+      <c r="AO2" s="126"/>
+      <c r="AP2" s="126"/>
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="126"/>
+      <c r="AS2" s="126"/>
+      <c r="AT2" s="126"/>
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="159" t="s">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="160"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="159" t="s">
+      <c r="K3" s="129"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="158" t="s">
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="158"/>
-      <c r="U3" s="158"/>
-      <c r="V3" s="158" t="s">
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="158"/>
-      <c r="X3" s="158"/>
-      <c r="Y3" s="158"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="158"/>
-      <c r="AC3" s="158"/>
-      <c r="AD3" s="158"/>
-      <c r="AE3" s="158"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="158"/>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="158"/>
-      <c r="AJ3" s="158"/>
-      <c r="AK3" s="158"/>
-      <c r="AL3" s="158"/>
-      <c r="AM3" s="158"/>
-      <c r="AN3" s="158" t="s">
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="127"/>
+      <c r="AI3" s="127"/>
+      <c r="AJ3" s="127"/>
+      <c r="AK3" s="127"/>
+      <c r="AL3" s="127"/>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="158"/>
-      <c r="AP3" s="158"/>
-      <c r="AQ3" s="158"/>
-      <c r="AR3" s="158"/>
-      <c r="AS3" s="158" t="s">
+      <c r="AO3" s="127"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
+      <c r="AR3" s="127"/>
+      <c r="AS3" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="158"/>
-      <c r="AU3" s="158"/>
-      <c r="AV3" s="158"/>
-      <c r="AW3" s="158"/>
+      <c r="AT3" s="127"/>
+      <c r="AU3" s="127"/>
+      <c r="AV3" s="127"/>
+      <c r="AW3" s="127"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="163"/>
-      <c r="R4" s="164"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="158"/>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="158"/>
-      <c r="AI4" s="158"/>
-      <c r="AJ4" s="158"/>
-      <c r="AK4" s="158"/>
-      <c r="AL4" s="158"/>
-      <c r="AM4" s="158"/>
-      <c r="AN4" s="158"/>
-      <c r="AO4" s="158"/>
-      <c r="AP4" s="158"/>
-      <c r="AQ4" s="158"/>
-      <c r="AR4" s="158"/>
-      <c r="AS4" s="158"/>
-      <c r="AT4" s="158"/>
-      <c r="AU4" s="158"/>
-      <c r="AV4" s="158"/>
-      <c r="AW4" s="158"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="127"/>
+      <c r="AJ4" s="127"/>
+      <c r="AK4" s="127"/>
+      <c r="AL4" s="127"/>
+      <c r="AM4" s="127"/>
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="127"/>
+      <c r="AQ4" s="127"/>
+      <c r="AR4" s="127"/>
+      <c r="AS4" s="127"/>
+      <c r="AT4" s="127"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="127"/>
+      <c r="AW4" s="127"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
-      <c r="B5" s="150">
+      <c r="B5" s="135">
         <v>1</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="131">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="136">
         <v>43706</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="133"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="132" t="s">
+      <c r="K5" s="138"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="138" t="s">
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="138"/>
-      <c r="U5" s="138"/>
-      <c r="V5" s="149" t="s">
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="149"/>
-      <c r="X5" s="149"/>
-      <c r="Y5" s="149"/>
-      <c r="Z5" s="149"/>
-      <c r="AA5" s="149"/>
-      <c r="AB5" s="149"/>
-      <c r="AC5" s="149"/>
-      <c r="AD5" s="149"/>
-      <c r="AE5" s="149"/>
-      <c r="AF5" s="149"/>
-      <c r="AG5" s="149"/>
-      <c r="AH5" s="149"/>
-      <c r="AI5" s="149"/>
-      <c r="AJ5" s="149"/>
-      <c r="AK5" s="149"/>
-      <c r="AL5" s="149"/>
-      <c r="AM5" s="149"/>
-      <c r="AN5" s="138" t="s">
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
+      <c r="AF5" s="143"/>
+      <c r="AG5" s="143"/>
+      <c r="AH5" s="143"/>
+      <c r="AI5" s="143"/>
+      <c r="AJ5" s="143"/>
+      <c r="AK5" s="143"/>
+      <c r="AL5" s="143"/>
+      <c r="AM5" s="143"/>
+      <c r="AN5" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="AO5" s="138"/>
-      <c r="AP5" s="138"/>
-      <c r="AQ5" s="138"/>
-      <c r="AR5" s="138"/>
-      <c r="AS5" s="138"/>
-      <c r="AT5" s="138"/>
-      <c r="AU5" s="138"/>
-      <c r="AV5" s="138"/>
-      <c r="AW5" s="138"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134"/>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="154"/>
-      <c r="O6" s="154"/>
-      <c r="P6" s="154"/>
-      <c r="Q6" s="154"/>
-      <c r="R6" s="155"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="149"/>
-      <c r="X6" s="149"/>
-      <c r="Y6" s="149"/>
-      <c r="Z6" s="149"/>
-      <c r="AA6" s="149"/>
-      <c r="AB6" s="149"/>
-      <c r="AC6" s="149"/>
-      <c r="AD6" s="149"/>
-      <c r="AE6" s="149"/>
-      <c r="AF6" s="149"/>
-      <c r="AG6" s="149"/>
-      <c r="AH6" s="149"/>
-      <c r="AI6" s="149"/>
-      <c r="AJ6" s="149"/>
-      <c r="AK6" s="149"/>
-      <c r="AL6" s="149"/>
-      <c r="AM6" s="149"/>
-      <c r="AN6" s="138"/>
-      <c r="AO6" s="138"/>
-      <c r="AP6" s="138"/>
-      <c r="AQ6" s="138"/>
-      <c r="AR6" s="138"/>
-      <c r="AS6" s="138"/>
-      <c r="AT6" s="138"/>
-      <c r="AU6" s="138"/>
-      <c r="AV6" s="138"/>
-      <c r="AW6" s="138"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143"/>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143"/>
+      <c r="AK6" s="143"/>
+      <c r="AL6" s="143"/>
+      <c r="AM6" s="143"/>
+      <c r="AN6" s="134"/>
+      <c r="AO6" s="134"/>
+      <c r="AP6" s="134"/>
+      <c r="AQ6" s="134"/>
+      <c r="AR6" s="134"/>
+      <c r="AS6" s="134"/>
+      <c r="AT6" s="134"/>
+      <c r="AU6" s="134"/>
+      <c r="AV6" s="134"/>
+      <c r="AW6" s="134"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="155"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="149"/>
-      <c r="W7" s="149"/>
-      <c r="X7" s="149"/>
-      <c r="Y7" s="149"/>
-      <c r="Z7" s="149"/>
-      <c r="AA7" s="149"/>
-      <c r="AB7" s="149"/>
-      <c r="AC7" s="149"/>
-      <c r="AD7" s="149"/>
-      <c r="AE7" s="149"/>
-      <c r="AF7" s="149"/>
-      <c r="AG7" s="149"/>
-      <c r="AH7" s="149"/>
-      <c r="AI7" s="149"/>
-      <c r="AJ7" s="149"/>
-      <c r="AK7" s="149"/>
-      <c r="AL7" s="149"/>
-      <c r="AM7" s="149"/>
-      <c r="AN7" s="138"/>
-      <c r="AO7" s="138"/>
-      <c r="AP7" s="138"/>
-      <c r="AQ7" s="138"/>
-      <c r="AR7" s="138"/>
-      <c r="AS7" s="138"/>
-      <c r="AT7" s="138"/>
-      <c r="AU7" s="138"/>
-      <c r="AV7" s="138"/>
-      <c r="AW7" s="138"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="143"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="143"/>
+      <c r="AI7" s="143"/>
+      <c r="AJ7" s="143"/>
+      <c r="AK7" s="143"/>
+      <c r="AL7" s="143"/>
+      <c r="AM7" s="143"/>
+      <c r="AN7" s="134"/>
+      <c r="AO7" s="134"/>
+      <c r="AP7" s="134"/>
+      <c r="AQ7" s="134"/>
+      <c r="AR7" s="134"/>
+      <c r="AS7" s="134"/>
+      <c r="AT7" s="134"/>
+      <c r="AU7" s="134"/>
+      <c r="AV7" s="134"/>
+      <c r="AW7" s="134"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="154"/>
-      <c r="R8" s="155"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="149"/>
-      <c r="AF8" s="149"/>
-      <c r="AG8" s="149"/>
-      <c r="AH8" s="149"/>
-      <c r="AI8" s="149"/>
-      <c r="AJ8" s="149"/>
-      <c r="AK8" s="149"/>
-      <c r="AL8" s="149"/>
-      <c r="AM8" s="149"/>
-      <c r="AN8" s="138"/>
-      <c r="AO8" s="138"/>
-      <c r="AP8" s="138"/>
-      <c r="AQ8" s="138"/>
-      <c r="AR8" s="138"/>
-      <c r="AS8" s="138"/>
-      <c r="AT8" s="138"/>
-      <c r="AU8" s="138"/>
-      <c r="AV8" s="138"/>
-      <c r="AW8" s="138"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="143"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="143"/>
+      <c r="AG8" s="143"/>
+      <c r="AH8" s="143"/>
+      <c r="AI8" s="143"/>
+      <c r="AJ8" s="143"/>
+      <c r="AK8" s="143"/>
+      <c r="AL8" s="143"/>
+      <c r="AM8" s="143"/>
+      <c r="AN8" s="134"/>
+      <c r="AO8" s="134"/>
+      <c r="AP8" s="134"/>
+      <c r="AQ8" s="134"/>
+      <c r="AR8" s="134"/>
+      <c r="AS8" s="134"/>
+      <c r="AT8" s="134"/>
+      <c r="AU8" s="134"/>
+      <c r="AV8" s="134"/>
+      <c r="AW8" s="134"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="155"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="149"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="149"/>
-      <c r="Z9" s="149"/>
-      <c r="AA9" s="149"/>
-      <c r="AB9" s="149"/>
-      <c r="AC9" s="149"/>
-      <c r="AD9" s="149"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="149"/>
-      <c r="AG9" s="149"/>
-      <c r="AH9" s="149"/>
-      <c r="AI9" s="149"/>
-      <c r="AJ9" s="149"/>
-      <c r="AK9" s="149"/>
-      <c r="AL9" s="149"/>
-      <c r="AM9" s="149"/>
-      <c r="AN9" s="138"/>
-      <c r="AO9" s="138"/>
-      <c r="AP9" s="138"/>
-      <c r="AQ9" s="138"/>
-      <c r="AR9" s="138"/>
-      <c r="AS9" s="138"/>
-      <c r="AT9" s="138"/>
-      <c r="AU9" s="138"/>
-      <c r="AV9" s="138"/>
-      <c r="AW9" s="138"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="143"/>
+      <c r="X9" s="143"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="143"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="143"/>
+      <c r="AD9" s="143"/>
+      <c r="AE9" s="143"/>
+      <c r="AF9" s="143"/>
+      <c r="AG9" s="143"/>
+      <c r="AH9" s="143"/>
+      <c r="AI9" s="143"/>
+      <c r="AJ9" s="143"/>
+      <c r="AK9" s="143"/>
+      <c r="AL9" s="143"/>
+      <c r="AM9" s="143"/>
+      <c r="AN9" s="134"/>
+      <c r="AO9" s="134"/>
+      <c r="AP9" s="134"/>
+      <c r="AQ9" s="134"/>
+      <c r="AR9" s="134"/>
+      <c r="AS9" s="134"/>
+      <c r="AT9" s="134"/>
+      <c r="AU9" s="134"/>
+      <c r="AV9" s="134"/>
+      <c r="AW9" s="134"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="59"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="149"/>
-      <c r="W10" s="149"/>
-      <c r="X10" s="149"/>
-      <c r="Y10" s="149"/>
-      <c r="Z10" s="149"/>
-      <c r="AA10" s="149"/>
-      <c r="AB10" s="149"/>
-      <c r="AC10" s="149"/>
-      <c r="AD10" s="149"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="149"/>
-      <c r="AG10" s="149"/>
-      <c r="AH10" s="149"/>
-      <c r="AI10" s="149"/>
-      <c r="AJ10" s="149"/>
-      <c r="AK10" s="149"/>
-      <c r="AL10" s="149"/>
-      <c r="AM10" s="149"/>
-      <c r="AN10" s="138"/>
-      <c r="AO10" s="138"/>
-      <c r="AP10" s="138"/>
-      <c r="AQ10" s="138"/>
-      <c r="AR10" s="138"/>
-      <c r="AS10" s="138"/>
-      <c r="AT10" s="138"/>
-      <c r="AU10" s="138"/>
-      <c r="AV10" s="138"/>
-      <c r="AW10" s="138"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="143"/>
+      <c r="X10" s="143"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="143"/>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="143"/>
+      <c r="AD10" s="143"/>
+      <c r="AE10" s="143"/>
+      <c r="AF10" s="143"/>
+      <c r="AG10" s="143"/>
+      <c r="AH10" s="143"/>
+      <c r="AI10" s="143"/>
+      <c r="AJ10" s="143"/>
+      <c r="AK10" s="143"/>
+      <c r="AL10" s="143"/>
+      <c r="AM10" s="143"/>
+      <c r="AN10" s="134"/>
+      <c r="AO10" s="134"/>
+      <c r="AP10" s="134"/>
+      <c r="AQ10" s="134"/>
+      <c r="AR10" s="134"/>
+      <c r="AS10" s="134"/>
+      <c r="AT10" s="134"/>
+      <c r="AU10" s="134"/>
+      <c r="AV10" s="134"/>
+      <c r="AW10" s="134"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="151"/>
-      <c r="X11" s="151"/>
-      <c r="Y11" s="151"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="151"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="151"/>
-      <c r="AD11" s="151"/>
-      <c r="AE11" s="151"/>
-      <c r="AF11" s="151"/>
-      <c r="AG11" s="151"/>
-      <c r="AH11" s="151"/>
-      <c r="AI11" s="151"/>
-      <c r="AJ11" s="151"/>
-      <c r="AK11" s="151"/>
-      <c r="AL11" s="151"/>
-      <c r="AM11" s="152"/>
-      <c r="AN11" s="138"/>
-      <c r="AO11" s="138"/>
-      <c r="AP11" s="138"/>
-      <c r="AQ11" s="138"/>
-      <c r="AR11" s="138"/>
-      <c r="AS11" s="138"/>
-      <c r="AT11" s="138"/>
-      <c r="AU11" s="138"/>
-      <c r="AV11" s="138"/>
-      <c r="AW11" s="138"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="156"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="156"/>
+      <c r="AG11" s="156"/>
+      <c r="AH11" s="156"/>
+      <c r="AI11" s="156"/>
+      <c r="AJ11" s="156"/>
+      <c r="AK11" s="156"/>
+      <c r="AL11" s="156"/>
+      <c r="AM11" s="157"/>
+      <c r="AN11" s="134"/>
+      <c r="AO11" s="134"/>
+      <c r="AP11" s="134"/>
+      <c r="AQ11" s="134"/>
+      <c r="AR11" s="134"/>
+      <c r="AS11" s="134"/>
+      <c r="AT11" s="134"/>
+      <c r="AU11" s="134"/>
+      <c r="AV11" s="134"/>
+      <c r="AW11" s="134"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="143"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="139"/>
-      <c r="W12" s="140"/>
-      <c r="X12" s="140"/>
-      <c r="Y12" s="140"/>
-      <c r="Z12" s="140"/>
-      <c r="AA12" s="140"/>
-      <c r="AB12" s="140"/>
-      <c r="AC12" s="140"/>
-      <c r="AD12" s="140"/>
-      <c r="AE12" s="140"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="140"/>
-      <c r="AH12" s="140"/>
-      <c r="AI12" s="140"/>
-      <c r="AJ12" s="140"/>
-      <c r="AK12" s="140"/>
-      <c r="AL12" s="140"/>
-      <c r="AM12" s="141"/>
-      <c r="AN12" s="125"/>
-      <c r="AO12" s="126"/>
-      <c r="AP12" s="126"/>
-      <c r="AQ12" s="126"/>
-      <c r="AR12" s="127"/>
-      <c r="AS12" s="125"/>
-      <c r="AT12" s="126"/>
-      <c r="AU12" s="126"/>
-      <c r="AV12" s="126"/>
-      <c r="AW12" s="127"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="150"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="151"/>
+      <c r="AB12" s="151"/>
+      <c r="AC12" s="151"/>
+      <c r="AD12" s="151"/>
+      <c r="AE12" s="151"/>
+      <c r="AF12" s="151"/>
+      <c r="AG12" s="151"/>
+      <c r="AH12" s="151"/>
+      <c r="AI12" s="151"/>
+      <c r="AJ12" s="151"/>
+      <c r="AK12" s="151"/>
+      <c r="AL12" s="151"/>
+      <c r="AM12" s="152"/>
+      <c r="AN12" s="153"/>
+      <c r="AO12" s="154"/>
+      <c r="AP12" s="154"/>
+      <c r="AQ12" s="154"/>
+      <c r="AR12" s="155"/>
+      <c r="AS12" s="153"/>
+      <c r="AT12" s="154"/>
+      <c r="AU12" s="154"/>
+      <c r="AV12" s="154"/>
+      <c r="AW12" s="155"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="142"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="140"/>
-      <c r="X13" s="140"/>
-      <c r="Y13" s="140"/>
-      <c r="Z13" s="140"/>
-      <c r="AA13" s="140"/>
-      <c r="AB13" s="140"/>
-      <c r="AC13" s="140"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="140"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="140"/>
-      <c r="AH13" s="140"/>
-      <c r="AI13" s="140"/>
-      <c r="AJ13" s="140"/>
-      <c r="AK13" s="140"/>
-      <c r="AL13" s="140"/>
-      <c r="AM13" s="141"/>
-      <c r="AN13" s="125"/>
-      <c r="AO13" s="126"/>
-      <c r="AP13" s="126"/>
-      <c r="AQ13" s="126"/>
-      <c r="AR13" s="127"/>
-      <c r="AS13" s="125"/>
-      <c r="AT13" s="126"/>
-      <c r="AU13" s="126"/>
-      <c r="AV13" s="126"/>
-      <c r="AW13" s="127"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="150"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="151"/>
+      <c r="AC13" s="151"/>
+      <c r="AD13" s="151"/>
+      <c r="AE13" s="151"/>
+      <c r="AF13" s="151"/>
+      <c r="AG13" s="151"/>
+      <c r="AH13" s="151"/>
+      <c r="AI13" s="151"/>
+      <c r="AJ13" s="151"/>
+      <c r="AK13" s="151"/>
+      <c r="AL13" s="151"/>
+      <c r="AM13" s="152"/>
+      <c r="AN13" s="153"/>
+      <c r="AO13" s="154"/>
+      <c r="AP13" s="154"/>
+      <c r="AQ13" s="154"/>
+      <c r="AR13" s="155"/>
+      <c r="AS13" s="153"/>
+      <c r="AT13" s="154"/>
+      <c r="AU13" s="154"/>
+      <c r="AV13" s="154"/>
+      <c r="AW13" s="155"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="138"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="149"/>
-      <c r="Z14" s="149"/>
-      <c r="AA14" s="149"/>
-      <c r="AB14" s="149"/>
-      <c r="AC14" s="149"/>
-      <c r="AD14" s="149"/>
-      <c r="AE14" s="149"/>
-      <c r="AF14" s="149"/>
-      <c r="AG14" s="149"/>
-      <c r="AH14" s="149"/>
-      <c r="AI14" s="149"/>
-      <c r="AJ14" s="149"/>
-      <c r="AK14" s="149"/>
-      <c r="AL14" s="149"/>
-      <c r="AM14" s="149"/>
-      <c r="AN14" s="138"/>
-      <c r="AO14" s="138"/>
-      <c r="AP14" s="138"/>
-      <c r="AQ14" s="138"/>
-      <c r="AR14" s="138"/>
-      <c r="AS14" s="125"/>
-      <c r="AT14" s="126"/>
-      <c r="AU14" s="126"/>
-      <c r="AV14" s="126"/>
-      <c r="AW14" s="127"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="159"/>
+      <c r="W14" s="143"/>
+      <c r="X14" s="143"/>
+      <c r="Y14" s="143"/>
+      <c r="Z14" s="143"/>
+      <c r="AA14" s="143"/>
+      <c r="AB14" s="143"/>
+      <c r="AC14" s="143"/>
+      <c r="AD14" s="143"/>
+      <c r="AE14" s="143"/>
+      <c r="AF14" s="143"/>
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="143"/>
+      <c r="AI14" s="143"/>
+      <c r="AJ14" s="143"/>
+      <c r="AK14" s="143"/>
+      <c r="AL14" s="143"/>
+      <c r="AM14" s="143"/>
+      <c r="AN14" s="134"/>
+      <c r="AO14" s="134"/>
+      <c r="AP14" s="134"/>
+      <c r="AQ14" s="134"/>
+      <c r="AR14" s="134"/>
+      <c r="AS14" s="153"/>
+      <c r="AT14" s="154"/>
+      <c r="AU14" s="154"/>
+      <c r="AV14" s="154"/>
+      <c r="AW14" s="155"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="144"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="138"/>
-      <c r="U15" s="138"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="140"/>
-      <c r="X15" s="140"/>
-      <c r="Y15" s="140"/>
-      <c r="Z15" s="140"/>
-      <c r="AA15" s="140"/>
-      <c r="AB15" s="140"/>
-      <c r="AC15" s="140"/>
-      <c r="AD15" s="140"/>
-      <c r="AE15" s="140"/>
-      <c r="AF15" s="140"/>
-      <c r="AG15" s="140"/>
-      <c r="AH15" s="140"/>
-      <c r="AI15" s="140"/>
-      <c r="AJ15" s="140"/>
-      <c r="AK15" s="140"/>
-      <c r="AL15" s="140"/>
-      <c r="AM15" s="141"/>
-      <c r="AN15" s="125"/>
-      <c r="AO15" s="126"/>
-      <c r="AP15" s="126"/>
-      <c r="AQ15" s="126"/>
-      <c r="AR15" s="127"/>
-      <c r="AS15" s="125"/>
-      <c r="AT15" s="126"/>
-      <c r="AU15" s="126"/>
-      <c r="AV15" s="126"/>
-      <c r="AW15" s="127"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="150"/>
+      <c r="W15" s="151"/>
+      <c r="X15" s="151"/>
+      <c r="Y15" s="151"/>
+      <c r="Z15" s="151"/>
+      <c r="AA15" s="151"/>
+      <c r="AB15" s="151"/>
+      <c r="AC15" s="151"/>
+      <c r="AD15" s="151"/>
+      <c r="AE15" s="151"/>
+      <c r="AF15" s="151"/>
+      <c r="AG15" s="151"/>
+      <c r="AH15" s="151"/>
+      <c r="AI15" s="151"/>
+      <c r="AJ15" s="151"/>
+      <c r="AK15" s="151"/>
+      <c r="AL15" s="151"/>
+      <c r="AM15" s="152"/>
+      <c r="AN15" s="153"/>
+      <c r="AO15" s="154"/>
+      <c r="AP15" s="154"/>
+      <c r="AQ15" s="154"/>
+      <c r="AR15" s="155"/>
+      <c r="AS15" s="153"/>
+      <c r="AT15" s="154"/>
+      <c r="AU15" s="154"/>
+      <c r="AV15" s="154"/>
+      <c r="AW15" s="155"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="143"/>
-      <c r="O16" s="143"/>
-      <c r="P16" s="143"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="138"/>
-      <c r="U16" s="138"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="140"/>
-      <c r="X16" s="140"/>
-      <c r="Y16" s="140"/>
-      <c r="Z16" s="140"/>
-      <c r="AA16" s="140"/>
-      <c r="AB16" s="140"/>
-      <c r="AC16" s="140"/>
-      <c r="AD16" s="140"/>
-      <c r="AE16" s="140"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="140"/>
-      <c r="AH16" s="140"/>
-      <c r="AI16" s="140"/>
-      <c r="AJ16" s="140"/>
-      <c r="AK16" s="140"/>
-      <c r="AL16" s="140"/>
-      <c r="AM16" s="141"/>
-      <c r="AN16" s="125"/>
-      <c r="AO16" s="126"/>
-      <c r="AP16" s="126"/>
-      <c r="AQ16" s="126"/>
-      <c r="AR16" s="127"/>
-      <c r="AS16" s="125"/>
-      <c r="AT16" s="126"/>
-      <c r="AU16" s="126"/>
-      <c r="AV16" s="126"/>
-      <c r="AW16" s="127"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="151"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="151"/>
+      <c r="Z16" s="151"/>
+      <c r="AA16" s="151"/>
+      <c r="AB16" s="151"/>
+      <c r="AC16" s="151"/>
+      <c r="AD16" s="151"/>
+      <c r="AE16" s="151"/>
+      <c r="AF16" s="151"/>
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="151"/>
+      <c r="AI16" s="151"/>
+      <c r="AJ16" s="151"/>
+      <c r="AK16" s="151"/>
+      <c r="AL16" s="151"/>
+      <c r="AM16" s="152"/>
+      <c r="AN16" s="153"/>
+      <c r="AO16" s="154"/>
+      <c r="AP16" s="154"/>
+      <c r="AQ16" s="154"/>
+      <c r="AR16" s="155"/>
+      <c r="AS16" s="153"/>
+      <c r="AT16" s="154"/>
+      <c r="AU16" s="154"/>
+      <c r="AV16" s="154"/>
+      <c r="AW16" s="155"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="146"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="147"/>
-      <c r="V17" s="139"/>
-      <c r="W17" s="140"/>
-      <c r="X17" s="140"/>
-      <c r="Y17" s="140"/>
-      <c r="Z17" s="140"/>
-      <c r="AA17" s="140"/>
-      <c r="AB17" s="140"/>
-      <c r="AC17" s="140"/>
-      <c r="AD17" s="140"/>
-      <c r="AE17" s="140"/>
-      <c r="AF17" s="140"/>
-      <c r="AG17" s="140"/>
-      <c r="AH17" s="140"/>
-      <c r="AI17" s="140"/>
-      <c r="AJ17" s="140"/>
-      <c r="AK17" s="140"/>
-      <c r="AL17" s="140"/>
-      <c r="AM17" s="141"/>
-      <c r="AN17" s="125"/>
-      <c r="AO17" s="126"/>
-      <c r="AP17" s="126"/>
-      <c r="AQ17" s="126"/>
-      <c r="AR17" s="127"/>
-      <c r="AS17" s="125"/>
-      <c r="AT17" s="126"/>
-      <c r="AU17" s="126"/>
-      <c r="AV17" s="126"/>
-      <c r="AW17" s="127"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="160"/>
+      <c r="S17" s="161"/>
+      <c r="T17" s="161"/>
+      <c r="U17" s="161"/>
+      <c r="V17" s="150"/>
+      <c r="W17" s="151"/>
+      <c r="X17" s="151"/>
+      <c r="Y17" s="151"/>
+      <c r="Z17" s="151"/>
+      <c r="AA17" s="151"/>
+      <c r="AB17" s="151"/>
+      <c r="AC17" s="151"/>
+      <c r="AD17" s="151"/>
+      <c r="AE17" s="151"/>
+      <c r="AF17" s="151"/>
+      <c r="AG17" s="151"/>
+      <c r="AH17" s="151"/>
+      <c r="AI17" s="151"/>
+      <c r="AJ17" s="151"/>
+      <c r="AK17" s="151"/>
+      <c r="AL17" s="151"/>
+      <c r="AM17" s="152"/>
+      <c r="AN17" s="153"/>
+      <c r="AO17" s="154"/>
+      <c r="AP17" s="154"/>
+      <c r="AQ17" s="154"/>
+      <c r="AR17" s="155"/>
+      <c r="AS17" s="153"/>
+      <c r="AT17" s="154"/>
+      <c r="AU17" s="154"/>
+      <c r="AV17" s="154"/>
+      <c r="AW17" s="155"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="144"/>
-      <c r="S18" s="138"/>
-      <c r="T18" s="138"/>
-      <c r="U18" s="138"/>
-      <c r="V18" s="139"/>
-      <c r="W18" s="140"/>
-      <c r="X18" s="140"/>
-      <c r="Y18" s="140"/>
-      <c r="Z18" s="140"/>
-      <c r="AA18" s="140"/>
-      <c r="AB18" s="140"/>
-      <c r="AC18" s="140"/>
-      <c r="AD18" s="140"/>
-      <c r="AE18" s="140"/>
-      <c r="AF18" s="140"/>
-      <c r="AG18" s="140"/>
-      <c r="AH18" s="140"/>
-      <c r="AI18" s="140"/>
-      <c r="AJ18" s="140"/>
-      <c r="AK18" s="140"/>
-      <c r="AL18" s="140"/>
-      <c r="AM18" s="141"/>
-      <c r="AN18" s="125"/>
-      <c r="AO18" s="126"/>
-      <c r="AP18" s="126"/>
-      <c r="AQ18" s="126"/>
-      <c r="AR18" s="127"/>
-      <c r="AS18" s="125"/>
-      <c r="AT18" s="126"/>
-      <c r="AU18" s="126"/>
-      <c r="AV18" s="126"/>
-      <c r="AW18" s="127"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="134"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="150"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="151"/>
+      <c r="Y18" s="151"/>
+      <c r="Z18" s="151"/>
+      <c r="AA18" s="151"/>
+      <c r="AB18" s="151"/>
+      <c r="AC18" s="151"/>
+      <c r="AD18" s="151"/>
+      <c r="AE18" s="151"/>
+      <c r="AF18" s="151"/>
+      <c r="AG18" s="151"/>
+      <c r="AH18" s="151"/>
+      <c r="AI18" s="151"/>
+      <c r="AJ18" s="151"/>
+      <c r="AK18" s="151"/>
+      <c r="AL18" s="151"/>
+      <c r="AM18" s="152"/>
+      <c r="AN18" s="153"/>
+      <c r="AO18" s="154"/>
+      <c r="AP18" s="154"/>
+      <c r="AQ18" s="154"/>
+      <c r="AR18" s="155"/>
+      <c r="AS18" s="153"/>
+      <c r="AT18" s="154"/>
+      <c r="AU18" s="154"/>
+      <c r="AV18" s="154"/>
+      <c r="AW18" s="155"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="138"/>
-      <c r="T19" s="138"/>
-      <c r="U19" s="138"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="140"/>
-      <c r="X19" s="140"/>
-      <c r="Y19" s="140"/>
-      <c r="Z19" s="140"/>
-      <c r="AA19" s="140"/>
-      <c r="AB19" s="140"/>
-      <c r="AC19" s="140"/>
-      <c r="AD19" s="140"/>
-      <c r="AE19" s="140"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="140"/>
-      <c r="AH19" s="140"/>
-      <c r="AI19" s="140"/>
-      <c r="AJ19" s="140"/>
-      <c r="AK19" s="140"/>
-      <c r="AL19" s="140"/>
-      <c r="AM19" s="141"/>
-      <c r="AN19" s="138"/>
-      <c r="AO19" s="138"/>
-      <c r="AP19" s="138"/>
-      <c r="AQ19" s="138"/>
-      <c r="AR19" s="138"/>
-      <c r="AS19" s="125"/>
-      <c r="AT19" s="126"/>
-      <c r="AU19" s="126"/>
-      <c r="AV19" s="126"/>
-      <c r="AW19" s="127"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="151"/>
+      <c r="Y19" s="151"/>
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="151"/>
+      <c r="AB19" s="151"/>
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="151"/>
+      <c r="AE19" s="151"/>
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="151"/>
+      <c r="AH19" s="151"/>
+      <c r="AI19" s="151"/>
+      <c r="AJ19" s="151"/>
+      <c r="AK19" s="151"/>
+      <c r="AL19" s="151"/>
+      <c r="AM19" s="152"/>
+      <c r="AN19" s="134"/>
+      <c r="AO19" s="134"/>
+      <c r="AP19" s="134"/>
+      <c r="AQ19" s="134"/>
+      <c r="AR19" s="134"/>
+      <c r="AS19" s="153"/>
+      <c r="AT19" s="154"/>
+      <c r="AU19" s="154"/>
+      <c r="AV19" s="154"/>
+      <c r="AW19" s="155"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="144"/>
-      <c r="S20" s="125"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="127"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="140"/>
-      <c r="X20" s="140"/>
-      <c r="Y20" s="140"/>
-      <c r="Z20" s="140"/>
-      <c r="AA20" s="140"/>
-      <c r="AB20" s="140"/>
-      <c r="AC20" s="140"/>
-      <c r="AD20" s="140"/>
-      <c r="AE20" s="140"/>
-      <c r="AF20" s="140"/>
-      <c r="AG20" s="140"/>
-      <c r="AH20" s="140"/>
-      <c r="AI20" s="140"/>
-      <c r="AJ20" s="140"/>
-      <c r="AK20" s="140"/>
-      <c r="AL20" s="140"/>
-      <c r="AM20" s="141"/>
-      <c r="AN20" s="125"/>
-      <c r="AO20" s="126"/>
-      <c r="AP20" s="126"/>
-      <c r="AQ20" s="126"/>
-      <c r="AR20" s="127"/>
-      <c r="AS20" s="125"/>
-      <c r="AT20" s="126"/>
-      <c r="AU20" s="126"/>
-      <c r="AV20" s="126"/>
-      <c r="AW20" s="127"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="153"/>
+      <c r="T20" s="154"/>
+      <c r="U20" s="155"/>
+      <c r="V20" s="150"/>
+      <c r="W20" s="151"/>
+      <c r="X20" s="151"/>
+      <c r="Y20" s="151"/>
+      <c r="Z20" s="151"/>
+      <c r="AA20" s="151"/>
+      <c r="AB20" s="151"/>
+      <c r="AC20" s="151"/>
+      <c r="AD20" s="151"/>
+      <c r="AE20" s="151"/>
+      <c r="AF20" s="151"/>
+      <c r="AG20" s="151"/>
+      <c r="AH20" s="151"/>
+      <c r="AI20" s="151"/>
+      <c r="AJ20" s="151"/>
+      <c r="AK20" s="151"/>
+      <c r="AL20" s="151"/>
+      <c r="AM20" s="152"/>
+      <c r="AN20" s="153"/>
+      <c r="AO20" s="154"/>
+      <c r="AP20" s="154"/>
+      <c r="AQ20" s="154"/>
+      <c r="AR20" s="155"/>
+      <c r="AS20" s="153"/>
+      <c r="AT20" s="154"/>
+      <c r="AU20" s="154"/>
+      <c r="AV20" s="154"/>
+      <c r="AW20" s="155"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="143"/>
-      <c r="O21" s="143"/>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="143"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="138"/>
-      <c r="T21" s="138"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="140"/>
-      <c r="X21" s="140"/>
-      <c r="Y21" s="140"/>
-      <c r="Z21" s="140"/>
-      <c r="AA21" s="140"/>
-      <c r="AB21" s="140"/>
-      <c r="AC21" s="140"/>
-      <c r="AD21" s="140"/>
-      <c r="AE21" s="140"/>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="140"/>
-      <c r="AH21" s="140"/>
-      <c r="AI21" s="140"/>
-      <c r="AJ21" s="140"/>
-      <c r="AK21" s="140"/>
-      <c r="AL21" s="140"/>
-      <c r="AM21" s="141"/>
-      <c r="AN21" s="125"/>
-      <c r="AO21" s="126"/>
-      <c r="AP21" s="126"/>
-      <c r="AQ21" s="126"/>
-      <c r="AR21" s="127"/>
-      <c r="AS21" s="125"/>
-      <c r="AT21" s="126"/>
-      <c r="AU21" s="126"/>
-      <c r="AV21" s="126"/>
-      <c r="AW21" s="127"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="149"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="151"/>
+      <c r="X21" s="151"/>
+      <c r="Y21" s="151"/>
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="151"/>
+      <c r="AB21" s="151"/>
+      <c r="AC21" s="151"/>
+      <c r="AD21" s="151"/>
+      <c r="AE21" s="151"/>
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="151"/>
+      <c r="AH21" s="151"/>
+      <c r="AI21" s="151"/>
+      <c r="AJ21" s="151"/>
+      <c r="AK21" s="151"/>
+      <c r="AL21" s="151"/>
+      <c r="AM21" s="152"/>
+      <c r="AN21" s="153"/>
+      <c r="AO21" s="154"/>
+      <c r="AP21" s="154"/>
+      <c r="AQ21" s="154"/>
+      <c r="AR21" s="155"/>
+      <c r="AS21" s="153"/>
+      <c r="AT21" s="154"/>
+      <c r="AU21" s="154"/>
+      <c r="AV21" s="154"/>
+      <c r="AW21" s="155"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="59"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="138"/>
-      <c r="T22" s="138"/>
-      <c r="U22" s="138"/>
-      <c r="V22" s="139"/>
-      <c r="W22" s="140"/>
-      <c r="X22" s="140"/>
-      <c r="Y22" s="140"/>
-      <c r="Z22" s="140"/>
-      <c r="AA22" s="140"/>
-      <c r="AB22" s="140"/>
-      <c r="AC22" s="140"/>
-      <c r="AD22" s="140"/>
-      <c r="AE22" s="140"/>
-      <c r="AF22" s="140"/>
-      <c r="AG22" s="140"/>
-      <c r="AH22" s="140"/>
-      <c r="AI22" s="140"/>
-      <c r="AJ22" s="140"/>
-      <c r="AK22" s="140"/>
-      <c r="AL22" s="140"/>
-      <c r="AM22" s="141"/>
-      <c r="AN22" s="125"/>
-      <c r="AO22" s="126"/>
-      <c r="AP22" s="126"/>
-      <c r="AQ22" s="126"/>
-      <c r="AR22" s="127"/>
-      <c r="AS22" s="125"/>
-      <c r="AT22" s="126"/>
-      <c r="AU22" s="126"/>
-      <c r="AV22" s="126"/>
-      <c r="AW22" s="127"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="150"/>
+      <c r="W22" s="151"/>
+      <c r="X22" s="151"/>
+      <c r="Y22" s="151"/>
+      <c r="Z22" s="151"/>
+      <c r="AA22" s="151"/>
+      <c r="AB22" s="151"/>
+      <c r="AC22" s="151"/>
+      <c r="AD22" s="151"/>
+      <c r="AE22" s="151"/>
+      <c r="AF22" s="151"/>
+      <c r="AG22" s="151"/>
+      <c r="AH22" s="151"/>
+      <c r="AI22" s="151"/>
+      <c r="AJ22" s="151"/>
+      <c r="AK22" s="151"/>
+      <c r="AL22" s="151"/>
+      <c r="AM22" s="152"/>
+      <c r="AN22" s="153"/>
+      <c r="AO22" s="154"/>
+      <c r="AP22" s="154"/>
+      <c r="AQ22" s="154"/>
+      <c r="AR22" s="155"/>
+      <c r="AS22" s="153"/>
+      <c r="AT22" s="154"/>
+      <c r="AU22" s="154"/>
+      <c r="AV22" s="154"/>
+      <c r="AW22" s="155"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="140"/>
-      <c r="X23" s="140"/>
-      <c r="Y23" s="140"/>
-      <c r="Z23" s="140"/>
-      <c r="AA23" s="140"/>
-      <c r="AB23" s="140"/>
-      <c r="AC23" s="140"/>
-      <c r="AD23" s="140"/>
-      <c r="AE23" s="140"/>
-      <c r="AF23" s="140"/>
-      <c r="AG23" s="140"/>
-      <c r="AH23" s="140"/>
-      <c r="AI23" s="140"/>
-      <c r="AJ23" s="140"/>
-      <c r="AK23" s="140"/>
-      <c r="AL23" s="140"/>
-      <c r="AM23" s="141"/>
-      <c r="AN23" s="125"/>
-      <c r="AO23" s="126"/>
-      <c r="AP23" s="126"/>
-      <c r="AQ23" s="126"/>
-      <c r="AR23" s="127"/>
-      <c r="AS23" s="125"/>
-      <c r="AT23" s="126"/>
-      <c r="AU23" s="126"/>
-      <c r="AV23" s="126"/>
-      <c r="AW23" s="127"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="150"/>
+      <c r="W23" s="151"/>
+      <c r="X23" s="151"/>
+      <c r="Y23" s="151"/>
+      <c r="Z23" s="151"/>
+      <c r="AA23" s="151"/>
+      <c r="AB23" s="151"/>
+      <c r="AC23" s="151"/>
+      <c r="AD23" s="151"/>
+      <c r="AE23" s="151"/>
+      <c r="AF23" s="151"/>
+      <c r="AG23" s="151"/>
+      <c r="AH23" s="151"/>
+      <c r="AI23" s="151"/>
+      <c r="AJ23" s="151"/>
+      <c r="AK23" s="151"/>
+      <c r="AL23" s="151"/>
+      <c r="AM23" s="152"/>
+      <c r="AN23" s="153"/>
+      <c r="AO23" s="154"/>
+      <c r="AP23" s="154"/>
+      <c r="AQ23" s="154"/>
+      <c r="AR23" s="155"/>
+      <c r="AS23" s="153"/>
+      <c r="AT23" s="154"/>
+      <c r="AU23" s="154"/>
+      <c r="AV23" s="154"/>
+      <c r="AW23" s="155"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="143"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="140"/>
-      <c r="X24" s="140"/>
-      <c r="Y24" s="140"/>
-      <c r="Z24" s="140"/>
-      <c r="AA24" s="140"/>
-      <c r="AB24" s="140"/>
-      <c r="AC24" s="140"/>
-      <c r="AD24" s="140"/>
-      <c r="AE24" s="140"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="140"/>
-      <c r="AH24" s="140"/>
-      <c r="AI24" s="140"/>
-      <c r="AJ24" s="140"/>
-      <c r="AK24" s="140"/>
-      <c r="AL24" s="140"/>
-      <c r="AM24" s="141"/>
-      <c r="AN24" s="125"/>
-      <c r="AO24" s="126"/>
-      <c r="AP24" s="126"/>
-      <c r="AQ24" s="126"/>
-      <c r="AR24" s="127"/>
-      <c r="AS24" s="125"/>
-      <c r="AT24" s="126"/>
-      <c r="AU24" s="126"/>
-      <c r="AV24" s="126"/>
-      <c r="AW24" s="127"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="150"/>
+      <c r="W24" s="151"/>
+      <c r="X24" s="151"/>
+      <c r="Y24" s="151"/>
+      <c r="Z24" s="151"/>
+      <c r="AA24" s="151"/>
+      <c r="AB24" s="151"/>
+      <c r="AC24" s="151"/>
+      <c r="AD24" s="151"/>
+      <c r="AE24" s="151"/>
+      <c r="AF24" s="151"/>
+      <c r="AG24" s="151"/>
+      <c r="AH24" s="151"/>
+      <c r="AI24" s="151"/>
+      <c r="AJ24" s="151"/>
+      <c r="AK24" s="151"/>
+      <c r="AL24" s="151"/>
+      <c r="AM24" s="152"/>
+      <c r="AN24" s="153"/>
+      <c r="AO24" s="154"/>
+      <c r="AP24" s="154"/>
+      <c r="AQ24" s="154"/>
+      <c r="AR24" s="155"/>
+      <c r="AS24" s="153"/>
+      <c r="AT24" s="154"/>
+      <c r="AU24" s="154"/>
+      <c r="AV24" s="154"/>
+      <c r="AW24" s="155"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="142"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="143"/>
-      <c r="P25" s="143"/>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="139"/>
-      <c r="W25" s="140"/>
-      <c r="X25" s="140"/>
-      <c r="Y25" s="140"/>
-      <c r="Z25" s="140"/>
-      <c r="AA25" s="140"/>
-      <c r="AB25" s="140"/>
-      <c r="AC25" s="140"/>
-      <c r="AD25" s="140"/>
-      <c r="AE25" s="140"/>
-      <c r="AF25" s="140"/>
-      <c r="AG25" s="140"/>
-      <c r="AH25" s="140"/>
-      <c r="AI25" s="140"/>
-      <c r="AJ25" s="140"/>
-      <c r="AK25" s="140"/>
-      <c r="AL25" s="140"/>
-      <c r="AM25" s="141"/>
-      <c r="AN25" s="125"/>
-      <c r="AO25" s="126"/>
-      <c r="AP25" s="126"/>
-      <c r="AQ25" s="126"/>
-      <c r="AR25" s="127"/>
-      <c r="AS25" s="125"/>
-      <c r="AT25" s="126"/>
-      <c r="AU25" s="126"/>
-      <c r="AV25" s="126"/>
-      <c r="AW25" s="127"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="150"/>
+      <c r="W25" s="151"/>
+      <c r="X25" s="151"/>
+      <c r="Y25" s="151"/>
+      <c r="Z25" s="151"/>
+      <c r="AA25" s="151"/>
+      <c r="AB25" s="151"/>
+      <c r="AC25" s="151"/>
+      <c r="AD25" s="151"/>
+      <c r="AE25" s="151"/>
+      <c r="AF25" s="151"/>
+      <c r="AG25" s="151"/>
+      <c r="AH25" s="151"/>
+      <c r="AI25" s="151"/>
+      <c r="AJ25" s="151"/>
+      <c r="AK25" s="151"/>
+      <c r="AL25" s="151"/>
+      <c r="AM25" s="152"/>
+      <c r="AN25" s="153"/>
+      <c r="AO25" s="154"/>
+      <c r="AP25" s="154"/>
+      <c r="AQ25" s="154"/>
+      <c r="AR25" s="155"/>
+      <c r="AS25" s="153"/>
+      <c r="AT25" s="154"/>
+      <c r="AU25" s="154"/>
+      <c r="AV25" s="154"/>
+      <c r="AW25" s="155"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="144"/>
-      <c r="S26" s="138"/>
-      <c r="T26" s="138"/>
-      <c r="U26" s="138"/>
-      <c r="V26" s="139"/>
-      <c r="W26" s="140"/>
-      <c r="X26" s="140"/>
-      <c r="Y26" s="140"/>
-      <c r="Z26" s="140"/>
-      <c r="AA26" s="140"/>
-      <c r="AB26" s="140"/>
-      <c r="AC26" s="140"/>
-      <c r="AD26" s="140"/>
-      <c r="AE26" s="140"/>
-      <c r="AF26" s="140"/>
-      <c r="AG26" s="140"/>
-      <c r="AH26" s="140"/>
-      <c r="AI26" s="140"/>
-      <c r="AJ26" s="140"/>
-      <c r="AK26" s="140"/>
-      <c r="AL26" s="140"/>
-      <c r="AM26" s="141"/>
-      <c r="AN26" s="125"/>
-      <c r="AO26" s="126"/>
-      <c r="AP26" s="126"/>
-      <c r="AQ26" s="126"/>
-      <c r="AR26" s="127"/>
-      <c r="AS26" s="125"/>
-      <c r="AT26" s="126"/>
-      <c r="AU26" s="126"/>
-      <c r="AV26" s="126"/>
-      <c r="AW26" s="127"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="148"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="150"/>
+      <c r="W26" s="151"/>
+      <c r="X26" s="151"/>
+      <c r="Y26" s="151"/>
+      <c r="Z26" s="151"/>
+      <c r="AA26" s="151"/>
+      <c r="AB26" s="151"/>
+      <c r="AC26" s="151"/>
+      <c r="AD26" s="151"/>
+      <c r="AE26" s="151"/>
+      <c r="AF26" s="151"/>
+      <c r="AG26" s="151"/>
+      <c r="AH26" s="151"/>
+      <c r="AI26" s="151"/>
+      <c r="AJ26" s="151"/>
+      <c r="AK26" s="151"/>
+      <c r="AL26" s="151"/>
+      <c r="AM26" s="152"/>
+      <c r="AN26" s="153"/>
+      <c r="AO26" s="154"/>
+      <c r="AP26" s="154"/>
+      <c r="AQ26" s="154"/>
+      <c r="AR26" s="155"/>
+      <c r="AS26" s="153"/>
+      <c r="AT26" s="154"/>
+      <c r="AU26" s="154"/>
+      <c r="AV26" s="154"/>
+      <c r="AW26" s="155"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="144"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="138"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="139"/>
-      <c r="W27" s="140"/>
-      <c r="X27" s="140"/>
-      <c r="Y27" s="140"/>
-      <c r="Z27" s="140"/>
-      <c r="AA27" s="140"/>
-      <c r="AB27" s="140"/>
-      <c r="AC27" s="140"/>
-      <c r="AD27" s="140"/>
-      <c r="AE27" s="140"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="140"/>
-      <c r="AH27" s="140"/>
-      <c r="AI27" s="140"/>
-      <c r="AJ27" s="140"/>
-      <c r="AK27" s="140"/>
-      <c r="AL27" s="140"/>
-      <c r="AM27" s="141"/>
-      <c r="AN27" s="125"/>
-      <c r="AO27" s="126"/>
-      <c r="AP27" s="126"/>
-      <c r="AQ27" s="126"/>
-      <c r="AR27" s="127"/>
-      <c r="AS27" s="125"/>
-      <c r="AT27" s="126"/>
-      <c r="AU27" s="126"/>
-      <c r="AV27" s="126"/>
-      <c r="AW27" s="127"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
+      <c r="AA27" s="151"/>
+      <c r="AB27" s="151"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="151"/>
+      <c r="AE27" s="151"/>
+      <c r="AF27" s="151"/>
+      <c r="AG27" s="151"/>
+      <c r="AH27" s="151"/>
+      <c r="AI27" s="151"/>
+      <c r="AJ27" s="151"/>
+      <c r="AK27" s="151"/>
+      <c r="AL27" s="151"/>
+      <c r="AM27" s="152"/>
+      <c r="AN27" s="153"/>
+      <c r="AO27" s="154"/>
+      <c r="AP27" s="154"/>
+      <c r="AQ27" s="154"/>
+      <c r="AR27" s="155"/>
+      <c r="AS27" s="153"/>
+      <c r="AT27" s="154"/>
+      <c r="AU27" s="154"/>
+      <c r="AV27" s="154"/>
+      <c r="AW27" s="155"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="143"/>
-      <c r="O28" s="143"/>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="144"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="140"/>
-      <c r="X28" s="140"/>
-      <c r="Y28" s="140"/>
-      <c r="Z28" s="140"/>
-      <c r="AA28" s="140"/>
-      <c r="AB28" s="140"/>
-      <c r="AC28" s="140"/>
-      <c r="AD28" s="140"/>
-      <c r="AE28" s="140"/>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="140"/>
-      <c r="AH28" s="140"/>
-      <c r="AI28" s="140"/>
-      <c r="AJ28" s="140"/>
-      <c r="AK28" s="140"/>
-      <c r="AL28" s="140"/>
-      <c r="AM28" s="141"/>
-      <c r="AN28" s="125"/>
-      <c r="AO28" s="126"/>
-      <c r="AP28" s="126"/>
-      <c r="AQ28" s="126"/>
-      <c r="AR28" s="127"/>
-      <c r="AS28" s="125"/>
-      <c r="AT28" s="126"/>
-      <c r="AU28" s="126"/>
-      <c r="AV28" s="126"/>
-      <c r="AW28" s="127"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="151"/>
+      <c r="Z28" s="151"/>
+      <c r="AA28" s="151"/>
+      <c r="AB28" s="151"/>
+      <c r="AC28" s="151"/>
+      <c r="AD28" s="151"/>
+      <c r="AE28" s="151"/>
+      <c r="AF28" s="151"/>
+      <c r="AG28" s="151"/>
+      <c r="AH28" s="151"/>
+      <c r="AI28" s="151"/>
+      <c r="AJ28" s="151"/>
+      <c r="AK28" s="151"/>
+      <c r="AL28" s="151"/>
+      <c r="AM28" s="152"/>
+      <c r="AN28" s="153"/>
+      <c r="AO28" s="154"/>
+      <c r="AP28" s="154"/>
+      <c r="AQ28" s="154"/>
+      <c r="AR28" s="155"/>
+      <c r="AS28" s="153"/>
+      <c r="AT28" s="154"/>
+      <c r="AU28" s="154"/>
+      <c r="AV28" s="154"/>
+      <c r="AW28" s="155"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="143"/>
-      <c r="O29" s="143"/>
-      <c r="P29" s="143"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="144"/>
-      <c r="S29" s="138"/>
-      <c r="T29" s="138"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="139"/>
-      <c r="W29" s="140"/>
-      <c r="X29" s="140"/>
-      <c r="Y29" s="140"/>
-      <c r="Z29" s="140"/>
-      <c r="AA29" s="140"/>
-      <c r="AB29" s="140"/>
-      <c r="AC29" s="140"/>
-      <c r="AD29" s="140"/>
-      <c r="AE29" s="140"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="140"/>
-      <c r="AH29" s="140"/>
-      <c r="AI29" s="140"/>
-      <c r="AJ29" s="140"/>
-      <c r="AK29" s="140"/>
-      <c r="AL29" s="140"/>
-      <c r="AM29" s="141"/>
-      <c r="AN29" s="125"/>
-      <c r="AO29" s="126"/>
-      <c r="AP29" s="126"/>
-      <c r="AQ29" s="126"/>
-      <c r="AR29" s="127"/>
-      <c r="AS29" s="125"/>
-      <c r="AT29" s="126"/>
-      <c r="AU29" s="126"/>
-      <c r="AV29" s="126"/>
-      <c r="AW29" s="127"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="148"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="150"/>
+      <c r="W29" s="151"/>
+      <c r="X29" s="151"/>
+      <c r="Y29" s="151"/>
+      <c r="Z29" s="151"/>
+      <c r="AA29" s="151"/>
+      <c r="AB29" s="151"/>
+      <c r="AC29" s="151"/>
+      <c r="AD29" s="151"/>
+      <c r="AE29" s="151"/>
+      <c r="AF29" s="151"/>
+      <c r="AG29" s="151"/>
+      <c r="AH29" s="151"/>
+      <c r="AI29" s="151"/>
+      <c r="AJ29" s="151"/>
+      <c r="AK29" s="151"/>
+      <c r="AL29" s="151"/>
+      <c r="AM29" s="152"/>
+      <c r="AN29" s="153"/>
+      <c r="AO29" s="154"/>
+      <c r="AP29" s="154"/>
+      <c r="AQ29" s="154"/>
+      <c r="AR29" s="155"/>
+      <c r="AS29" s="153"/>
+      <c r="AT29" s="154"/>
+      <c r="AU29" s="154"/>
+      <c r="AV29" s="154"/>
+      <c r="AW29" s="155"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="143"/>
-      <c r="O30" s="143"/>
-      <c r="P30" s="143"/>
-      <c r="Q30" s="143"/>
-      <c r="R30" s="144"/>
-      <c r="S30" s="138"/>
-      <c r="T30" s="138"/>
-      <c r="U30" s="138"/>
-      <c r="V30" s="139"/>
-      <c r="W30" s="140"/>
-      <c r="X30" s="140"/>
-      <c r="Y30" s="140"/>
-      <c r="Z30" s="140"/>
-      <c r="AA30" s="140"/>
-      <c r="AB30" s="140"/>
-      <c r="AC30" s="140"/>
-      <c r="AD30" s="140"/>
-      <c r="AE30" s="140"/>
-      <c r="AF30" s="140"/>
-      <c r="AG30" s="140"/>
-      <c r="AH30" s="140"/>
-      <c r="AI30" s="140"/>
-      <c r="AJ30" s="140"/>
-      <c r="AK30" s="140"/>
-      <c r="AL30" s="140"/>
-      <c r="AM30" s="141"/>
-      <c r="AN30" s="125"/>
-      <c r="AO30" s="126"/>
-      <c r="AP30" s="126"/>
-      <c r="AQ30" s="126"/>
-      <c r="AR30" s="127"/>
-      <c r="AS30" s="125"/>
-      <c r="AT30" s="126"/>
-      <c r="AU30" s="126"/>
-      <c r="AV30" s="126"/>
-      <c r="AW30" s="127"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="148"/>
+      <c r="O30" s="148"/>
+      <c r="P30" s="148"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="150"/>
+      <c r="W30" s="151"/>
+      <c r="X30" s="151"/>
+      <c r="Y30" s="151"/>
+      <c r="Z30" s="151"/>
+      <c r="AA30" s="151"/>
+      <c r="AB30" s="151"/>
+      <c r="AC30" s="151"/>
+      <c r="AD30" s="151"/>
+      <c r="AE30" s="151"/>
+      <c r="AF30" s="151"/>
+      <c r="AG30" s="151"/>
+      <c r="AH30" s="151"/>
+      <c r="AI30" s="151"/>
+      <c r="AJ30" s="151"/>
+      <c r="AK30" s="151"/>
+      <c r="AL30" s="151"/>
+      <c r="AM30" s="152"/>
+      <c r="AN30" s="153"/>
+      <c r="AO30" s="154"/>
+      <c r="AP30" s="154"/>
+      <c r="AQ30" s="154"/>
+      <c r="AR30" s="155"/>
+      <c r="AS30" s="153"/>
+      <c r="AT30" s="154"/>
+      <c r="AU30" s="154"/>
+      <c r="AV30" s="154"/>
+      <c r="AW30" s="155"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="143"/>
-      <c r="O31" s="143"/>
-      <c r="P31" s="143"/>
-      <c r="Q31" s="143"/>
-      <c r="R31" s="144"/>
-      <c r="S31" s="138"/>
-      <c r="T31" s="138"/>
-      <c r="U31" s="138"/>
-      <c r="V31" s="139"/>
-      <c r="W31" s="140"/>
-      <c r="X31" s="140"/>
-      <c r="Y31" s="140"/>
-      <c r="Z31" s="140"/>
-      <c r="AA31" s="140"/>
-      <c r="AB31" s="140"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="140"/>
-      <c r="AE31" s="140"/>
-      <c r="AF31" s="140"/>
-      <c r="AG31" s="140"/>
-      <c r="AH31" s="140"/>
-      <c r="AI31" s="140"/>
-      <c r="AJ31" s="140"/>
-      <c r="AK31" s="140"/>
-      <c r="AL31" s="140"/>
-      <c r="AM31" s="141"/>
-      <c r="AN31" s="125"/>
-      <c r="AO31" s="126"/>
-      <c r="AP31" s="126"/>
-      <c r="AQ31" s="126"/>
-      <c r="AR31" s="127"/>
-      <c r="AS31" s="125"/>
-      <c r="AT31" s="126"/>
-      <c r="AU31" s="126"/>
-      <c r="AV31" s="126"/>
-      <c r="AW31" s="127"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="148"/>
+      <c r="O31" s="148"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="134"/>
+      <c r="U31" s="134"/>
+      <c r="V31" s="150"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="151"/>
+      <c r="Y31" s="151"/>
+      <c r="Z31" s="151"/>
+      <c r="AA31" s="151"/>
+      <c r="AB31" s="151"/>
+      <c r="AC31" s="151"/>
+      <c r="AD31" s="151"/>
+      <c r="AE31" s="151"/>
+      <c r="AF31" s="151"/>
+      <c r="AG31" s="151"/>
+      <c r="AH31" s="151"/>
+      <c r="AI31" s="151"/>
+      <c r="AJ31" s="151"/>
+      <c r="AK31" s="151"/>
+      <c r="AL31" s="151"/>
+      <c r="AM31" s="152"/>
+      <c r="AN31" s="153"/>
+      <c r="AO31" s="154"/>
+      <c r="AP31" s="154"/>
+      <c r="AQ31" s="154"/>
+      <c r="AR31" s="155"/>
+      <c r="AS31" s="153"/>
+      <c r="AT31" s="154"/>
+      <c r="AU31" s="154"/>
+      <c r="AV31" s="154"/>
+      <c r="AW31" s="155"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="143"/>
-      <c r="O32" s="143"/>
-      <c r="P32" s="143"/>
-      <c r="Q32" s="143"/>
-      <c r="R32" s="144"/>
-      <c r="S32" s="138"/>
-      <c r="T32" s="138"/>
-      <c r="U32" s="138"/>
-      <c r="V32" s="139"/>
-      <c r="W32" s="140"/>
-      <c r="X32" s="140"/>
-      <c r="Y32" s="140"/>
-      <c r="Z32" s="140"/>
-      <c r="AA32" s="140"/>
-      <c r="AB32" s="140"/>
-      <c r="AC32" s="140"/>
-      <c r="AD32" s="140"/>
-      <c r="AE32" s="140"/>
-      <c r="AF32" s="140"/>
-      <c r="AG32" s="140"/>
-      <c r="AH32" s="140"/>
-      <c r="AI32" s="140"/>
-      <c r="AJ32" s="140"/>
-      <c r="AK32" s="140"/>
-      <c r="AL32" s="140"/>
-      <c r="AM32" s="141"/>
-      <c r="AN32" s="125"/>
-      <c r="AO32" s="126"/>
-      <c r="AP32" s="126"/>
-      <c r="AQ32" s="126"/>
-      <c r="AR32" s="127"/>
-      <c r="AS32" s="125"/>
-      <c r="AT32" s="126"/>
-      <c r="AU32" s="126"/>
-      <c r="AV32" s="126"/>
-      <c r="AW32" s="127"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="148"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="150"/>
+      <c r="W32" s="151"/>
+      <c r="X32" s="151"/>
+      <c r="Y32" s="151"/>
+      <c r="Z32" s="151"/>
+      <c r="AA32" s="151"/>
+      <c r="AB32" s="151"/>
+      <c r="AC32" s="151"/>
+      <c r="AD32" s="151"/>
+      <c r="AE32" s="151"/>
+      <c r="AF32" s="151"/>
+      <c r="AG32" s="151"/>
+      <c r="AH32" s="151"/>
+      <c r="AI32" s="151"/>
+      <c r="AJ32" s="151"/>
+      <c r="AK32" s="151"/>
+      <c r="AL32" s="151"/>
+      <c r="AM32" s="152"/>
+      <c r="AN32" s="153"/>
+      <c r="AO32" s="154"/>
+      <c r="AP32" s="154"/>
+      <c r="AQ32" s="154"/>
+      <c r="AR32" s="155"/>
+      <c r="AS32" s="153"/>
+      <c r="AT32" s="154"/>
+      <c r="AU32" s="154"/>
+      <c r="AV32" s="154"/>
+      <c r="AW32" s="155"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="128"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="142"/>
-      <c r="N33" s="143"/>
-      <c r="O33" s="143"/>
-      <c r="P33" s="143"/>
-      <c r="Q33" s="143"/>
-      <c r="R33" s="144"/>
-      <c r="S33" s="138"/>
-      <c r="T33" s="138"/>
-      <c r="U33" s="138"/>
-      <c r="V33" s="139"/>
-      <c r="W33" s="140"/>
-      <c r="X33" s="140"/>
-      <c r="Y33" s="140"/>
-      <c r="Z33" s="140"/>
-      <c r="AA33" s="140"/>
-      <c r="AB33" s="140"/>
-      <c r="AC33" s="140"/>
-      <c r="AD33" s="140"/>
-      <c r="AE33" s="140"/>
-      <c r="AF33" s="140"/>
-      <c r="AG33" s="140"/>
-      <c r="AH33" s="140"/>
-      <c r="AI33" s="140"/>
-      <c r="AJ33" s="140"/>
-      <c r="AK33" s="140"/>
-      <c r="AL33" s="140"/>
-      <c r="AM33" s="141"/>
-      <c r="AN33" s="125"/>
-      <c r="AO33" s="126"/>
-      <c r="AP33" s="126"/>
-      <c r="AQ33" s="126"/>
-      <c r="AR33" s="127"/>
-      <c r="AS33" s="125"/>
-      <c r="AT33" s="126"/>
-      <c r="AU33" s="126"/>
-      <c r="AV33" s="126"/>
-      <c r="AW33" s="127"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="134"/>
+      <c r="T33" s="134"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="150"/>
+      <c r="W33" s="151"/>
+      <c r="X33" s="151"/>
+      <c r="Y33" s="151"/>
+      <c r="Z33" s="151"/>
+      <c r="AA33" s="151"/>
+      <c r="AB33" s="151"/>
+      <c r="AC33" s="151"/>
+      <c r="AD33" s="151"/>
+      <c r="AE33" s="151"/>
+      <c r="AF33" s="151"/>
+      <c r="AG33" s="151"/>
+      <c r="AH33" s="151"/>
+      <c r="AI33" s="151"/>
+      <c r="AJ33" s="151"/>
+      <c r="AK33" s="151"/>
+      <c r="AL33" s="151"/>
+      <c r="AM33" s="152"/>
+      <c r="AN33" s="153"/>
+      <c r="AO33" s="154"/>
+      <c r="AP33" s="154"/>
+      <c r="AQ33" s="154"/>
+      <c r="AR33" s="155"/>
+      <c r="AS33" s="153"/>
+      <c r="AT33" s="154"/>
+      <c r="AU33" s="154"/>
+      <c r="AV33" s="154"/>
+      <c r="AW33" s="155"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="128"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="135"/>
-      <c r="N34" s="136"/>
-      <c r="O34" s="136"/>
-      <c r="P34" s="136"/>
-      <c r="Q34" s="136"/>
-      <c r="R34" s="137"/>
-      <c r="S34" s="138"/>
-      <c r="T34" s="138"/>
-      <c r="U34" s="138"/>
-      <c r="V34" s="139"/>
-      <c r="W34" s="140"/>
-      <c r="X34" s="140"/>
-      <c r="Y34" s="140"/>
-      <c r="Z34" s="140"/>
-      <c r="AA34" s="140"/>
-      <c r="AB34" s="140"/>
-      <c r="AC34" s="140"/>
-      <c r="AD34" s="140"/>
-      <c r="AE34" s="140"/>
-      <c r="AF34" s="140"/>
-      <c r="AG34" s="140"/>
-      <c r="AH34" s="140"/>
-      <c r="AI34" s="140"/>
-      <c r="AJ34" s="140"/>
-      <c r="AK34" s="140"/>
-      <c r="AL34" s="140"/>
-      <c r="AM34" s="141"/>
-      <c r="AN34" s="125"/>
-      <c r="AO34" s="126"/>
-      <c r="AP34" s="126"/>
-      <c r="AQ34" s="126"/>
-      <c r="AR34" s="127"/>
-      <c r="AS34" s="125"/>
-      <c r="AT34" s="126"/>
-      <c r="AU34" s="126"/>
-      <c r="AV34" s="126"/>
-      <c r="AW34" s="127"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="162"/>
+      <c r="N34" s="163"/>
+      <c r="O34" s="163"/>
+      <c r="P34" s="163"/>
+      <c r="Q34" s="163"/>
+      <c r="R34" s="164"/>
+      <c r="S34" s="134"/>
+      <c r="T34" s="134"/>
+      <c r="U34" s="134"/>
+      <c r="V34" s="150"/>
+      <c r="W34" s="151"/>
+      <c r="X34" s="151"/>
+      <c r="Y34" s="151"/>
+      <c r="Z34" s="151"/>
+      <c r="AA34" s="151"/>
+      <c r="AB34" s="151"/>
+      <c r="AC34" s="151"/>
+      <c r="AD34" s="151"/>
+      <c r="AE34" s="151"/>
+      <c r="AF34" s="151"/>
+      <c r="AG34" s="151"/>
+      <c r="AH34" s="151"/>
+      <c r="AI34" s="151"/>
+      <c r="AJ34" s="151"/>
+      <c r="AK34" s="151"/>
+      <c r="AL34" s="151"/>
+      <c r="AM34" s="152"/>
+      <c r="AN34" s="153"/>
+      <c r="AO34" s="154"/>
+      <c r="AP34" s="154"/>
+      <c r="AQ34" s="154"/>
+      <c r="AR34" s="155"/>
+      <c r="AS34" s="153"/>
+      <c r="AT34" s="154"/>
+      <c r="AU34" s="154"/>
+      <c r="AV34" s="154"/>
+      <c r="AW34" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -6790,230 +6981,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7145,14 +7121,14 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="86" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="S2" s="87"/>
       <c r="T2" s="87"/>
       <c r="U2" s="87"/>
       <c r="V2" s="88"/>
       <c r="W2" s="36" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
@@ -7173,11 +7149,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="171"/>
-      <c r="AP2" s="172"/>
-      <c r="AQ2" s="172"/>
-      <c r="AR2" s="172"/>
-      <c r="AS2" s="173"/>
+      <c r="AO2" s="167"/>
+      <c r="AP2" s="168"/>
+      <c r="AQ2" s="168"/>
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="169"/>
       <c r="AT2" s="33" t="s">
         <v>26</v>
       </c>
@@ -7186,14 +7162,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="174"/>
-      <c r="BA2" s="175"/>
-      <c r="BB2" s="175"/>
-      <c r="BC2" s="175"/>
-      <c r="BD2" s="175"/>
-      <c r="BE2" s="175"/>
-      <c r="BF2" s="175"/>
-      <c r="BG2" s="176"/>
+      <c r="AZ2" s="170"/>
+      <c r="BA2" s="171"/>
+      <c r="BB2" s="171"/>
+      <c r="BC2" s="171"/>
+      <c r="BD2" s="171"/>
+      <c r="BE2" s="171"/>
+      <c r="BF2" s="171"/>
+      <c r="BG2" s="172"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7274,7 +7250,7 @@
     </row>
     <row r="8" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="99" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
@@ -8211,7 +8187,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="112" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -8592,10 +8568,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="177" t="s">
+      <c r="B43" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="178"/>
+      <c r="C43" s="174"/>
       <c r="D43" s="80" t="s">
         <v>102</v>
       </c>
@@ -8678,12 +8654,12 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="179">
+      <c r="B44" s="175">
         <v>1</v>
       </c>
-      <c r="C44" s="180"/>
+      <c r="C44" s="176"/>
       <c r="D44" s="104" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E44" s="79"/>
       <c r="F44" s="79"/>
@@ -8692,7 +8668,7 @@
       <c r="I44" s="79"/>
       <c r="J44" s="105"/>
       <c r="K44" s="104" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="L44" s="79"/>
       <c r="M44" s="79"/>
@@ -8713,24 +8689,24 @@
       <c r="AB44" s="79"/>
       <c r="AC44" s="79"/>
       <c r="AD44" s="105"/>
-      <c r="AE44" s="169" t="s">
+      <c r="AE44" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="AF44" s="170"/>
-      <c r="AG44" s="169" t="s">
+      <c r="AF44" s="166"/>
+      <c r="AG44" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="AH44" s="170"/>
-      <c r="AI44" s="169" t="s">
+      <c r="AH44" s="166"/>
+      <c r="AI44" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="AJ44" s="170"/>
-      <c r="AK44" s="169" t="s">
+      <c r="AJ44" s="166"/>
+      <c r="AK44" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="AL44" s="170"/>
+      <c r="AL44" s="166"/>
       <c r="AM44" s="76" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AN44" s="77"/>
       <c r="AO44" s="77"/>
@@ -8762,12 +8738,12 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="113"/>
-      <c r="B45" s="165">
+      <c r="B45" s="177">
         <v>2</v>
       </c>
-      <c r="C45" s="166"/>
+      <c r="C45" s="178"/>
       <c r="D45" s="114" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E45" s="115"/>
       <c r="F45" s="115"/>
@@ -8776,7 +8752,7 @@
       <c r="I45" s="115"/>
       <c r="J45" s="116"/>
       <c r="K45" s="114" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="L45" s="115"/>
       <c r="M45" s="115"/>
@@ -8797,18 +8773,18 @@
       <c r="AB45" s="115"/>
       <c r="AC45" s="115"/>
       <c r="AD45" s="116"/>
-      <c r="AE45" s="167" t="s">
+      <c r="AE45" s="179" t="s">
         <v>111</v>
       </c>
-      <c r="AF45" s="168"/>
-      <c r="AG45" s="167"/>
-      <c r="AH45" s="168"/>
-      <c r="AI45" s="167"/>
-      <c r="AJ45" s="168"/>
-      <c r="AK45" s="167"/>
-      <c r="AL45" s="168"/>
+      <c r="AF45" s="180"/>
+      <c r="AG45" s="179"/>
+      <c r="AH45" s="180"/>
+      <c r="AI45" s="179"/>
+      <c r="AJ45" s="180"/>
+      <c r="AK45" s="179"/>
+      <c r="AL45" s="180"/>
       <c r="AM45" s="117" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="AN45" s="118"/>
       <c r="AO45" s="118"/>
@@ -8832,6 +8808,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
     <mergeCell ref="AI44:AJ44"/>
     <mergeCell ref="AK44:AL44"/>
     <mergeCell ref="AO2:AS2"/>
@@ -8840,11 +8821,6 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="AE44:AF44"/>
     <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8990,7 +8966,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="174" t="str">
+      <c r="CU1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -9121,7 +9097,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="174"/>
+      <c r="CU2" s="170"/>
       <c r="CV2" s="181"/>
       <c r="CW2" s="181"/>
       <c r="CX2" s="181"/>
@@ -9337,37 +9313,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="158" t="s">
+      <c r="E6" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="158" t="s">
+      <c r="F6" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="158" t="s">
+      <c r="G6" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="158" t="s">
+      <c r="H6" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="192" t="s">
+      <c r="I6" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="192" t="s">
+      <c r="J6" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="158" t="s">
+      <c r="K6" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="158" t="s">
+      <c r="L6" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="158" t="s">
+      <c r="M6" s="127" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="69" t="s">
@@ -9375,24 +9351,24 @@
       </c>
       <c r="O6" s="69"/>
       <c r="P6" s="69"/>
-      <c r="Q6" s="192" t="s">
+      <c r="Q6" s="190" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
       <c r="N7" s="42" t="s">
         <v>80</v>
       </c>
@@ -9402,7 +9378,7 @@
       <c r="P7" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="192"/>
+      <c r="Q7" s="190"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -9461,10 +9437,10 @@
         <v>60</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>113</v>
@@ -9497,7 +9473,7 @@
         <v>34</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -9508,10 +9484,10 @@
         <v>61</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>113</v>
@@ -9544,7 +9520,7 @@
         <v>34</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -9555,10 +9531,10 @@
         <v>62</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>113</v>
@@ -9591,7 +9567,7 @@
         <v>34</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -9601,7 +9577,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E12" s="43" t="s">
         <v>53</v>
@@ -9650,7 +9626,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -9705,37 +9681,37 @@
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="158" t="s">
+      <c r="D16" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="158" t="s">
+      <c r="E16" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="158" t="s">
+      <c r="F16" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="158" t="s">
+      <c r="G16" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="158" t="s">
+      <c r="H16" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="190" t="s">
+      <c r="I16" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="192" t="s">
+      <c r="J16" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="158" t="s">
+      <c r="K16" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="158" t="s">
+      <c r="L16" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="158" t="s">
+      <c r="M16" s="127" t="s">
         <v>33</v>
       </c>
       <c r="N16" s="69" t="s">
@@ -9743,24 +9719,24 @@
       </c>
       <c r="O16" s="69"/>
       <c r="P16" s="69"/>
-      <c r="Q16" s="190" t="s">
+      <c r="Q16" s="191" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="191"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
       <c r="N17" s="42" t="s">
         <v>80</v>
       </c>
@@ -9770,20 +9746,20 @@
       <c r="P17" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q17" s="191"/>
+      <c r="Q17" s="192"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E18" s="120" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="F18" s="121" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>36</v>
@@ -9807,13 +9783,13 @@
         <v>34</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>34</v>
@@ -9826,13 +9802,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G19" s="44" t="s">
         <v>36</v>
@@ -9856,7 +9832,7 @@
         <v>34</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -9875,13 +9851,13 @@
         <v>3</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G20" s="44" t="s">
         <v>36</v>
@@ -9911,7 +9887,7 @@
         <v>34</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>34</v>
@@ -9930,37 +9906,37 @@
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="61"/>
-      <c r="C23" s="158" t="s">
+      <c r="C23" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="158" t="s">
+      <c r="D23" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="158" t="s">
+      <c r="E23" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="158" t="s">
+      <c r="F23" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="158" t="s">
+      <c r="G23" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="158" t="s">
+      <c r="H23" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="192" t="s">
+      <c r="I23" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="192" t="s">
+      <c r="J23" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="158" t="s">
+      <c r="K23" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="158" t="s">
+      <c r="L23" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="158" t="s">
+      <c r="M23" s="127" t="s">
         <v>33</v>
       </c>
       <c r="N23" s="69" t="s">
@@ -9968,24 +9944,24 @@
       </c>
       <c r="O23" s="69"/>
       <c r="P23" s="69"/>
-      <c r="Q23" s="192" t="s">
+      <c r="Q23" s="190" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="61"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="192"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="190"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="127"/>
       <c r="N24" s="42" t="s">
         <v>80</v>
       </c>
@@ -9995,7 +9971,7 @@
       <c r="P24" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q24" s="192"/>
+      <c r="Q24" s="190"/>
     </row>
     <row r="25" spans="1:17" s="50" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="56"/>
@@ -10028,7 +10004,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>50</v>
@@ -10079,10 +10055,10 @@
         <v>81</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>35</v>
@@ -10097,7 +10073,7 @@
         <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>34</v>
@@ -10125,10 +10101,10 @@
         <v>65</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G28" s="44" t="s">
         <v>51</v>
@@ -10158,7 +10134,7 @@
         <v>35</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>35</v>
@@ -10170,13 +10146,13 @@
         <v>4</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="121" t="s">
         <v>238</v>
-      </c>
-      <c r="F29" s="121" t="s">
-        <v>255</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>36</v>
@@ -10199,14 +10175,14 @@
       <c r="M29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="7" t="s">
-        <v>35</v>
+      <c r="N29" s="121" t="s">
+        <v>218</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>35</v>
@@ -10219,16 +10195,16 @@
         <v>5</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>29</v>
@@ -10248,17 +10224,17 @@
       <c r="M30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="7" t="s">
-        <v>35</v>
+      <c r="N30" s="121" t="s">
+        <v>218</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -10268,13 +10244,13 @@
         <v>6</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F31" s="121" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="G31" s="44" t="s">
         <v>51</v>
@@ -10295,7 +10271,7 @@
         <v>35</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>35</v>
@@ -10304,7 +10280,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>35</v>
@@ -10317,13 +10293,13 @@
         <v>7</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="G32" s="44" t="s">
         <v>51</v>
@@ -10344,7 +10320,7 @@
         <v>35</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>35</v>
@@ -10353,7 +10329,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -10387,37 +10363,37 @@
     <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="61"/>
-      <c r="C35" s="158" t="s">
+      <c r="C35" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="158" t="s">
+      <c r="D35" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="158" t="s">
+      <c r="E35" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="158" t="s">
+      <c r="F35" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="158" t="s">
+      <c r="G35" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="158" t="s">
+      <c r="H35" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="192" t="s">
+      <c r="I35" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="J35" s="192" t="s">
+      <c r="J35" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="K35" s="158" t="s">
+      <c r="K35" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="L35" s="158" t="s">
+      <c r="L35" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="M35" s="158" t="s">
+      <c r="M35" s="127" t="s">
         <v>33</v>
       </c>
       <c r="N35" s="69" t="s">
@@ -10425,24 +10401,24 @@
       </c>
       <c r="O35" s="69"/>
       <c r="P35" s="69"/>
-      <c r="Q35" s="192" t="s">
+      <c r="Q35" s="190" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="61"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
       <c r="N36" s="85" t="s">
         <v>80</v>
       </c>
@@ -10452,9 +10428,9 @@
       <c r="P36" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="Q36" s="192"/>
-    </row>
-    <row r="37" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="Q36" s="190"/>
+    </row>
+    <row r="37" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="61"/>
       <c r="C37" s="7">
@@ -10464,10 +10440,10 @@
         <v>117</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G37" s="44" t="s">
         <v>114</v>
@@ -10488,7 +10464,7 @@
         <v>125</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>35</v>
@@ -10512,10 +10488,10 @@
         <v>118</v>
       </c>
       <c r="E38" s="120" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="F38" s="121" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>36</v>
@@ -10539,13 +10515,13 @@
         <v>35</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>35</v>
@@ -10558,13 +10534,13 @@
         <v>3</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G39" s="44" t="s">
         <v>36</v>
@@ -10588,7 +10564,7 @@
         <v>35</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>35</v>
@@ -10607,16 +10583,16 @@
         <v>4</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F40" s="121" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>115</v>
@@ -10634,7 +10610,7 @@
         <v>127</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="N40" s="7" t="s">
         <v>35</v>
@@ -10656,16 +10632,16 @@
         <v>5</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>115</v>
@@ -10683,7 +10659,7 @@
         <v>127</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>35</v>
@@ -10721,38 +10697,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="I23:I24"/>
@@ -10769,6 +10713,38 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10784,7 +10760,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ211"/>
+  <dimension ref="A1:AZ206"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -10842,7 +10818,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="171">
+      <c r="AI1" s="167">
         <f>変更履歴!E5</f>
         <v>43706</v>
       </c>
@@ -10858,7 +10834,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="174" t="str">
+      <c r="AT1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -10929,7 +10905,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="174"/>
+      <c r="AT2" s="170"/>
       <c r="AU2" s="181"/>
       <c r="AV2" s="181"/>
       <c r="AW2" s="181"/>
@@ -11286,7 +11262,7 @@
       <c r="J11" s="21"/>
       <c r="K11" s="22"/>
       <c r="L11" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -11389,7 +11365,7 @@
       <c r="K13" s="73"/>
       <c r="L13" s="23"/>
       <c r="M13" s="103" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N13" s="103"/>
       <c r="O13" s="103"/>
@@ -11434,7 +11410,7 @@
       <c r="G14" s="72"/>
       <c r="K14" s="73"/>
       <c r="N14" s="103" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="O14" s="103"/>
       <c r="P14" s="103"/>
@@ -11466,7 +11442,7 @@
       <c r="G15" s="72"/>
       <c r="K15" s="73"/>
       <c r="N15" s="103" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="O15" s="103"/>
       <c r="P15" s="103"/>
@@ -11529,7 +11505,7 @@
       <c r="G17" s="72"/>
       <c r="L17" s="72"/>
       <c r="M17" s="103" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="N17" s="103"/>
       <c r="O17" s="103"/>
@@ -11570,7 +11546,7 @@
       <c r="L18" s="72"/>
       <c r="M18" s="103"/>
       <c r="N18" s="103" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="O18" s="103"/>
       <c r="P18" s="103"/>
@@ -11610,7 +11586,7 @@
       <c r="L19" s="72"/>
       <c r="M19" s="103"/>
       <c r="N19" s="103" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="O19" s="103"/>
       <c r="P19" s="103"/>
@@ -11649,7 +11625,7 @@
       <c r="G20" s="72"/>
       <c r="L20" s="72"/>
       <c r="O20" s="103" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="P20" s="103"/>
       <c r="Q20" s="103"/>
@@ -11742,7 +11718,7 @@
       <c r="K22" s="73"/>
       <c r="L22" s="23"/>
       <c r="M22" s="103" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N22" s="103"/>
       <c r="O22" s="103"/>
@@ -11787,7 +11763,7 @@
       <c r="G23" s="72"/>
       <c r="K23" s="73"/>
       <c r="N23" s="103" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="O23" s="103"/>
       <c r="P23" s="103"/>
@@ -11801,7 +11777,7 @@
         <v>37</v>
       </c>
       <c r="Y23" s="103" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="Z23" s="103"/>
       <c r="AA23" s="103"/>
@@ -11826,7 +11802,7 @@
       <c r="K24" s="73"/>
       <c r="L24" s="23"/>
       <c r="N24" s="103" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="O24" s="103"/>
       <c r="P24" s="103"/>
@@ -11840,7 +11816,7 @@
         <v>37</v>
       </c>
       <c r="Y24" s="103" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="Z24" s="103"/>
       <c r="AA24" s="103"/>
@@ -11877,7 +11853,7 @@
       <c r="K25" s="73"/>
       <c r="L25" s="23"/>
       <c r="N25" s="103" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="O25" s="103"/>
       <c r="P25" s="103"/>
@@ -11891,7 +11867,7 @@
         <v>37</v>
       </c>
       <c r="Y25" s="103" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="Z25" s="103"/>
       <c r="AA25" s="103"/>
@@ -11984,7 +11960,7 @@
       <c r="K28" s="73"/>
       <c r="L28" s="23"/>
       <c r="N28" s="16" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AJ28" s="23"/>
       <c r="AK28" s="23"/>
@@ -12061,7 +12037,7 @@
       <c r="J30" s="23"/>
       <c r="K30" s="73"/>
       <c r="L30" s="72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
@@ -12154,35 +12130,35 @@
         <v>3</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="22"/>
       <c r="G32" s="20" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="193" t="s">
+        <v>240</v>
+      </c>
+      <c r="M32" s="194"/>
+      <c r="N32" s="194"/>
+      <c r="O32" s="194"/>
+      <c r="P32" s="194"/>
+      <c r="Q32" s="194"/>
+      <c r="R32" s="194"/>
+      <c r="S32" s="194"/>
+      <c r="T32" s="194"/>
+      <c r="U32" s="194"/>
+      <c r="V32" s="194"/>
+      <c r="W32" s="194"/>
+      <c r="X32" s="194"/>
+      <c r="Y32" s="194"/>
+      <c r="Z32" s="194"/>
       <c r="AA32" s="21"/>
       <c r="AB32" s="21"/>
       <c r="AC32" s="21"/>
@@ -12213,68 +12189,72 @@
       <c r="G33" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="L33" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ33" s="23"/>
-      <c r="AK33" s="23"/>
-      <c r="AL33" s="23"/>
-      <c r="AM33" s="23"/>
-      <c r="AN33" s="23"/>
-      <c r="AO33" s="23"/>
-      <c r="AP33" s="23"/>
-      <c r="AQ33" s="23"/>
-      <c r="AR33" s="23"/>
-      <c r="AS33" s="23"/>
-      <c r="AT33" s="23"/>
-      <c r="AU33" s="23"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="194" t="s">
+        <v>241</v>
+      </c>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="194"/>
+      <c r="P33" s="194"/>
+      <c r="Q33" s="194"/>
+      <c r="R33" s="194"/>
+      <c r="S33" s="194"/>
+      <c r="T33" s="194"/>
+      <c r="U33" s="194"/>
+      <c r="V33" s="194"/>
+      <c r="W33" s="194"/>
+      <c r="X33" s="194"/>
+      <c r="Y33" s="194"/>
+      <c r="Z33" s="194"/>
       <c r="AV33" s="73"/>
     </row>
     <row r="34" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B34" s="72"/>
       <c r="C34" s="72"/>
       <c r="F34" s="73"/>
-      <c r="L34" s="72"/>
-      <c r="AJ34" s="23"/>
-      <c r="AK34" s="23"/>
-      <c r="AL34" s="23"/>
-      <c r="AM34" s="23"/>
-      <c r="AN34" s="23"/>
-      <c r="AO34" s="23"/>
-      <c r="AP34" s="23"/>
-      <c r="AQ34" s="23"/>
-      <c r="AR34" s="23"/>
-      <c r="AS34" s="23"/>
-      <c r="AT34" s="23"/>
-      <c r="AU34" s="23"/>
+      <c r="G34" s="72"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="194"/>
+      <c r="M34" s="194"/>
+      <c r="N34" s="194"/>
+      <c r="O34" s="194"/>
+      <c r="P34" s="194"/>
+      <c r="Q34" s="194"/>
+      <c r="R34" s="194"/>
+      <c r="S34" s="194"/>
+      <c r="T34" s="194"/>
+      <c r="U34" s="194"/>
+      <c r="V34" s="194"/>
+      <c r="W34" s="194"/>
+      <c r="X34" s="194"/>
+      <c r="Y34" s="194"/>
+      <c r="Z34" s="194"/>
       <c r="AV34" s="73"/>
     </row>
     <row r="35" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B35" s="72"/>
       <c r="C35" s="72"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
       <c r="F35" s="73"/>
       <c r="G35" s="72"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
       <c r="K35" s="73"/>
-      <c r="L35" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="23"/>
-      <c r="AP35" s="23"/>
-      <c r="AQ35" s="23"/>
-      <c r="AR35" s="23"/>
-      <c r="AS35" s="23"/>
-      <c r="AT35" s="23"/>
-      <c r="AU35" s="23"/>
+      <c r="L35" s="194" t="s">
+        <v>242</v>
+      </c>
+      <c r="M35" s="194"/>
+      <c r="N35" s="194"/>
+      <c r="O35" s="194"/>
+      <c r="P35" s="194"/>
+      <c r="Q35" s="194"/>
+      <c r="R35" s="194"/>
+      <c r="S35" s="194"/>
+      <c r="T35" s="194"/>
+      <c r="U35" s="194"/>
+      <c r="V35" s="194"/>
+      <c r="W35" s="194"/>
+      <c r="X35" s="194"/>
+      <c r="Y35" s="194"/>
+      <c r="Z35" s="194"/>
       <c r="AV35" s="73"/>
     </row>
     <row r="36" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12282,25 +12262,24 @@
       <c r="C36" s="72"/>
       <c r="F36" s="73"/>
       <c r="G36" s="72"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
       <c r="K36" s="73"/>
-      <c r="L36" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ36" s="23"/>
-      <c r="AK36" s="23"/>
-      <c r="AL36" s="23"/>
-      <c r="AM36" s="23"/>
-      <c r="AN36" s="23"/>
-      <c r="AO36" s="23"/>
-      <c r="AP36" s="23"/>
-      <c r="AQ36" s="23"/>
-      <c r="AR36" s="23"/>
-      <c r="AS36" s="23"/>
-      <c r="AT36" s="23"/>
-      <c r="AU36" s="23"/>
+      <c r="L36" s="194" t="s">
+        <v>136</v>
+      </c>
+      <c r="M36" s="194"/>
+      <c r="N36" s="194"/>
+      <c r="O36" s="194"/>
+      <c r="P36" s="194"/>
+      <c r="Q36" s="194"/>
+      <c r="R36" s="194"/>
+      <c r="S36" s="194"/>
+      <c r="T36" s="194"/>
+      <c r="U36" s="194"/>
+      <c r="V36" s="194"/>
+      <c r="W36" s="194"/>
+      <c r="X36" s="194"/>
+      <c r="Y36" s="194"/>
+      <c r="Z36" s="194"/>
       <c r="AV36" s="73"/>
     </row>
     <row r="37" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12308,23 +12287,22 @@
       <c r="C37" s="72"/>
       <c r="F37" s="73"/>
       <c r="G37" s="72"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
       <c r="K37" s="73"/>
-      <c r="L37" s="72"/>
-      <c r="AJ37" s="23"/>
-      <c r="AK37" s="23"/>
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="23"/>
-      <c r="AN37" s="23"/>
-      <c r="AO37" s="23"/>
-      <c r="AP37" s="23"/>
-      <c r="AQ37" s="23"/>
-      <c r="AR37" s="23"/>
-      <c r="AS37" s="23"/>
-      <c r="AT37" s="23"/>
-      <c r="AU37" s="23"/>
+      <c r="L37" s="194"/>
+      <c r="M37" s="194"/>
+      <c r="N37" s="194"/>
+      <c r="O37" s="194"/>
+      <c r="P37" s="194"/>
+      <c r="Q37" s="194"/>
+      <c r="R37" s="194"/>
+      <c r="S37" s="194"/>
+      <c r="T37" s="194"/>
+      <c r="U37" s="194"/>
+      <c r="V37" s="194"/>
+      <c r="W37" s="194"/>
+      <c r="X37" s="194"/>
+      <c r="Y37" s="194"/>
+      <c r="Z37" s="194"/>
       <c r="AV37" s="73"/>
     </row>
     <row r="38" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12332,25 +12310,24 @@
       <c r="C38" s="72"/>
       <c r="F38" s="73"/>
       <c r="G38" s="72"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
       <c r="K38" s="73"/>
-      <c r="L38" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ38" s="23"/>
-      <c r="AK38" s="23"/>
-      <c r="AL38" s="23"/>
-      <c r="AM38" s="23"/>
-      <c r="AN38" s="23"/>
-      <c r="AO38" s="23"/>
-      <c r="AP38" s="23"/>
-      <c r="AQ38" s="23"/>
-      <c r="AR38" s="23"/>
-      <c r="AS38" s="23"/>
-      <c r="AT38" s="23"/>
-      <c r="AU38" s="23"/>
+      <c r="L38" s="194" t="s">
+        <v>243</v>
+      </c>
+      <c r="M38" s="194"/>
+      <c r="N38" s="194"/>
+      <c r="O38" s="194"/>
+      <c r="P38" s="194"/>
+      <c r="Q38" s="194"/>
+      <c r="R38" s="194"/>
+      <c r="S38" s="194"/>
+      <c r="T38" s="194"/>
+      <c r="U38" s="194"/>
+      <c r="V38" s="194"/>
+      <c r="W38" s="194"/>
+      <c r="X38" s="194"/>
+      <c r="Y38" s="194"/>
+      <c r="Z38" s="194"/>
       <c r="AV38" s="73"/>
     </row>
     <row r="39" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12358,48 +12335,24 @@
       <c r="C39" s="72"/>
       <c r="F39" s="73"/>
       <c r="G39" s="72"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
       <c r="K39" s="73"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="N39" s="103"/>
-      <c r="O39" s="103"/>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="103"/>
-      <c r="R39" s="103"/>
-      <c r="S39" s="103"/>
-      <c r="T39" s="103"/>
-      <c r="U39" s="103"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="103"/>
-      <c r="X39" s="103"/>
-      <c r="Y39" s="103"/>
-      <c r="Z39" s="103"/>
-      <c r="AA39" s="103"/>
-      <c r="AB39" s="103"/>
-      <c r="AC39" s="103"/>
-      <c r="AD39" s="103"/>
-      <c r="AE39" s="103"/>
-      <c r="AF39" s="103"/>
-      <c r="AG39" s="103"/>
-      <c r="AH39" s="103"/>
-      <c r="AI39" s="103"/>
-      <c r="AJ39" s="23"/>
-      <c r="AK39" s="23"/>
-      <c r="AL39" s="23"/>
-      <c r="AM39" s="23"/>
-      <c r="AN39" s="23"/>
-      <c r="AO39" s="23"/>
-      <c r="AP39" s="23"/>
-      <c r="AQ39" s="23"/>
-      <c r="AR39" s="23"/>
-      <c r="AS39" s="23"/>
-      <c r="AT39" s="23"/>
-      <c r="AU39" s="23"/>
+      <c r="L39" s="194" t="s">
+        <v>241</v>
+      </c>
+      <c r="M39" s="194"/>
+      <c r="N39" s="194"/>
+      <c r="O39" s="194"/>
+      <c r="P39" s="194"/>
+      <c r="Q39" s="194"/>
+      <c r="R39" s="194"/>
+      <c r="S39" s="194"/>
+      <c r="T39" s="194"/>
+      <c r="U39" s="194"/>
+      <c r="V39" s="194"/>
+      <c r="W39" s="194"/>
+      <c r="X39" s="194"/>
+      <c r="Y39" s="194"/>
+      <c r="Z39" s="194"/>
       <c r="AV39" s="73"/>
     </row>
     <row r="40" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12407,47 +12360,22 @@
       <c r="C40" s="72"/>
       <c r="F40" s="73"/>
       <c r="G40" s="72"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
       <c r="K40" s="73"/>
-      <c r="L40" s="72"/>
-      <c r="N40" s="103" t="s">
-        <v>164</v>
-      </c>
-      <c r="O40" s="103"/>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="103"/>
-      <c r="R40" s="103"/>
-      <c r="S40" s="103"/>
-      <c r="T40" s="103"/>
-      <c r="U40" s="103"/>
-      <c r="V40" s="103"/>
-      <c r="W40" s="103"/>
-      <c r="X40" s="103"/>
-      <c r="Y40" s="103"/>
-      <c r="Z40" s="103"/>
-      <c r="AA40" s="103"/>
-      <c r="AB40" s="103"/>
-      <c r="AC40" s="103"/>
-      <c r="AD40" s="103"/>
-      <c r="AE40" s="103"/>
-      <c r="AF40" s="103"/>
-      <c r="AG40" s="103"/>
-      <c r="AH40" s="103"/>
-      <c r="AI40" s="103"/>
-      <c r="AJ40" s="23"/>
-      <c r="AK40" s="23"/>
-      <c r="AL40" s="23"/>
-      <c r="AM40" s="23"/>
-      <c r="AN40" s="23"/>
-      <c r="AO40" s="23"/>
-      <c r="AP40" s="23"/>
-      <c r="AQ40" s="23"/>
-      <c r="AR40" s="23"/>
-      <c r="AS40" s="23"/>
-      <c r="AT40" s="23"/>
-      <c r="AU40" s="23"/>
+      <c r="L40" s="194"/>
+      <c r="M40" s="194"/>
+      <c r="N40" s="194"/>
+      <c r="O40" s="194"/>
+      <c r="P40" s="194"/>
+      <c r="Q40" s="194"/>
+      <c r="R40" s="194"/>
+      <c r="S40" s="194"/>
+      <c r="T40" s="194"/>
+      <c r="U40" s="194"/>
+      <c r="V40" s="194"/>
+      <c r="W40" s="194"/>
+      <c r="X40" s="194"/>
+      <c r="Y40" s="194"/>
+      <c r="Z40" s="194"/>
       <c r="AV40" s="73"/>
     </row>
     <row r="41" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12455,170 +12383,108 @@
       <c r="C41" s="72"/>
       <c r="F41" s="73"/>
       <c r="G41" s="72"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
       <c r="K41" s="73"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="103"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="103"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="103"/>
-      <c r="U41" s="103"/>
-      <c r="V41" s="103"/>
-      <c r="W41" s="103"/>
-      <c r="X41" s="103"/>
-      <c r="Y41" s="103"/>
-      <c r="Z41" s="103"/>
-      <c r="AA41" s="103"/>
-      <c r="AB41" s="103"/>
-      <c r="AC41" s="103"/>
-      <c r="AD41" s="103"/>
-      <c r="AE41" s="103"/>
-      <c r="AF41" s="103"/>
-      <c r="AG41" s="103"/>
-      <c r="AH41" s="103"/>
-      <c r="AI41" s="103"/>
-      <c r="AJ41" s="23"/>
-      <c r="AK41" s="23"/>
-      <c r="AL41" s="23"/>
-      <c r="AM41" s="23"/>
-      <c r="AN41" s="23"/>
-      <c r="AO41" s="23"/>
-      <c r="AP41" s="23"/>
-      <c r="AQ41" s="23"/>
-      <c r="AR41" s="23"/>
-      <c r="AS41" s="23"/>
-      <c r="AT41" s="23"/>
-      <c r="AU41" s="23"/>
+      <c r="L41" s="194" t="s">
+        <v>244</v>
+      </c>
+      <c r="M41" s="194"/>
+      <c r="N41" s="194"/>
+      <c r="O41" s="194"/>
+      <c r="P41" s="194"/>
+      <c r="Q41" s="194"/>
+      <c r="R41" s="194"/>
+      <c r="S41" s="194"/>
+      <c r="T41" s="194"/>
+      <c r="U41" s="194"/>
+      <c r="V41" s="194"/>
+      <c r="W41" s="194"/>
+      <c r="X41" s="194"/>
+      <c r="Y41" s="194"/>
+      <c r="Z41" s="194"/>
       <c r="AV41" s="73"/>
     </row>
     <row r="42" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="73"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="26"/>
       <c r="L42" s="72"/>
-      <c r="M42" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="N42" s="103"/>
-      <c r="O42" s="103"/>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="103"/>
-      <c r="R42" s="103"/>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
-      <c r="V42" s="103"/>
-      <c r="W42" s="103"/>
-      <c r="X42" s="103"/>
-      <c r="Y42" s="103"/>
-      <c r="Z42" s="103"/>
-      <c r="AA42" s="103"/>
-      <c r="AB42" s="103"/>
-      <c r="AC42" s="103"/>
-      <c r="AD42" s="103"/>
-      <c r="AE42" s="103"/>
-      <c r="AF42" s="103"/>
-      <c r="AG42" s="103"/>
-      <c r="AH42" s="103"/>
-      <c r="AI42" s="103"/>
-      <c r="AJ42" s="23"/>
-      <c r="AK42" s="23"/>
-      <c r="AL42" s="23"/>
-      <c r="AM42" s="23"/>
-      <c r="AN42" s="23"/>
-      <c r="AO42" s="23"/>
-      <c r="AP42" s="23"/>
-      <c r="AQ42" s="23"/>
-      <c r="AR42" s="23"/>
-      <c r="AS42" s="23"/>
-      <c r="AT42" s="23"/>
-      <c r="AU42" s="23"/>
       <c r="AV42" s="73"/>
     </row>
     <row r="43" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="72"/>
-      <c r="N43" s="103" t="s">
-        <v>217</v>
-      </c>
-      <c r="O43" s="103"/>
-      <c r="P43" s="103"/>
-      <c r="Q43" s="103"/>
-      <c r="R43" s="103"/>
-      <c r="S43" s="103"/>
-      <c r="T43" s="103"/>
-      <c r="U43" s="103"/>
-      <c r="V43" s="103"/>
-      <c r="X43" s="103" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y43" s="103" t="s">
+      <c r="B43" s="20">
+        <v>4</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="Z43" s="103"/>
-      <c r="AA43" s="103"/>
-      <c r="AE43" s="103"/>
-      <c r="AF43" s="103"/>
-      <c r="AG43" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH43" s="103"/>
-      <c r="AI43" s="103"/>
-      <c r="AJ43" s="23"/>
-      <c r="AK43" s="23"/>
-      <c r="AL43" s="23"/>
-      <c r="AM43" s="23"/>
-      <c r="AN43" s="23"/>
-      <c r="AO43" s="23"/>
-      <c r="AP43" s="23"/>
-      <c r="AQ43" s="23"/>
-      <c r="AR43" s="23"/>
-      <c r="AS43" s="23"/>
-      <c r="AT43" s="23"/>
-      <c r="AU43" s="23"/>
-      <c r="AV43" s="73"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="193" t="s">
+        <v>245</v>
+      </c>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="21"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21"/>
+      <c r="AK43" s="21"/>
+      <c r="AL43" s="21"/>
+      <c r="AM43" s="21"/>
+      <c r="AN43" s="21"/>
+      <c r="AO43" s="21"/>
+      <c r="AP43" s="21"/>
+      <c r="AQ43" s="21"/>
+      <c r="AR43" s="21"/>
+      <c r="AS43" s="21"/>
+      <c r="AT43" s="21"/>
+      <c r="AU43" s="21"/>
+      <c r="AV43" s="22"/>
     </row>
     <row r="44" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B44" s="72"/>
       <c r="C44" s="72"/>
       <c r="F44" s="73"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
+      <c r="G44" s="72" t="s">
+        <v>100</v>
+      </c>
       <c r="K44" s="73"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="103"/>
-      <c r="AJ44" s="23"/>
-      <c r="AK44" s="23"/>
-      <c r="AL44" s="23"/>
-      <c r="AM44" s="23"/>
-      <c r="AN44" s="23"/>
-      <c r="AO44" s="23"/>
-      <c r="AP44" s="23"/>
-      <c r="AQ44" s="23"/>
-      <c r="AR44" s="23"/>
-      <c r="AS44" s="23"/>
-      <c r="AT44" s="23"/>
-      <c r="AU44" s="23"/>
+      <c r="L44" s="195" t="s">
+        <v>246</v>
+      </c>
       <c r="AV44" s="73"/>
     </row>
     <row r="45" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12626,26 +12492,8 @@
       <c r="C45" s="72"/>
       <c r="F45" s="73"/>
       <c r="G45" s="72"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
       <c r="K45" s="73"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ45" s="23"/>
-      <c r="AK45" s="23"/>
-      <c r="AL45" s="23"/>
-      <c r="AM45" s="23"/>
-      <c r="AN45" s="23"/>
-      <c r="AO45" s="23"/>
-      <c r="AP45" s="23"/>
-      <c r="AQ45" s="23"/>
-      <c r="AR45" s="23"/>
-      <c r="AS45" s="23"/>
-      <c r="AT45" s="23"/>
-      <c r="AU45" s="23"/>
+      <c r="L45" s="195"/>
       <c r="AV45" s="73"/>
     </row>
     <row r="46" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12653,26 +12501,10 @@
       <c r="C46" s="72"/>
       <c r="F46" s="73"/>
       <c r="G46" s="72"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
       <c r="K46" s="73"/>
-      <c r="L46" s="72"/>
-      <c r="N46" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ46" s="23"/>
-      <c r="AK46" s="23"/>
-      <c r="AL46" s="23"/>
-      <c r="AM46" s="23"/>
-      <c r="AN46" s="23"/>
-      <c r="AO46" s="23"/>
-      <c r="AP46" s="23"/>
-      <c r="AQ46" s="23"/>
-      <c r="AR46" s="23"/>
-      <c r="AS46" s="23"/>
-      <c r="AT46" s="23"/>
-      <c r="AU46" s="23"/>
+      <c r="L46" s="195" t="s">
+        <v>240</v>
+      </c>
       <c r="AV46" s="73"/>
     </row>
     <row r="47" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12680,23 +12512,10 @@
       <c r="C47" s="72"/>
       <c r="F47" s="73"/>
       <c r="G47" s="72"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
       <c r="K47" s="73"/>
-      <c r="L47" s="72"/>
-      <c r="AJ47" s="23"/>
-      <c r="AK47" s="23"/>
-      <c r="AL47" s="23"/>
-      <c r="AM47" s="23"/>
-      <c r="AN47" s="23"/>
-      <c r="AO47" s="23"/>
-      <c r="AP47" s="23"/>
-      <c r="AQ47" s="23"/>
-      <c r="AR47" s="23"/>
-      <c r="AS47" s="23"/>
-      <c r="AT47" s="23"/>
-      <c r="AU47" s="23"/>
+      <c r="L47" s="195" t="s">
+        <v>241</v>
+      </c>
       <c r="AV47" s="73"/>
     </row>
     <row r="48" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12704,25 +12523,8 @@
       <c r="C48" s="72"/>
       <c r="F48" s="73"/>
       <c r="G48" s="72"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
       <c r="K48" s="73"/>
-      <c r="L48" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ48" s="23"/>
-      <c r="AK48" s="23"/>
-      <c r="AL48" s="23"/>
-      <c r="AM48" s="23"/>
-      <c r="AN48" s="23"/>
-      <c r="AO48" s="23"/>
-      <c r="AP48" s="23"/>
-      <c r="AQ48" s="23"/>
-      <c r="AR48" s="23"/>
-      <c r="AS48" s="23"/>
-      <c r="AT48" s="23"/>
-      <c r="AU48" s="23"/>
+      <c r="L48" s="195"/>
       <c r="AV48" s="73"/>
     </row>
     <row r="49" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12730,7 +12532,10 @@
       <c r="C49" s="72"/>
       <c r="F49" s="73"/>
       <c r="G49" s="72"/>
-      <c r="L49" s="72"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="195" t="s">
+        <v>242</v>
+      </c>
       <c r="AV49" s="73"/>
     </row>
     <row r="50" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12738,261 +12543,149 @@
       <c r="C50" s="72"/>
       <c r="F50" s="73"/>
       <c r="G50" s="72"/>
-      <c r="L50" s="72" t="s">
-        <v>212</v>
+      <c r="K50" s="73"/>
+      <c r="L50" s="194" t="s">
+        <v>247</v>
       </c>
       <c r="AV50" s="73"/>
     </row>
     <row r="51" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="25"/>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="25"/>
-      <c r="AD51" s="25"/>
-      <c r="AE51" s="25"/>
-      <c r="AF51" s="25"/>
-      <c r="AG51" s="25"/>
-      <c r="AH51" s="25"/>
-      <c r="AI51" s="25"/>
-      <c r="AJ51" s="25"/>
-      <c r="AK51" s="25"/>
-      <c r="AL51" s="25"/>
-      <c r="AM51" s="25"/>
-      <c r="AN51" s="25"/>
-      <c r="AO51" s="25"/>
-      <c r="AP51" s="25"/>
-      <c r="AQ51" s="25"/>
-      <c r="AR51" s="25"/>
-      <c r="AS51" s="25"/>
-      <c r="AT51" s="25"/>
-      <c r="AU51" s="25"/>
-      <c r="AV51" s="26"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="72"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="194"/>
+      <c r="AV51" s="73"/>
     </row>
     <row r="52" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B52" s="20">
-        <v>4</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="23"/>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
-      <c r="AB52" s="21"/>
-      <c r="AC52" s="21"/>
-      <c r="AD52" s="21"/>
-      <c r="AE52" s="21"/>
-      <c r="AF52" s="21"/>
-      <c r="AG52" s="21"/>
-      <c r="AH52" s="21"/>
-      <c r="AI52" s="21"/>
-      <c r="AJ52" s="21"/>
-      <c r="AK52" s="21"/>
-      <c r="AL52" s="21"/>
-      <c r="AM52" s="21"/>
-      <c r="AN52" s="21"/>
-      <c r="AO52" s="21"/>
-      <c r="AP52" s="21"/>
-      <c r="AQ52" s="21"/>
-      <c r="AR52" s="21"/>
-      <c r="AS52" s="21"/>
-      <c r="AT52" s="21"/>
-      <c r="AU52" s="21"/>
-      <c r="AV52" s="22"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="72"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="194" t="s">
+        <v>248</v>
+      </c>
+      <c r="AV52" s="73"/>
     </row>
     <row r="53" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="23"/>
-      <c r="Z53" s="23"/>
-      <c r="AA53" s="23"/>
-      <c r="AB53" s="23"/>
-      <c r="AC53" s="23"/>
-      <c r="AD53" s="23"/>
-      <c r="AE53" s="23"/>
-      <c r="AF53" s="23"/>
-      <c r="AG53" s="23"/>
-      <c r="AH53" s="23"/>
-      <c r="AI53" s="23"/>
-      <c r="AJ53" s="23"/>
-      <c r="AK53" s="23"/>
-      <c r="AL53" s="23"/>
-      <c r="AM53" s="23"/>
-      <c r="AN53" s="23"/>
-      <c r="AO53" s="23"/>
-      <c r="AP53" s="23"/>
-      <c r="AQ53" s="23"/>
-      <c r="AR53" s="23"/>
-      <c r="AS53" s="23"/>
-      <c r="AT53" s="23"/>
-      <c r="AU53" s="23"/>
-      <c r="AV53" s="73"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AD53" s="25"/>
+      <c r="AE53" s="25"/>
+      <c r="AF53" s="25"/>
+      <c r="AG53" s="25"/>
+      <c r="AH53" s="25"/>
+      <c r="AI53" s="25"/>
+      <c r="AJ53" s="25"/>
+      <c r="AK53" s="25"/>
+      <c r="AL53" s="25"/>
+      <c r="AM53" s="25"/>
+      <c r="AN53" s="25"/>
+      <c r="AO53" s="25"/>
+      <c r="AP53" s="25"/>
+      <c r="AQ53" s="25"/>
+      <c r="AR53" s="25"/>
+      <c r="AS53" s="25"/>
+      <c r="AT53" s="25"/>
+      <c r="AU53" s="25"/>
+      <c r="AV53" s="26"/>
     </row>
     <row r="54" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="F54" s="73"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="23"/>
-      <c r="AD54" s="23"/>
-      <c r="AE54" s="23"/>
-      <c r="AF54" s="23"/>
-      <c r="AG54" s="23"/>
-      <c r="AH54" s="23"/>
-      <c r="AI54" s="23"/>
-      <c r="AJ54" s="23"/>
-      <c r="AK54" s="23"/>
-      <c r="AL54" s="23"/>
-      <c r="AM54" s="23"/>
-      <c r="AN54" s="23"/>
-      <c r="AO54" s="23"/>
-      <c r="AP54" s="23"/>
-      <c r="AQ54" s="23"/>
-      <c r="AR54" s="23"/>
-      <c r="AS54" s="23"/>
-      <c r="AT54" s="23"/>
-      <c r="AU54" s="23"/>
-      <c r="AV54" s="73"/>
+      <c r="B54" s="20">
+        <v>5</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="193" t="s">
+        <v>245</v>
+      </c>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21"/>
+      <c r="AC54" s="21"/>
+      <c r="AD54" s="21"/>
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="21"/>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="21"/>
+      <c r="AJ54" s="21"/>
+      <c r="AK54" s="21"/>
+      <c r="AL54" s="21"/>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="21"/>
+      <c r="AO54" s="21"/>
+      <c r="AP54" s="21"/>
+      <c r="AQ54" s="21"/>
+      <c r="AR54" s="21"/>
+      <c r="AS54" s="21"/>
+      <c r="AT54" s="21"/>
+      <c r="AU54" s="21"/>
+      <c r="AV54" s="22"/>
     </row>
     <row r="55" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B55" s="72"/>
       <c r="C55" s="72"/>
       <c r="F55" s="73"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
+      <c r="G55" s="72" t="s">
+        <v>100</v>
+      </c>
       <c r="K55" s="73"/>
-      <c r="L55" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="23"/>
-      <c r="AC55" s="23"/>
-      <c r="AD55" s="23"/>
-      <c r="AE55" s="23"/>
-      <c r="AF55" s="23"/>
-      <c r="AG55" s="23"/>
-      <c r="AH55" s="23"/>
-      <c r="AI55" s="23"/>
-      <c r="AJ55" s="23"/>
-      <c r="AK55" s="23"/>
-      <c r="AL55" s="23"/>
-      <c r="AM55" s="23"/>
-      <c r="AN55" s="23"/>
-      <c r="AO55" s="23"/>
-      <c r="AP55" s="23"/>
-      <c r="AQ55" s="23"/>
-      <c r="AR55" s="23"/>
-      <c r="AS55" s="23"/>
-      <c r="AT55" s="23"/>
-      <c r="AU55" s="23"/>
+      <c r="L55" s="195" t="s">
+        <v>249</v>
+      </c>
       <c r="AV55" s="73"/>
     </row>
     <row r="56" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -13000,48 +12693,8 @@
       <c r="C56" s="72"/>
       <c r="F56" s="73"/>
       <c r="G56" s="72"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
       <c r="K56" s="73"/>
-      <c r="L56" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="23"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="23"/>
-      <c r="AC56" s="23"/>
-      <c r="AD56" s="23"/>
-      <c r="AE56" s="23"/>
-      <c r="AF56" s="23"/>
-      <c r="AG56" s="23"/>
-      <c r="AH56" s="23"/>
-      <c r="AI56" s="23"/>
-      <c r="AJ56" s="23"/>
-      <c r="AK56" s="23"/>
-      <c r="AL56" s="23"/>
-      <c r="AM56" s="23"/>
-      <c r="AN56" s="23"/>
-      <c r="AO56" s="23"/>
-      <c r="AP56" s="23"/>
-      <c r="AQ56" s="23"/>
-      <c r="AR56" s="23"/>
-      <c r="AS56" s="23"/>
-      <c r="AT56" s="23"/>
-      <c r="AU56" s="23"/>
+      <c r="L56" s="194"/>
       <c r="AV56" s="73"/>
     </row>
     <row r="57" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -13049,46 +12702,10 @@
       <c r="C57" s="72"/>
       <c r="F57" s="73"/>
       <c r="G57" s="72"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
       <c r="K57" s="73"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="23"/>
-      <c r="X57" s="23"/>
-      <c r="Y57" s="23"/>
-      <c r="Z57" s="23"/>
-      <c r="AA57" s="23"/>
-      <c r="AB57" s="23"/>
-      <c r="AC57" s="23"/>
-      <c r="AD57" s="23"/>
-      <c r="AE57" s="23"/>
-      <c r="AF57" s="23"/>
-      <c r="AG57" s="23"/>
-      <c r="AH57" s="23"/>
-      <c r="AI57" s="23"/>
-      <c r="AJ57" s="23"/>
-      <c r="AK57" s="23"/>
-      <c r="AL57" s="23"/>
-      <c r="AM57" s="23"/>
-      <c r="AN57" s="23"/>
-      <c r="AO57" s="23"/>
-      <c r="AP57" s="23"/>
-      <c r="AQ57" s="23"/>
-      <c r="AR57" s="23"/>
-      <c r="AS57" s="23"/>
-      <c r="AT57" s="23"/>
-      <c r="AU57" s="23"/>
+      <c r="L57" s="195" t="s">
+        <v>242</v>
+      </c>
       <c r="AV57" s="73"/>
     </row>
     <row r="58" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -13096,48 +12713,10 @@
       <c r="C58" s="72"/>
       <c r="F58" s="73"/>
       <c r="G58" s="72"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
       <c r="K58" s="73"/>
-      <c r="L58" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23"/>
-      <c r="W58" s="23"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="23"/>
-      <c r="Z58" s="23"/>
-      <c r="AA58" s="23"/>
-      <c r="AB58" s="23"/>
-      <c r="AC58" s="23"/>
-      <c r="AD58" s="23"/>
-      <c r="AE58" s="23"/>
-      <c r="AF58" s="23"/>
-      <c r="AG58" s="23"/>
-      <c r="AH58" s="23"/>
-      <c r="AI58" s="23"/>
-      <c r="AJ58" s="23"/>
-      <c r="AK58" s="23"/>
-      <c r="AL58" s="23"/>
-      <c r="AM58" s="23"/>
-      <c r="AN58" s="23"/>
-      <c r="AO58" s="23"/>
-      <c r="AP58" s="23"/>
-      <c r="AQ58" s="23"/>
-      <c r="AR58" s="23"/>
-      <c r="AS58" s="23"/>
-      <c r="AT58" s="23"/>
-      <c r="AU58" s="23"/>
+      <c r="L58" s="194" t="s">
+        <v>146</v>
+      </c>
       <c r="AV58" s="73"/>
     </row>
     <row r="59" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -13145,561 +12724,651 @@
       <c r="C59" s="72"/>
       <c r="F59" s="73"/>
       <c r="G59" s="72"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
       <c r="K59" s="73"/>
-      <c r="L59" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="23"/>
-      <c r="W59" s="23"/>
-      <c r="X59" s="23"/>
-      <c r="Y59" s="23"/>
-      <c r="Z59" s="23"/>
-      <c r="AA59" s="23"/>
-      <c r="AB59" s="23"/>
-      <c r="AC59" s="23"/>
-      <c r="AD59" s="23"/>
-      <c r="AE59" s="23"/>
-      <c r="AF59" s="23"/>
-      <c r="AG59" s="23"/>
-      <c r="AH59" s="23"/>
-      <c r="AI59" s="23"/>
-      <c r="AJ59" s="23"/>
-      <c r="AK59" s="23"/>
-      <c r="AL59" s="23"/>
-      <c r="AM59" s="23"/>
-      <c r="AN59" s="23"/>
-      <c r="AO59" s="23"/>
-      <c r="AP59" s="23"/>
-      <c r="AQ59" s="23"/>
-      <c r="AR59" s="23"/>
-      <c r="AS59" s="23"/>
-      <c r="AT59" s="23"/>
-      <c r="AU59" s="23"/>
+      <c r="L59" s="194"/>
       <c r="AV59" s="73"/>
     </row>
     <row r="60" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="F60" s="73"/>
       <c r="G60" s="72"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
       <c r="K60" s="73"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="25"/>
-      <c r="V60" s="25"/>
-      <c r="W60" s="25"/>
-      <c r="X60" s="25"/>
-      <c r="Y60" s="25"/>
-      <c r="Z60" s="25"/>
-      <c r="AA60" s="25"/>
-      <c r="AB60" s="25"/>
-      <c r="AC60" s="25"/>
-      <c r="AD60" s="25"/>
-      <c r="AE60" s="25"/>
-      <c r="AF60" s="25"/>
-      <c r="AG60" s="25"/>
-      <c r="AH60" s="25"/>
-      <c r="AI60" s="25"/>
-      <c r="AJ60" s="25"/>
-      <c r="AK60" s="25"/>
-      <c r="AL60" s="25"/>
-      <c r="AM60" s="25"/>
-      <c r="AN60" s="25"/>
-      <c r="AO60" s="25"/>
-      <c r="AP60" s="25"/>
-      <c r="AQ60" s="25"/>
-      <c r="AR60" s="25"/>
-      <c r="AS60" s="25"/>
-      <c r="AT60" s="25"/>
-      <c r="AU60" s="25"/>
-      <c r="AV60" s="26"/>
+      <c r="L60" s="194" t="s">
+        <v>250</v>
+      </c>
+      <c r="AV60" s="73"/>
     </row>
     <row r="61" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B61" s="20">
-        <v>5</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
-      <c r="T61" s="21"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="21"/>
-      <c r="X61" s="21"/>
-      <c r="Y61" s="21"/>
-      <c r="Z61" s="21"/>
-      <c r="AA61" s="21"/>
-      <c r="AB61" s="21"/>
-      <c r="AC61" s="21"/>
-      <c r="AD61" s="21"/>
-      <c r="AE61" s="21"/>
-      <c r="AF61" s="21"/>
-      <c r="AG61" s="21"/>
-      <c r="AH61" s="21"/>
-      <c r="AI61" s="21"/>
-      <c r="AJ61" s="21"/>
-      <c r="AK61" s="21"/>
-      <c r="AL61" s="21"/>
-      <c r="AM61" s="21"/>
-      <c r="AN61" s="21"/>
-      <c r="AO61" s="21"/>
-      <c r="AP61" s="21"/>
-      <c r="AQ61" s="21"/>
-      <c r="AR61" s="21"/>
-      <c r="AS61" s="21"/>
-      <c r="AT61" s="21"/>
-      <c r="AU61" s="21"/>
-      <c r="AV61" s="22"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+      <c r="AA61" s="25"/>
+      <c r="AB61" s="25"/>
+      <c r="AC61" s="25"/>
+      <c r="AD61" s="25"/>
+      <c r="AE61" s="25"/>
+      <c r="AF61" s="25"/>
+      <c r="AG61" s="25"/>
+      <c r="AH61" s="25"/>
+      <c r="AI61" s="25"/>
+      <c r="AJ61" s="25"/>
+      <c r="AK61" s="25"/>
+      <c r="AL61" s="25"/>
+      <c r="AM61" s="25"/>
+      <c r="AN61" s="25"/>
+      <c r="AO61" s="25"/>
+      <c r="AP61" s="25"/>
+      <c r="AQ61" s="25"/>
+      <c r="AR61" s="25"/>
+      <c r="AS61" s="25"/>
+      <c r="AT61" s="25"/>
+      <c r="AU61" s="25"/>
+      <c r="AV61" s="26"/>
     </row>
     <row r="62" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="F62" s="23"/>
+      <c r="B62" s="20">
+        <v>6</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
       <c r="G62" s="72" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
       <c r="K62" s="73"/>
-      <c r="L62" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="AV62" s="73"/>
+      <c r="L62" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="21"/>
+      <c r="AB62" s="21"/>
+      <c r="AC62" s="21"/>
+      <c r="AD62" s="21"/>
+      <c r="AE62" s="21"/>
+      <c r="AF62" s="21"/>
+      <c r="AG62" s="21"/>
+      <c r="AH62" s="21"/>
+      <c r="AI62" s="21"/>
+      <c r="AJ62" s="21"/>
+      <c r="AK62" s="21"/>
+      <c r="AL62" s="21"/>
+      <c r="AM62" s="21"/>
+      <c r="AN62" s="21"/>
+      <c r="AO62" s="21"/>
+      <c r="AP62" s="21"/>
+      <c r="AQ62" s="21"/>
+      <c r="AR62" s="21"/>
+      <c r="AS62" s="21"/>
+      <c r="AT62" s="21"/>
+      <c r="AU62" s="21"/>
+      <c r="AV62" s="22"/>
     </row>
     <row r="63" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B63" s="72"/>
       <c r="C63" s="72"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="72"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="72" t="s">
+        <v>100</v>
+      </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
       <c r="K63" s="73"/>
-      <c r="L63" s="23"/>
+      <c r="L63" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="23"/>
+      <c r="Z63" s="23"/>
+      <c r="AA63" s="23"/>
+      <c r="AB63" s="23"/>
+      <c r="AC63" s="23"/>
+      <c r="AD63" s="23"/>
+      <c r="AE63" s="23"/>
+      <c r="AF63" s="23"/>
+      <c r="AG63" s="23"/>
+      <c r="AH63" s="23"/>
+      <c r="AI63" s="23"/>
+      <c r="AJ63" s="23"/>
+      <c r="AK63" s="23"/>
+      <c r="AL63" s="23"/>
+      <c r="AM63" s="23"/>
+      <c r="AN63" s="23"/>
+      <c r="AO63" s="23"/>
+      <c r="AP63" s="23"/>
+      <c r="AQ63" s="23"/>
+      <c r="AR63" s="23"/>
+      <c r="AS63" s="23"/>
+      <c r="AT63" s="23"/>
+      <c r="AU63" s="23"/>
       <c r="AV63" s="73"/>
     </row>
     <row r="64" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="AJ64" s="23"/>
-      <c r="AK64" s="23"/>
-      <c r="AL64" s="23"/>
-      <c r="AM64" s="23"/>
-      <c r="AN64" s="23"/>
-      <c r="AO64" s="23"/>
-      <c r="AP64" s="23"/>
-      <c r="AQ64" s="23"/>
-      <c r="AR64" s="23"/>
-      <c r="AS64" s="23"/>
-      <c r="AT64" s="23"/>
-      <c r="AU64" s="23"/>
-      <c r="AV64" s="73"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+      <c r="AA64" s="25"/>
+      <c r="AB64" s="25"/>
+      <c r="AC64" s="25"/>
+      <c r="AD64" s="25"/>
+      <c r="AE64" s="25"/>
+      <c r="AF64" s="25"/>
+      <c r="AG64" s="25"/>
+      <c r="AH64" s="25"/>
+      <c r="AI64" s="25"/>
+      <c r="AJ64" s="25"/>
+      <c r="AK64" s="25"/>
+      <c r="AL64" s="25"/>
+      <c r="AM64" s="25"/>
+      <c r="AN64" s="25"/>
+      <c r="AO64" s="25"/>
+      <c r="AP64" s="25"/>
+      <c r="AQ64" s="25"/>
+      <c r="AR64" s="25"/>
+      <c r="AS64" s="25"/>
+      <c r="AT64" s="25"/>
+      <c r="AU64" s="25"/>
+      <c r="AV64" s="26"/>
     </row>
     <row r="65" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="73"/>
-      <c r="L65" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ65" s="23"/>
-      <c r="AK65" s="23"/>
-      <c r="AL65" s="23"/>
-      <c r="AM65" s="23"/>
-      <c r="AN65" s="23"/>
-      <c r="AO65" s="23"/>
-      <c r="AP65" s="23"/>
-      <c r="AQ65" s="23"/>
-      <c r="AR65" s="23"/>
-      <c r="AS65" s="23"/>
-      <c r="AT65" s="23"/>
-      <c r="AU65" s="23"/>
-      <c r="AV65" s="73"/>
+      <c r="B65" s="20">
+        <v>7</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="21"/>
+      <c r="AC65" s="21"/>
+      <c r="AD65" s="21"/>
+      <c r="AE65" s="21"/>
+      <c r="AF65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AH65" s="21"/>
+      <c r="AI65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AK65" s="21"/>
+      <c r="AL65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AN65" s="21"/>
+      <c r="AO65" s="21"/>
+      <c r="AP65" s="21"/>
+      <c r="AQ65" s="21"/>
+      <c r="AR65" s="21"/>
+      <c r="AS65" s="21"/>
+      <c r="AT65" s="21"/>
+      <c r="AU65" s="21"/>
+      <c r="AV65" s="22"/>
     </row>
     <row r="66" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B66" s="72"/>
       <c r="C66" s="72"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="23"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="K66" s="73"/>
+      <c r="L66" s="72" t="s">
+        <v>135</v>
+      </c>
       <c r="AV66" s="73"/>
     </row>
     <row r="67" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B67" s="20">
-        <v>6</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="F67" s="73"/>
       <c r="K67" s="73"/>
-      <c r="L67" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
-      <c r="AA67" s="21"/>
-      <c r="AB67" s="21"/>
-      <c r="AC67" s="21"/>
-      <c r="AD67" s="21"/>
-      <c r="AE67" s="21"/>
-      <c r="AF67" s="21"/>
-      <c r="AG67" s="21"/>
-      <c r="AH67" s="21"/>
-      <c r="AI67" s="21"/>
-      <c r="AJ67" s="21"/>
-      <c r="AK67" s="21"/>
-      <c r="AL67" s="21"/>
-      <c r="AM67" s="21"/>
-      <c r="AN67" s="21"/>
-      <c r="AO67" s="21"/>
-      <c r="AP67" s="21"/>
-      <c r="AQ67" s="21"/>
-      <c r="AR67" s="21"/>
-      <c r="AS67" s="21"/>
-      <c r="AT67" s="21"/>
-      <c r="AU67" s="21"/>
-      <c r="AV67" s="22"/>
+      <c r="L67" s="72"/>
+      <c r="AV67" s="73"/>
     </row>
     <row r="68" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B68" s="72"/>
       <c r="C68" s="72"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
       <c r="F68" s="73"/>
-      <c r="G68" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
+      <c r="G68" s="72"/>
       <c r="K68" s="73"/>
       <c r="L68" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="23"/>
-      <c r="Q68" s="23"/>
-      <c r="R68" s="23"/>
-      <c r="S68" s="23"/>
-      <c r="T68" s="23"/>
-      <c r="U68" s="23"/>
-      <c r="V68" s="23"/>
-      <c r="W68" s="23"/>
-      <c r="X68" s="23"/>
-      <c r="Y68" s="23"/>
-      <c r="Z68" s="23"/>
-      <c r="AA68" s="23"/>
-      <c r="AB68" s="23"/>
-      <c r="AC68" s="23"/>
-      <c r="AD68" s="23"/>
-      <c r="AE68" s="23"/>
-      <c r="AF68" s="23"/>
-      <c r="AG68" s="23"/>
-      <c r="AH68" s="23"/>
-      <c r="AI68" s="23"/>
-      <c r="AJ68" s="23"/>
-      <c r="AK68" s="23"/>
-      <c r="AL68" s="23"/>
-      <c r="AM68" s="23"/>
-      <c r="AN68" s="23"/>
-      <c r="AO68" s="23"/>
-      <c r="AP68" s="23"/>
-      <c r="AQ68" s="23"/>
-      <c r="AR68" s="23"/>
-      <c r="AS68" s="23"/>
-      <c r="AT68" s="23"/>
-      <c r="AU68" s="23"/>
+        <v>133</v>
+      </c>
       <c r="AV68" s="73"/>
     </row>
     <row r="69" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="25"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="25"/>
-      <c r="U69" s="25"/>
-      <c r="V69" s="25"/>
-      <c r="W69" s="25"/>
-      <c r="X69" s="25"/>
-      <c r="Y69" s="25"/>
-      <c r="Z69" s="25"/>
-      <c r="AA69" s="25"/>
-      <c r="AB69" s="25"/>
-      <c r="AC69" s="25"/>
-      <c r="AD69" s="25"/>
-      <c r="AE69" s="25"/>
-      <c r="AF69" s="25"/>
-      <c r="AG69" s="25"/>
-      <c r="AH69" s="25"/>
-      <c r="AI69" s="25"/>
-      <c r="AJ69" s="25"/>
-      <c r="AK69" s="25"/>
-      <c r="AL69" s="25"/>
-      <c r="AM69" s="25"/>
-      <c r="AN69" s="25"/>
-      <c r="AO69" s="25"/>
-      <c r="AP69" s="25"/>
-      <c r="AQ69" s="25"/>
-      <c r="AR69" s="25"/>
-      <c r="AS69" s="25"/>
-      <c r="AT69" s="25"/>
-      <c r="AU69" s="25"/>
-      <c r="AV69" s="26"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="72"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV69" s="73"/>
     </row>
     <row r="70" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B70" s="20">
-        <v>7</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="21"/>
-      <c r="U70" s="21"/>
-      <c r="V70" s="21"/>
-      <c r="W70" s="21"/>
-      <c r="X70" s="21"/>
-      <c r="Y70" s="21"/>
-      <c r="Z70" s="21"/>
-      <c r="AA70" s="21"/>
-      <c r="AB70" s="21"/>
-      <c r="AC70" s="21"/>
-      <c r="AD70" s="21"/>
-      <c r="AE70" s="21"/>
-      <c r="AF70" s="21"/>
-      <c r="AG70" s="21"/>
-      <c r="AH70" s="21"/>
-      <c r="AI70" s="21"/>
-      <c r="AJ70" s="21"/>
-      <c r="AK70" s="21"/>
-      <c r="AL70" s="21"/>
-      <c r="AM70" s="21"/>
-      <c r="AN70" s="21"/>
-      <c r="AO70" s="21"/>
-      <c r="AP70" s="21"/>
-      <c r="AQ70" s="21"/>
-      <c r="AR70" s="21"/>
-      <c r="AS70" s="21"/>
-      <c r="AT70" s="21"/>
-      <c r="AU70" s="21"/>
-      <c r="AV70" s="22"/>
-    </row>
-    <row r="71" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="K71" s="73"/>
-      <c r="L71" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="AV71" s="73"/>
-    </row>
-    <row r="72" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
-      <c r="F72" s="73"/>
-      <c r="K72" s="73"/>
-      <c r="L72" s="72"/>
-      <c r="AV72" s="73"/>
-    </row>
-    <row r="73" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="72"/>
-      <c r="K73" s="73"/>
-      <c r="L73" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV73" s="73"/>
-    </row>
-    <row r="74" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="72"/>
-      <c r="K74" s="73"/>
-      <c r="L74" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV74" s="73"/>
-    </row>
-    <row r="75" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="25"/>
-      <c r="S75" s="25"/>
-      <c r="T75" s="25"/>
-      <c r="U75" s="25"/>
-      <c r="V75" s="25"/>
-      <c r="W75" s="25"/>
-      <c r="X75" s="25"/>
-      <c r="Y75" s="25"/>
-      <c r="Z75" s="25"/>
-      <c r="AA75" s="25"/>
-      <c r="AB75" s="25"/>
-      <c r="AC75" s="25"/>
-      <c r="AD75" s="25"/>
-      <c r="AE75" s="25"/>
-      <c r="AF75" s="25"/>
-      <c r="AG75" s="25"/>
-      <c r="AH75" s="25"/>
-      <c r="AI75" s="25"/>
-      <c r="AJ75" s="25"/>
-      <c r="AK75" s="25"/>
-      <c r="AL75" s="25"/>
-      <c r="AM75" s="25"/>
-      <c r="AN75" s="25"/>
-      <c r="AO75" s="25"/>
-      <c r="AP75" s="25"/>
-      <c r="AQ75" s="25"/>
-      <c r="AR75" s="25"/>
-      <c r="AS75" s="25"/>
-      <c r="AT75" s="25"/>
-      <c r="AU75" s="25"/>
-      <c r="AV75" s="26"/>
-    </row>
-    <row r="76" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="25"/>
+      <c r="X70" s="25"/>
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="25"/>
+      <c r="AB70" s="25"/>
+      <c r="AC70" s="25"/>
+      <c r="AD70" s="25"/>
+      <c r="AE70" s="25"/>
+      <c r="AF70" s="25"/>
+      <c r="AG70" s="25"/>
+      <c r="AH70" s="25"/>
+      <c r="AI70" s="25"/>
+      <c r="AJ70" s="25"/>
+      <c r="AK70" s="25"/>
+      <c r="AL70" s="25"/>
+      <c r="AM70" s="25"/>
+      <c r="AN70" s="25"/>
+      <c r="AO70" s="25"/>
+      <c r="AP70" s="25"/>
+      <c r="AQ70" s="25"/>
+      <c r="AR70" s="25"/>
+      <c r="AS70" s="25"/>
+      <c r="AT70" s="25"/>
+      <c r="AU70" s="25"/>
+      <c r="AV70" s="26"/>
+    </row>
+    <row r="71" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A74" s="56"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="56"/>
+      <c r="P74" s="56"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="56"/>
+      <c r="T74" s="56"/>
+      <c r="U74" s="56"/>
+      <c r="V74" s="56"/>
+      <c r="W74" s="56"/>
+      <c r="X74" s="56"/>
+      <c r="Y74" s="56"/>
+      <c r="Z74" s="56"/>
+      <c r="AA74" s="56"/>
+      <c r="AB74" s="56"/>
+      <c r="AC74" s="56"/>
+      <c r="AD74" s="56"/>
+      <c r="AE74" s="56"/>
+      <c r="AF74" s="56"/>
+      <c r="AG74" s="56"/>
+      <c r="AH74" s="56"/>
+      <c r="AI74" s="56"/>
+      <c r="AJ74" s="56"/>
+      <c r="AK74" s="56"/>
+      <c r="AL74" s="56"/>
+      <c r="AM74" s="56"/>
+      <c r="AN74" s="56"/>
+      <c r="AO74" s="56"/>
+      <c r="AP74" s="56"/>
+      <c r="AQ74" s="56"/>
+      <c r="AR74" s="56"/>
+      <c r="AS74" s="56"/>
+      <c r="AT74" s="56"/>
+      <c r="AU74" s="56"/>
+      <c r="AV74" s="56"/>
+      <c r="AW74" s="56"/>
+      <c r="AX74" s="56"/>
+      <c r="AY74" s="56"/>
+      <c r="AZ74" s="56"/>
+    </row>
+    <row r="75" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A75" s="56"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="56"/>
+      <c r="T75" s="56"/>
+      <c r="U75" s="56"/>
+      <c r="V75" s="56"/>
+      <c r="W75" s="56"/>
+      <c r="X75" s="56"/>
+      <c r="Y75" s="56"/>
+      <c r="Z75" s="56"/>
+      <c r="AA75" s="56"/>
+      <c r="AB75" s="56"/>
+      <c r="AC75" s="56"/>
+      <c r="AD75" s="56"/>
+      <c r="AE75" s="56"/>
+      <c r="AF75" s="56"/>
+      <c r="AG75" s="56"/>
+      <c r="AH75" s="56"/>
+      <c r="AI75" s="56"/>
+      <c r="AJ75" s="56"/>
+      <c r="AK75" s="56"/>
+      <c r="AL75" s="56"/>
+      <c r="AM75" s="56"/>
+      <c r="AN75" s="56"/>
+      <c r="AO75" s="56"/>
+      <c r="AP75" s="56"/>
+      <c r="AQ75" s="56"/>
+      <c r="AR75" s="56"/>
+      <c r="AS75" s="56"/>
+      <c r="AT75" s="56"/>
+      <c r="AU75" s="56"/>
+      <c r="AV75" s="56"/>
+      <c r="AW75" s="56"/>
+      <c r="AX75" s="56"/>
+      <c r="AY75" s="56"/>
+      <c r="AZ75" s="56"/>
+    </row>
+    <row r="76" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A76" s="56"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="56"/>
+      <c r="S76" s="56"/>
+      <c r="T76" s="56"/>
+      <c r="U76" s="56"/>
+      <c r="V76" s="56"/>
+      <c r="W76" s="56"/>
+      <c r="X76" s="56"/>
+      <c r="Y76" s="56"/>
+      <c r="Z76" s="56"/>
+      <c r="AA76" s="56"/>
+      <c r="AB76" s="56"/>
+      <c r="AC76" s="56"/>
+      <c r="AD76" s="56"/>
+      <c r="AE76" s="56"/>
+      <c r="AF76" s="56"/>
+      <c r="AG76" s="56"/>
+      <c r="AH76" s="56"/>
+      <c r="AI76" s="56"/>
+      <c r="AJ76" s="56"/>
+      <c r="AK76" s="56"/>
+      <c r="AL76" s="56"/>
+      <c r="AM76" s="56"/>
+      <c r="AN76" s="56"/>
+      <c r="AO76" s="56"/>
+      <c r="AP76" s="56"/>
+      <c r="AQ76" s="56"/>
+      <c r="AR76" s="56"/>
+      <c r="AS76" s="56"/>
+      <c r="AT76" s="56"/>
+      <c r="AU76" s="56"/>
+      <c r="AV76" s="56"/>
+      <c r="AW76" s="56"/>
+      <c r="AX76" s="56"/>
+      <c r="AY76" s="56"/>
+      <c r="AZ76" s="56"/>
+    </row>
+    <row r="77" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A77" s="56"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="56"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="56"/>
+      <c r="T77" s="56"/>
+      <c r="U77" s="56"/>
+      <c r="V77" s="56"/>
+      <c r="W77" s="56"/>
+      <c r="X77" s="56"/>
+      <c r="Y77" s="56"/>
+      <c r="Z77" s="56"/>
+      <c r="AA77" s="56"/>
+      <c r="AB77" s="56"/>
+      <c r="AC77" s="56"/>
+      <c r="AD77" s="56"/>
+      <c r="AE77" s="56"/>
+      <c r="AF77" s="56"/>
+      <c r="AG77" s="56"/>
+      <c r="AH77" s="56"/>
+      <c r="AI77" s="56"/>
+      <c r="AJ77" s="56"/>
+      <c r="AK77" s="56"/>
+      <c r="AL77" s="56"/>
+      <c r="AM77" s="56"/>
+      <c r="AN77" s="56"/>
+      <c r="AO77" s="56"/>
+      <c r="AP77" s="56"/>
+      <c r="AQ77" s="56"/>
+      <c r="AR77" s="56"/>
+      <c r="AS77" s="56"/>
+      <c r="AT77" s="56"/>
+      <c r="AU77" s="56"/>
+      <c r="AV77" s="56"/>
+      <c r="AW77" s="56"/>
+      <c r="AX77" s="56"/>
+      <c r="AY77" s="56"/>
+      <c r="AZ77" s="56"/>
+    </row>
+    <row r="78" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A78" s="56"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="56"/>
+      <c r="P78" s="56"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="56"/>
+      <c r="T78" s="56"/>
+      <c r="U78" s="56"/>
+      <c r="V78" s="56"/>
+      <c r="W78" s="56"/>
+      <c r="X78" s="56"/>
+      <c r="Y78" s="56"/>
+      <c r="Z78" s="56"/>
+      <c r="AA78" s="56"/>
+      <c r="AB78" s="56"/>
+      <c r="AC78" s="56"/>
+      <c r="AD78" s="56"/>
+      <c r="AE78" s="56"/>
+      <c r="AF78" s="56"/>
+      <c r="AG78" s="56"/>
+      <c r="AH78" s="56"/>
+      <c r="AI78" s="56"/>
+      <c r="AJ78" s="56"/>
+      <c r="AK78" s="56"/>
+      <c r="AL78" s="56"/>
+      <c r="AM78" s="56"/>
+      <c r="AN78" s="56"/>
+      <c r="AO78" s="56"/>
+      <c r="AP78" s="56"/>
+      <c r="AQ78" s="56"/>
+      <c r="AR78" s="56"/>
+      <c r="AS78" s="56"/>
+      <c r="AT78" s="56"/>
+      <c r="AU78" s="56"/>
+      <c r="AV78" s="56"/>
+      <c r="AW78" s="56"/>
+      <c r="AX78" s="56"/>
+      <c r="AY78" s="56"/>
+      <c r="AZ78" s="56"/>
+    </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
@@ -20612,276 +20281,6 @@
       <c r="AY206" s="56"/>
       <c r="AZ206" s="56"/>
     </row>
-    <row r="207" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A207" s="56"/>
-      <c r="B207" s="56"/>
-      <c r="C207" s="56"/>
-      <c r="D207" s="56"/>
-      <c r="E207" s="56"/>
-      <c r="F207" s="56"/>
-      <c r="G207" s="56"/>
-      <c r="H207" s="56"/>
-      <c r="I207" s="56"/>
-      <c r="J207" s="56"/>
-      <c r="K207" s="56"/>
-      <c r="L207" s="56"/>
-      <c r="M207" s="56"/>
-      <c r="N207" s="56"/>
-      <c r="O207" s="56"/>
-      <c r="P207" s="56"/>
-      <c r="Q207" s="56"/>
-      <c r="R207" s="56"/>
-      <c r="S207" s="56"/>
-      <c r="T207" s="56"/>
-      <c r="U207" s="56"/>
-      <c r="V207" s="56"/>
-      <c r="W207" s="56"/>
-      <c r="X207" s="56"/>
-      <c r="Y207" s="56"/>
-      <c r="Z207" s="56"/>
-      <c r="AA207" s="56"/>
-      <c r="AB207" s="56"/>
-      <c r="AC207" s="56"/>
-      <c r="AD207" s="56"/>
-      <c r="AE207" s="56"/>
-      <c r="AF207" s="56"/>
-      <c r="AG207" s="56"/>
-      <c r="AH207" s="56"/>
-      <c r="AI207" s="56"/>
-      <c r="AJ207" s="56"/>
-      <c r="AK207" s="56"/>
-      <c r="AL207" s="56"/>
-      <c r="AM207" s="56"/>
-      <c r="AN207" s="56"/>
-      <c r="AO207" s="56"/>
-      <c r="AP207" s="56"/>
-      <c r="AQ207" s="56"/>
-      <c r="AR207" s="56"/>
-      <c r="AS207" s="56"/>
-      <c r="AT207" s="56"/>
-      <c r="AU207" s="56"/>
-      <c r="AV207" s="56"/>
-      <c r="AW207" s="56"/>
-      <c r="AX207" s="56"/>
-      <c r="AY207" s="56"/>
-      <c r="AZ207" s="56"/>
-    </row>
-    <row r="208" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A208" s="56"/>
-      <c r="B208" s="56"/>
-      <c r="C208" s="56"/>
-      <c r="D208" s="56"/>
-      <c r="E208" s="56"/>
-      <c r="F208" s="56"/>
-      <c r="G208" s="56"/>
-      <c r="H208" s="56"/>
-      <c r="I208" s="56"/>
-      <c r="J208" s="56"/>
-      <c r="K208" s="56"/>
-      <c r="L208" s="56"/>
-      <c r="M208" s="56"/>
-      <c r="N208" s="56"/>
-      <c r="O208" s="56"/>
-      <c r="P208" s="56"/>
-      <c r="Q208" s="56"/>
-      <c r="R208" s="56"/>
-      <c r="S208" s="56"/>
-      <c r="T208" s="56"/>
-      <c r="U208" s="56"/>
-      <c r="V208" s="56"/>
-      <c r="W208" s="56"/>
-      <c r="X208" s="56"/>
-      <c r="Y208" s="56"/>
-      <c r="Z208" s="56"/>
-      <c r="AA208" s="56"/>
-      <c r="AB208" s="56"/>
-      <c r="AC208" s="56"/>
-      <c r="AD208" s="56"/>
-      <c r="AE208" s="56"/>
-      <c r="AF208" s="56"/>
-      <c r="AG208" s="56"/>
-      <c r="AH208" s="56"/>
-      <c r="AI208" s="56"/>
-      <c r="AJ208" s="56"/>
-      <c r="AK208" s="56"/>
-      <c r="AL208" s="56"/>
-      <c r="AM208" s="56"/>
-      <c r="AN208" s="56"/>
-      <c r="AO208" s="56"/>
-      <c r="AP208" s="56"/>
-      <c r="AQ208" s="56"/>
-      <c r="AR208" s="56"/>
-      <c r="AS208" s="56"/>
-      <c r="AT208" s="56"/>
-      <c r="AU208" s="56"/>
-      <c r="AV208" s="56"/>
-      <c r="AW208" s="56"/>
-      <c r="AX208" s="56"/>
-      <c r="AY208" s="56"/>
-      <c r="AZ208" s="56"/>
-    </row>
-    <row r="209" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A209" s="56"/>
-      <c r="B209" s="56"/>
-      <c r="C209" s="56"/>
-      <c r="D209" s="56"/>
-      <c r="E209" s="56"/>
-      <c r="F209" s="56"/>
-      <c r="G209" s="56"/>
-      <c r="H209" s="56"/>
-      <c r="I209" s="56"/>
-      <c r="J209" s="56"/>
-      <c r="K209" s="56"/>
-      <c r="L209" s="56"/>
-      <c r="M209" s="56"/>
-      <c r="N209" s="56"/>
-      <c r="O209" s="56"/>
-      <c r="P209" s="56"/>
-      <c r="Q209" s="56"/>
-      <c r="R209" s="56"/>
-      <c r="S209" s="56"/>
-      <c r="T209" s="56"/>
-      <c r="U209" s="56"/>
-      <c r="V209" s="56"/>
-      <c r="W209" s="56"/>
-      <c r="X209" s="56"/>
-      <c r="Y209" s="56"/>
-      <c r="Z209" s="56"/>
-      <c r="AA209" s="56"/>
-      <c r="AB209" s="56"/>
-      <c r="AC209" s="56"/>
-      <c r="AD209" s="56"/>
-      <c r="AE209" s="56"/>
-      <c r="AF209" s="56"/>
-      <c r="AG209" s="56"/>
-      <c r="AH209" s="56"/>
-      <c r="AI209" s="56"/>
-      <c r="AJ209" s="56"/>
-      <c r="AK209" s="56"/>
-      <c r="AL209" s="56"/>
-      <c r="AM209" s="56"/>
-      <c r="AN209" s="56"/>
-      <c r="AO209" s="56"/>
-      <c r="AP209" s="56"/>
-      <c r="AQ209" s="56"/>
-      <c r="AR209" s="56"/>
-      <c r="AS209" s="56"/>
-      <c r="AT209" s="56"/>
-      <c r="AU209" s="56"/>
-      <c r="AV209" s="56"/>
-      <c r="AW209" s="56"/>
-      <c r="AX209" s="56"/>
-      <c r="AY209" s="56"/>
-      <c r="AZ209" s="56"/>
-    </row>
-    <row r="210" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A210" s="56"/>
-      <c r="B210" s="56"/>
-      <c r="C210" s="56"/>
-      <c r="D210" s="56"/>
-      <c r="E210" s="56"/>
-      <c r="F210" s="56"/>
-      <c r="G210" s="56"/>
-      <c r="H210" s="56"/>
-      <c r="I210" s="56"/>
-      <c r="J210" s="56"/>
-      <c r="K210" s="56"/>
-      <c r="L210" s="56"/>
-      <c r="M210" s="56"/>
-      <c r="N210" s="56"/>
-      <c r="O210" s="56"/>
-      <c r="P210" s="56"/>
-      <c r="Q210" s="56"/>
-      <c r="R210" s="56"/>
-      <c r="S210" s="56"/>
-      <c r="T210" s="56"/>
-      <c r="U210" s="56"/>
-      <c r="V210" s="56"/>
-      <c r="W210" s="56"/>
-      <c r="X210" s="56"/>
-      <c r="Y210" s="56"/>
-      <c r="Z210" s="56"/>
-      <c r="AA210" s="56"/>
-      <c r="AB210" s="56"/>
-      <c r="AC210" s="56"/>
-      <c r="AD210" s="56"/>
-      <c r="AE210" s="56"/>
-      <c r="AF210" s="56"/>
-      <c r="AG210" s="56"/>
-      <c r="AH210" s="56"/>
-      <c r="AI210" s="56"/>
-      <c r="AJ210" s="56"/>
-      <c r="AK210" s="56"/>
-      <c r="AL210" s="56"/>
-      <c r="AM210" s="56"/>
-      <c r="AN210" s="56"/>
-      <c r="AO210" s="56"/>
-      <c r="AP210" s="56"/>
-      <c r="AQ210" s="56"/>
-      <c r="AR210" s="56"/>
-      <c r="AS210" s="56"/>
-      <c r="AT210" s="56"/>
-      <c r="AU210" s="56"/>
-      <c r="AV210" s="56"/>
-      <c r="AW210" s="56"/>
-      <c r="AX210" s="56"/>
-      <c r="AY210" s="56"/>
-      <c r="AZ210" s="56"/>
-    </row>
-    <row r="211" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A211" s="56"/>
-      <c r="B211" s="56"/>
-      <c r="C211" s="56"/>
-      <c r="D211" s="56"/>
-      <c r="E211" s="56"/>
-      <c r="F211" s="56"/>
-      <c r="G211" s="56"/>
-      <c r="H211" s="56"/>
-      <c r="I211" s="56"/>
-      <c r="J211" s="56"/>
-      <c r="K211" s="56"/>
-      <c r="L211" s="56"/>
-      <c r="M211" s="56"/>
-      <c r="N211" s="56"/>
-      <c r="O211" s="56"/>
-      <c r="P211" s="56"/>
-      <c r="Q211" s="56"/>
-      <c r="R211" s="56"/>
-      <c r="S211" s="56"/>
-      <c r="T211" s="56"/>
-      <c r="U211" s="56"/>
-      <c r="V211" s="56"/>
-      <c r="W211" s="56"/>
-      <c r="X211" s="56"/>
-      <c r="Y211" s="56"/>
-      <c r="Z211" s="56"/>
-      <c r="AA211" s="56"/>
-      <c r="AB211" s="56"/>
-      <c r="AC211" s="56"/>
-      <c r="AD211" s="56"/>
-      <c r="AE211" s="56"/>
-      <c r="AF211" s="56"/>
-      <c r="AG211" s="56"/>
-      <c r="AH211" s="56"/>
-      <c r="AI211" s="56"/>
-      <c r="AJ211" s="56"/>
-      <c r="AK211" s="56"/>
-      <c r="AL211" s="56"/>
-      <c r="AM211" s="56"/>
-      <c r="AN211" s="56"/>
-      <c r="AO211" s="56"/>
-      <c r="AP211" s="56"/>
-      <c r="AQ211" s="56"/>
-      <c r="AR211" s="56"/>
-      <c r="AS211" s="56"/>
-      <c r="AT211" s="56"/>
-      <c r="AU211" s="56"/>
-      <c r="AV211" s="56"/>
-      <c r="AW211" s="56"/>
-      <c r="AX211" s="56"/>
-      <c r="AY211" s="56"/>
-      <c r="AZ211" s="56"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AI1:AM1"/>
@@ -20962,7 +20361,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="171">
+      <c r="AI1" s="167">
         <f>変更履歴!E5</f>
         <v>43706</v>
       </c>
@@ -20978,7 +20377,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="174" t="str">
+      <c r="AT1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -21049,7 +20448,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="174"/>
+      <c r="AT2" s="170"/>
       <c r="AU2" s="181"/>
       <c r="AV2" s="181"/>
       <c r="AW2" s="181"/>
@@ -21413,7 +20812,7 @@
       <c r="R9" s="21"/>
       <c r="S9" s="22"/>
       <c r="T9" s="21" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
@@ -21425,7 +20824,7 @@
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AE9" s="21"/>
       <c r="AF9" s="21"/>
@@ -21502,7 +20901,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -21525,7 +20924,7 @@
       <c r="R11" s="21"/>
       <c r="S11" s="22"/>
       <c r="T11" s="21" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
@@ -21537,7 +20936,7 @@
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="20" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
@@ -21611,7 +21010,7 @@
       <c r="C13" s="72"/>
       <c r="I13" s="73"/>
       <c r="J13" s="20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
@@ -21625,7 +21024,7 @@
       <c r="R13" s="21"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
@@ -21637,7 +21036,7 @@
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="20" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
@@ -21723,7 +21122,7 @@
       <c r="R15" s="21"/>
       <c r="S15" s="22"/>
       <c r="T15" s="21" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
@@ -21735,7 +21134,7 @@
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="20" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
@@ -21821,7 +21220,7 @@
       <c r="R17" s="21"/>
       <c r="S17" s="22"/>
       <c r="T17" s="21" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
@@ -21833,7 +21232,7 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
       <c r="AD17" s="20" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
@@ -21905,7 +21304,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -21926,7 +21325,7 @@
       <c r="R19" s="21"/>
       <c r="S19" s="22"/>
       <c r="T19" s="21" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
@@ -21938,7 +21337,7 @@
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="20" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
@@ -22026,7 +21425,7 @@
       <c r="R21" s="21"/>
       <c r="S21" s="22"/>
       <c r="T21" s="21" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
@@ -22038,7 +21437,7 @@
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
       <c r="AD21" s="20" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AE21" s="21"/>
       <c r="AF21" s="21"/>
@@ -22112,7 +21511,7 @@
       <c r="C23" s="72"/>
       <c r="I23" s="73"/>
       <c r="J23" s="20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
@@ -22126,7 +21525,7 @@
       <c r="R23" s="21"/>
       <c r="S23" s="22"/>
       <c r="T23" s="21" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
@@ -22138,7 +21537,7 @@
       <c r="AB23" s="21"/>
       <c r="AC23" s="21"/>
       <c r="AD23" s="20" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AE23" s="21"/>
       <c r="AF23" s="21"/>
@@ -22224,7 +21623,7 @@
       <c r="R25" s="21"/>
       <c r="S25" s="22"/>
       <c r="T25" s="21" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
@@ -22236,7 +21635,7 @@
       <c r="AB25" s="21"/>
       <c r="AC25" s="21"/>
       <c r="AD25" s="20" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="AE25" s="21"/>
       <c r="AF25" s="21"/>
@@ -22322,7 +21721,7 @@
       <c r="R27" s="21"/>
       <c r="S27" s="22"/>
       <c r="T27" s="21" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
@@ -22334,7 +21733,7 @@
       <c r="AB27" s="21"/>
       <c r="AC27" s="21"/>
       <c r="AD27" s="20" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AE27" s="21"/>
       <c r="AF27" s="21"/>
@@ -22411,7 +21810,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -22434,7 +21833,7 @@
       <c r="R29" s="21"/>
       <c r="S29" s="22"/>
       <c r="T29" s="21" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
@@ -22446,7 +21845,7 @@
       <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
       <c r="AD29" s="20" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="AE29" s="21"/>
       <c r="AF29" s="21"/>
@@ -22532,7 +21931,7 @@
       <c r="R31" s="21"/>
       <c r="S31" s="22"/>
       <c r="T31" s="21" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
@@ -22544,7 +21943,7 @@
       <c r="AB31" s="21"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="20" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="AE31" s="21"/>
       <c r="AF31" s="21"/>
@@ -22630,7 +22029,7 @@
       <c r="R33" s="21"/>
       <c r="S33" s="22"/>
       <c r="T33" s="21" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
@@ -22642,7 +22041,7 @@
       <c r="AB33" s="21"/>
       <c r="AC33" s="21"/>
       <c r="AD33" s="20" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="AE33" s="21"/>
       <c r="AF33" s="21"/>
@@ -22740,7 +22139,7 @@
       <c r="R35" s="21"/>
       <c r="S35" s="22"/>
       <c r="T35" s="21" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
@@ -22752,7 +22151,7 @@
       <c r="AB35" s="21"/>
       <c r="AC35" s="21"/>
       <c r="AD35" s="20" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="AE35" s="21"/>
       <c r="AF35" s="21"/>
@@ -22845,7 +22244,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
       <c r="T37" s="21" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
@@ -22857,7 +22256,7 @@
       <c r="AB37" s="108"/>
       <c r="AC37" s="109"/>
       <c r="AD37" s="20" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="AE37" s="23"/>
       <c r="AF37" s="23"/>
@@ -26892,7 +26291,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="171">
+      <c r="AI1" s="167">
         <f>変更履歴!E5</f>
         <v>43706</v>
       </c>
@@ -26908,7 +26307,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="174" t="str">
+      <c r="AT1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -26979,7 +26378,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="174"/>
+      <c r="AT2" s="170"/>
       <c r="AU2" s="181"/>
       <c r="AV2" s="181"/>
       <c r="AW2" s="181"/>
@@ -27263,22 +26662,22 @@
     </row>
     <row r="8" spans="1:52" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="111" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:52" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="111" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:52" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="111" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:52" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="111" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.15">
@@ -38257,18 +37656,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38290,18 +37689,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20191231リリース/SC-M14_ＩＰアドレス管理マスタ.xlsx
+++ b/01_基本設計書/20191231リリース/SC-M14_ＩＰアドレス管理マスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\マスタ\20191018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CD060C-526A-42A8-A191-D1061433F2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B452A1F0-BBC9-42E5-B51B-2E013DDAC6DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="252">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1839,6 +1839,13 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>コードマスタ(コード区分='ACTTYPE')のコード、コード名称</t>
+    <rPh sb="10" eb="12">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -2324,7 +2331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -2671,6 +2678,21 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2680,6 +2702,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2707,90 +2814,17 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2828,18 +2862,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2867,23 +2889,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -4755,108 +4768,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="122" t="s">
+      <c r="A32" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="122"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="122"/>
-      <c r="AB32" s="122"/>
-      <c r="AC32" s="122"/>
-      <c r="AD32" s="122"/>
-      <c r="AE32" s="122"/>
-      <c r="AF32" s="122"/>
-      <c r="AG32" s="122"/>
-      <c r="AH32" s="122"/>
-      <c r="AI32" s="122"/>
-      <c r="AJ32" s="122"/>
-      <c r="AK32" s="122"/>
-      <c r="AL32" s="122"/>
-      <c r="AM32" s="122"/>
-      <c r="AN32" s="122"/>
-      <c r="AO32" s="122"/>
-      <c r="AP32" s="122"/>
-      <c r="AQ32" s="122"/>
-      <c r="AR32" s="122"/>
-      <c r="AS32" s="122"/>
-      <c r="AT32" s="122"/>
-      <c r="AU32" s="122"/>
-      <c r="AV32" s="122"/>
-      <c r="AW32" s="122"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="127"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="127"/>
+      <c r="AF32" s="127"/>
+      <c r="AG32" s="127"/>
+      <c r="AH32" s="127"/>
+      <c r="AI32" s="127"/>
+      <c r="AJ32" s="127"/>
+      <c r="AK32" s="127"/>
+      <c r="AL32" s="127"/>
+      <c r="AM32" s="127"/>
+      <c r="AN32" s="127"/>
+      <c r="AO32" s="127"/>
+      <c r="AP32" s="127"/>
+      <c r="AQ32" s="127"/>
+      <c r="AR32" s="127"/>
+      <c r="AS32" s="127"/>
+      <c r="AT32" s="127"/>
+      <c r="AU32" s="127"/>
+      <c r="AV32" s="127"/>
+      <c r="AW32" s="127"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="123"/>
-      <c r="B33" s="123"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="123"/>
-      <c r="W33" s="123"/>
-      <c r="X33" s="123"/>
-      <c r="Y33" s="123"/>
-      <c r="Z33" s="123"/>
-      <c r="AA33" s="123"/>
-      <c r="AB33" s="123"/>
-      <c r="AC33" s="123"/>
-      <c r="AD33" s="123"/>
-      <c r="AE33" s="123"/>
-      <c r="AF33" s="123"/>
-      <c r="AG33" s="123"/>
-      <c r="AH33" s="123"/>
-      <c r="AI33" s="123"/>
-      <c r="AJ33" s="123"/>
-      <c r="AK33" s="123"/>
-      <c r="AL33" s="123"/>
-      <c r="AM33" s="123"/>
-      <c r="AN33" s="123"/>
-      <c r="AO33" s="123"/>
-      <c r="AP33" s="123"/>
-      <c r="AQ33" s="123"/>
-      <c r="AR33" s="123"/>
-      <c r="AS33" s="123"/>
-      <c r="AT33" s="123"/>
-      <c r="AU33" s="123"/>
-      <c r="AV33" s="123"/>
-      <c r="AW33" s="123"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="128"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="128"/>
+      <c r="T33" s="128"/>
+      <c r="U33" s="128"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="128"/>
+      <c r="Z33" s="128"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="128"/>
+      <c r="AF33" s="128"/>
+      <c r="AG33" s="128"/>
+      <c r="AH33" s="128"/>
+      <c r="AI33" s="128"/>
+      <c r="AJ33" s="128"/>
+      <c r="AK33" s="128"/>
+      <c r="AL33" s="128"/>
+      <c r="AM33" s="128"/>
+      <c r="AN33" s="128"/>
+      <c r="AO33" s="128"/>
+      <c r="AP33" s="128"/>
+      <c r="AQ33" s="128"/>
+      <c r="AR33" s="128"/>
+      <c r="AS33" s="128"/>
+      <c r="AT33" s="128"/>
+      <c r="AU33" s="128"/>
+      <c r="AV33" s="128"/>
+      <c r="AW33" s="128"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -4894,55 +4907,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="124"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="124"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="124"/>
-      <c r="R35" s="124"/>
-      <c r="S35" s="124"/>
-      <c r="T35" s="124"/>
-      <c r="U35" s="124"/>
-      <c r="V35" s="124"/>
-      <c r="W35" s="124"/>
-      <c r="X35" s="124"/>
-      <c r="Y35" s="124"/>
-      <c r="Z35" s="124"/>
-      <c r="AA35" s="124"/>
-      <c r="AB35" s="124"/>
-      <c r="AC35" s="124"/>
-      <c r="AD35" s="124"/>
-      <c r="AE35" s="124"/>
-      <c r="AF35" s="124"/>
-      <c r="AG35" s="124"/>
-      <c r="AH35" s="124"/>
-      <c r="AI35" s="124"/>
-      <c r="AJ35" s="124"/>
-      <c r="AK35" s="124"/>
-      <c r="AL35" s="124"/>
-      <c r="AM35" s="124"/>
-      <c r="AN35" s="124"/>
-      <c r="AO35" s="124"/>
-      <c r="AP35" s="124"/>
-      <c r="AQ35" s="124"/>
-      <c r="AR35" s="124"/>
-      <c r="AS35" s="124"/>
-      <c r="AT35" s="124"/>
-      <c r="AU35" s="124"/>
-      <c r="AV35" s="124"/>
-      <c r="AW35" s="124"/>
+      <c r="A35" s="129"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="129"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="129"/>
+      <c r="V35" s="129"/>
+      <c r="W35" s="129"/>
+      <c r="X35" s="129"/>
+      <c r="Y35" s="129"/>
+      <c r="Z35" s="129"/>
+      <c r="AA35" s="129"/>
+      <c r="AB35" s="129"/>
+      <c r="AC35" s="129"/>
+      <c r="AD35" s="129"/>
+      <c r="AE35" s="129"/>
+      <c r="AF35" s="129"/>
+      <c r="AG35" s="129"/>
+      <c r="AH35" s="129"/>
+      <c r="AI35" s="129"/>
+      <c r="AJ35" s="129"/>
+      <c r="AK35" s="129"/>
+      <c r="AL35" s="129"/>
+      <c r="AM35" s="129"/>
+      <c r="AN35" s="129"/>
+      <c r="AO35" s="129"/>
+      <c r="AP35" s="129"/>
+      <c r="AQ35" s="129"/>
+      <c r="AR35" s="129"/>
+      <c r="AS35" s="129"/>
+      <c r="AT35" s="129"/>
+      <c r="AU35" s="129"/>
+      <c r="AV35" s="129"/>
+      <c r="AW35" s="129"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -4977,233 +4990,233 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="57"/>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="125"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="125"/>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="125"/>
-      <c r="AK1" s="125"/>
-      <c r="AL1" s="125"/>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="125"/>
-      <c r="AQ1" s="125"/>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="125"/>
-      <c r="AT1" s="125"/>
-      <c r="AU1" s="125"/>
-      <c r="AV1" s="125"/>
-      <c r="AW1" s="125"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="161"/>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="161"/>
+      <c r="AD1" s="161"/>
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="161"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="161"/>
+      <c r="AJ1" s="161"/>
+      <c r="AK1" s="161"/>
+      <c r="AL1" s="161"/>
+      <c r="AM1" s="161"/>
+      <c r="AN1" s="161"/>
+      <c r="AO1" s="161"/>
+      <c r="AP1" s="161"/>
+      <c r="AQ1" s="161"/>
+      <c r="AR1" s="161"/>
+      <c r="AS1" s="161"/>
+      <c r="AT1" s="161"/>
+      <c r="AU1" s="161"/>
+      <c r="AV1" s="161"/>
+      <c r="AW1" s="161"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="126"/>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="126"/>
-      <c r="AO2" s="126"/>
-      <c r="AP2" s="126"/>
-      <c r="AQ2" s="126"/>
-      <c r="AR2" s="126"/>
-      <c r="AS2" s="126"/>
-      <c r="AT2" s="126"/>
-      <c r="AU2" s="126"/>
-      <c r="AV2" s="126"/>
-      <c r="AW2" s="126"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="162"/>
+      <c r="AH2" s="162"/>
+      <c r="AI2" s="162"/>
+      <c r="AJ2" s="162"/>
+      <c r="AK2" s="162"/>
+      <c r="AL2" s="162"/>
+      <c r="AM2" s="162"/>
+      <c r="AN2" s="162"/>
+      <c r="AO2" s="162"/>
+      <c r="AP2" s="162"/>
+      <c r="AQ2" s="162"/>
+      <c r="AR2" s="162"/>
+      <c r="AS2" s="162"/>
+      <c r="AT2" s="162"/>
+      <c r="AU2" s="162"/>
+      <c r="AV2" s="162"/>
+      <c r="AW2" s="162"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127" t="s">
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="128" t="s">
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="129"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="128" t="s">
+      <c r="K3" s="165"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="127" t="s">
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127" t="s">
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="127"/>
-      <c r="AH3" s="127"/>
-      <c r="AI3" s="127"/>
-      <c r="AJ3" s="127"/>
-      <c r="AK3" s="127"/>
-      <c r="AL3" s="127"/>
-      <c r="AM3" s="127"/>
-      <c r="AN3" s="127" t="s">
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="163"/>
+      <c r="AJ3" s="163"/>
+      <c r="AK3" s="163"/>
+      <c r="AL3" s="163"/>
+      <c r="AM3" s="163"/>
+      <c r="AN3" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="127"/>
-      <c r="AR3" s="127"/>
-      <c r="AS3" s="127" t="s">
+      <c r="AO3" s="163"/>
+      <c r="AP3" s="163"/>
+      <c r="AQ3" s="163"/>
+      <c r="AR3" s="163"/>
+      <c r="AS3" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="127"/>
-      <c r="AU3" s="127"/>
-      <c r="AV3" s="127"/>
-      <c r="AW3" s="127"/>
+      <c r="AT3" s="163"/>
+      <c r="AU3" s="163"/>
+      <c r="AV3" s="163"/>
+      <c r="AW3" s="163"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="127"/>
-      <c r="AI4" s="127"/>
-      <c r="AJ4" s="127"/>
-      <c r="AK4" s="127"/>
-      <c r="AL4" s="127"/>
-      <c r="AM4" s="127"/>
-      <c r="AN4" s="127"/>
-      <c r="AO4" s="127"/>
-      <c r="AP4" s="127"/>
-      <c r="AQ4" s="127"/>
-      <c r="AR4" s="127"/>
-      <c r="AS4" s="127"/>
-      <c r="AT4" s="127"/>
-      <c r="AU4" s="127"/>
-      <c r="AV4" s="127"/>
-      <c r="AW4" s="127"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="169"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="163"/>
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="163"/>
+      <c r="AT4" s="163"/>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
-      <c r="B5" s="135">
+      <c r="B5" s="155">
         <v>1</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
       <c r="E5" s="136">
         <v>43706</v>
       </c>
@@ -5224,49 +5237,49 @@
       <c r="P5" s="138"/>
       <c r="Q5" s="138"/>
       <c r="R5" s="139"/>
-      <c r="S5" s="134" t="s">
+      <c r="S5" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="143" t="s">
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="143"/>
-      <c r="X5" s="143"/>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="143"/>
-      <c r="AA5" s="143"/>
-      <c r="AB5" s="143"/>
-      <c r="AC5" s="143"/>
-      <c r="AD5" s="143"/>
-      <c r="AE5" s="143"/>
-      <c r="AF5" s="143"/>
-      <c r="AG5" s="143"/>
-      <c r="AH5" s="143"/>
-      <c r="AI5" s="143"/>
-      <c r="AJ5" s="143"/>
-      <c r="AK5" s="143"/>
-      <c r="AL5" s="143"/>
-      <c r="AM5" s="143"/>
-      <c r="AN5" s="134" t="s">
+      <c r="W5" s="154"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="154"/>
+      <c r="Z5" s="154"/>
+      <c r="AA5" s="154"/>
+      <c r="AB5" s="154"/>
+      <c r="AC5" s="154"/>
+      <c r="AD5" s="154"/>
+      <c r="AE5" s="154"/>
+      <c r="AF5" s="154"/>
+      <c r="AG5" s="154"/>
+      <c r="AH5" s="154"/>
+      <c r="AI5" s="154"/>
+      <c r="AJ5" s="154"/>
+      <c r="AK5" s="154"/>
+      <c r="AL5" s="154"/>
+      <c r="AM5" s="154"/>
+      <c r="AN5" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="134"/>
-      <c r="AR5" s="134"/>
-      <c r="AS5" s="134"/>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="134"/>
-      <c r="AW5" s="134"/>
+      <c r="AO5" s="143"/>
+      <c r="AP5" s="143"/>
+      <c r="AQ5" s="143"/>
+      <c r="AR5" s="143"/>
+      <c r="AS5" s="143"/>
+      <c r="AT5" s="143"/>
+      <c r="AU5" s="143"/>
+      <c r="AV5" s="143"/>
+      <c r="AW5" s="143"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="136"/>
       <c r="F6" s="136"/>
       <c r="G6" s="136"/>
@@ -5275,49 +5288,49 @@
       <c r="J6" s="137"/>
       <c r="K6" s="138"/>
       <c r="L6" s="139"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="143"/>
-      <c r="W6" s="143"/>
-      <c r="X6" s="143"/>
-      <c r="Y6" s="143"/>
-      <c r="Z6" s="143"/>
-      <c r="AA6" s="143"/>
-      <c r="AB6" s="143"/>
-      <c r="AC6" s="143"/>
-      <c r="AD6" s="143"/>
-      <c r="AE6" s="143"/>
-      <c r="AF6" s="143"/>
-      <c r="AG6" s="143"/>
-      <c r="AH6" s="143"/>
-      <c r="AI6" s="143"/>
-      <c r="AJ6" s="143"/>
-      <c r="AK6" s="143"/>
-      <c r="AL6" s="143"/>
-      <c r="AM6" s="143"/>
-      <c r="AN6" s="134"/>
-      <c r="AO6" s="134"/>
-      <c r="AP6" s="134"/>
-      <c r="AQ6" s="134"/>
-      <c r="AR6" s="134"/>
-      <c r="AS6" s="134"/>
-      <c r="AT6" s="134"/>
-      <c r="AU6" s="134"/>
-      <c r="AV6" s="134"/>
-      <c r="AW6" s="134"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="154"/>
+      <c r="W6" s="154"/>
+      <c r="X6" s="154"/>
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="154"/>
+      <c r="AA6" s="154"/>
+      <c r="AB6" s="154"/>
+      <c r="AC6" s="154"/>
+      <c r="AD6" s="154"/>
+      <c r="AE6" s="154"/>
+      <c r="AF6" s="154"/>
+      <c r="AG6" s="154"/>
+      <c r="AH6" s="154"/>
+      <c r="AI6" s="154"/>
+      <c r="AJ6" s="154"/>
+      <c r="AK6" s="154"/>
+      <c r="AL6" s="154"/>
+      <c r="AM6" s="154"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="143"/>
+      <c r="AP6" s="143"/>
+      <c r="AQ6" s="143"/>
+      <c r="AR6" s="143"/>
+      <c r="AS6" s="143"/>
+      <c r="AT6" s="143"/>
+      <c r="AU6" s="143"/>
+      <c r="AV6" s="143"/>
+      <c r="AW6" s="143"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
       <c r="E7" s="136"/>
       <c r="F7" s="136"/>
       <c r="G7" s="136"/>
@@ -5326,49 +5339,49 @@
       <c r="J7" s="137"/>
       <c r="K7" s="138"/>
       <c r="L7" s="139"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="134"/>
-      <c r="T7" s="134"/>
-      <c r="U7" s="134"/>
-      <c r="V7" s="143"/>
-      <c r="W7" s="143"/>
-      <c r="X7" s="143"/>
-      <c r="Y7" s="143"/>
-      <c r="Z7" s="143"/>
-      <c r="AA7" s="143"/>
-      <c r="AB7" s="143"/>
-      <c r="AC7" s="143"/>
-      <c r="AD7" s="143"/>
-      <c r="AE7" s="143"/>
-      <c r="AF7" s="143"/>
-      <c r="AG7" s="143"/>
-      <c r="AH7" s="143"/>
-      <c r="AI7" s="143"/>
-      <c r="AJ7" s="143"/>
-      <c r="AK7" s="143"/>
-      <c r="AL7" s="143"/>
-      <c r="AM7" s="143"/>
-      <c r="AN7" s="134"/>
-      <c r="AO7" s="134"/>
-      <c r="AP7" s="134"/>
-      <c r="AQ7" s="134"/>
-      <c r="AR7" s="134"/>
-      <c r="AS7" s="134"/>
-      <c r="AT7" s="134"/>
-      <c r="AU7" s="134"/>
-      <c r="AV7" s="134"/>
-      <c r="AW7" s="134"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="160"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="154"/>
+      <c r="W7" s="154"/>
+      <c r="X7" s="154"/>
+      <c r="Y7" s="154"/>
+      <c r="Z7" s="154"/>
+      <c r="AA7" s="154"/>
+      <c r="AB7" s="154"/>
+      <c r="AC7" s="154"/>
+      <c r="AD7" s="154"/>
+      <c r="AE7" s="154"/>
+      <c r="AF7" s="154"/>
+      <c r="AG7" s="154"/>
+      <c r="AH7" s="154"/>
+      <c r="AI7" s="154"/>
+      <c r="AJ7" s="154"/>
+      <c r="AK7" s="154"/>
+      <c r="AL7" s="154"/>
+      <c r="AM7" s="154"/>
+      <c r="AN7" s="143"/>
+      <c r="AO7" s="143"/>
+      <c r="AP7" s="143"/>
+      <c r="AQ7" s="143"/>
+      <c r="AR7" s="143"/>
+      <c r="AS7" s="143"/>
+      <c r="AT7" s="143"/>
+      <c r="AU7" s="143"/>
+      <c r="AV7" s="143"/>
+      <c r="AW7" s="143"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
       <c r="E8" s="136"/>
       <c r="F8" s="136"/>
       <c r="G8" s="136"/>
@@ -5377,49 +5390,49 @@
       <c r="J8" s="137"/>
       <c r="K8" s="138"/>
       <c r="L8" s="139"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="142"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="143"/>
-      <c r="W8" s="143"/>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="143"/>
-      <c r="AA8" s="143"/>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="143"/>
-      <c r="AD8" s="143"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="143"/>
-      <c r="AG8" s="143"/>
-      <c r="AH8" s="143"/>
-      <c r="AI8" s="143"/>
-      <c r="AJ8" s="143"/>
-      <c r="AK8" s="143"/>
-      <c r="AL8" s="143"/>
-      <c r="AM8" s="143"/>
-      <c r="AN8" s="134"/>
-      <c r="AO8" s="134"/>
-      <c r="AP8" s="134"/>
-      <c r="AQ8" s="134"/>
-      <c r="AR8" s="134"/>
-      <c r="AS8" s="134"/>
-      <c r="AT8" s="134"/>
-      <c r="AU8" s="134"/>
-      <c r="AV8" s="134"/>
-      <c r="AW8" s="134"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="154"/>
+      <c r="W8" s="154"/>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="154"/>
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="154"/>
+      <c r="AD8" s="154"/>
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="154"/>
+      <c r="AG8" s="154"/>
+      <c r="AH8" s="154"/>
+      <c r="AI8" s="154"/>
+      <c r="AJ8" s="154"/>
+      <c r="AK8" s="154"/>
+      <c r="AL8" s="154"/>
+      <c r="AM8" s="154"/>
+      <c r="AN8" s="143"/>
+      <c r="AO8" s="143"/>
+      <c r="AP8" s="143"/>
+      <c r="AQ8" s="143"/>
+      <c r="AR8" s="143"/>
+      <c r="AS8" s="143"/>
+      <c r="AT8" s="143"/>
+      <c r="AU8" s="143"/>
+      <c r="AV8" s="143"/>
+      <c r="AW8" s="143"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
       <c r="E9" s="136"/>
       <c r="F9" s="136"/>
       <c r="G9" s="136"/>
@@ -5428,49 +5441,49 @@
       <c r="J9" s="137"/>
       <c r="K9" s="138"/>
       <c r="L9" s="139"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="134"/>
-      <c r="T9" s="134"/>
-      <c r="U9" s="134"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="143"/>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="143"/>
-      <c r="AF9" s="143"/>
-      <c r="AG9" s="143"/>
-      <c r="AH9" s="143"/>
-      <c r="AI9" s="143"/>
-      <c r="AJ9" s="143"/>
-      <c r="AK9" s="143"/>
-      <c r="AL9" s="143"/>
-      <c r="AM9" s="143"/>
-      <c r="AN9" s="134"/>
-      <c r="AO9" s="134"/>
-      <c r="AP9" s="134"/>
-      <c r="AQ9" s="134"/>
-      <c r="AR9" s="134"/>
-      <c r="AS9" s="134"/>
-      <c r="AT9" s="134"/>
-      <c r="AU9" s="134"/>
-      <c r="AV9" s="134"/>
-      <c r="AW9" s="134"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="154"/>
+      <c r="W9" s="154"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="154"/>
+      <c r="AE9" s="154"/>
+      <c r="AF9" s="154"/>
+      <c r="AG9" s="154"/>
+      <c r="AH9" s="154"/>
+      <c r="AI9" s="154"/>
+      <c r="AJ9" s="154"/>
+      <c r="AK9" s="154"/>
+      <c r="AL9" s="154"/>
+      <c r="AM9" s="154"/>
+      <c r="AN9" s="143"/>
+      <c r="AO9" s="143"/>
+      <c r="AP9" s="143"/>
+      <c r="AQ9" s="143"/>
+      <c r="AR9" s="143"/>
+      <c r="AS9" s="143"/>
+      <c r="AT9" s="143"/>
+      <c r="AU9" s="143"/>
+      <c r="AV9" s="143"/>
+      <c r="AW9" s="143"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="59"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
       <c r="E10" s="136"/>
       <c r="F10" s="136"/>
       <c r="G10" s="136"/>
@@ -5479,49 +5492,49 @@
       <c r="J10" s="137"/>
       <c r="K10" s="138"/>
       <c r="L10" s="139"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="134"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="134"/>
-      <c r="V10" s="143"/>
-      <c r="W10" s="143"/>
-      <c r="X10" s="143"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="143"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="143"/>
-      <c r="AC10" s="143"/>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="143"/>
-      <c r="AF10" s="143"/>
-      <c r="AG10" s="143"/>
-      <c r="AH10" s="143"/>
-      <c r="AI10" s="143"/>
-      <c r="AJ10" s="143"/>
-      <c r="AK10" s="143"/>
-      <c r="AL10" s="143"/>
-      <c r="AM10" s="143"/>
-      <c r="AN10" s="134"/>
-      <c r="AO10" s="134"/>
-      <c r="AP10" s="134"/>
-      <c r="AQ10" s="134"/>
-      <c r="AR10" s="134"/>
-      <c r="AS10" s="134"/>
-      <c r="AT10" s="134"/>
-      <c r="AU10" s="134"/>
-      <c r="AV10" s="134"/>
-      <c r="AW10" s="134"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="154"/>
+      <c r="AA10" s="154"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="154"/>
+      <c r="AD10" s="154"/>
+      <c r="AE10" s="154"/>
+      <c r="AF10" s="154"/>
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="154"/>
+      <c r="AI10" s="154"/>
+      <c r="AJ10" s="154"/>
+      <c r="AK10" s="154"/>
+      <c r="AL10" s="154"/>
+      <c r="AM10" s="154"/>
+      <c r="AN10" s="143"/>
+      <c r="AO10" s="143"/>
+      <c r="AP10" s="143"/>
+      <c r="AQ10" s="143"/>
+      <c r="AR10" s="143"/>
+      <c r="AS10" s="143"/>
+      <c r="AT10" s="143"/>
+      <c r="AU10" s="143"/>
+      <c r="AV10" s="143"/>
+      <c r="AW10" s="143"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
       <c r="E11" s="136"/>
       <c r="F11" s="136"/>
       <c r="G11" s="136"/>
@@ -5530,16 +5543,16 @@
       <c r="J11" s="137"/>
       <c r="K11" s="138"/>
       <c r="L11" s="139"/>
-      <c r="M11" s="147"/>
+      <c r="M11" s="150"/>
       <c r="N11" s="148"/>
       <c r="O11" s="148"/>
       <c r="P11" s="148"/>
       <c r="Q11" s="148"/>
       <c r="R11" s="149"/>
-      <c r="S11" s="134"/>
-      <c r="T11" s="134"/>
-      <c r="U11" s="134"/>
-      <c r="V11" s="150"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="144"/>
       <c r="W11" s="156"/>
       <c r="X11" s="156"/>
       <c r="Y11" s="156"/>
@@ -5557,22 +5570,22 @@
       <c r="AK11" s="156"/>
       <c r="AL11" s="156"/>
       <c r="AM11" s="157"/>
-      <c r="AN11" s="134"/>
-      <c r="AO11" s="134"/>
-      <c r="AP11" s="134"/>
-      <c r="AQ11" s="134"/>
-      <c r="AR11" s="134"/>
-      <c r="AS11" s="134"/>
-      <c r="AT11" s="134"/>
-      <c r="AU11" s="134"/>
-      <c r="AV11" s="134"/>
-      <c r="AW11" s="134"/>
+      <c r="AN11" s="143"/>
+      <c r="AO11" s="143"/>
+      <c r="AP11" s="143"/>
+      <c r="AQ11" s="143"/>
+      <c r="AR11" s="143"/>
+      <c r="AS11" s="143"/>
+      <c r="AT11" s="143"/>
+      <c r="AU11" s="143"/>
+      <c r="AV11" s="143"/>
+      <c r="AW11" s="143"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="146"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
       <c r="E12" s="136"/>
       <c r="F12" s="136"/>
       <c r="G12" s="136"/>
@@ -5581,49 +5594,49 @@
       <c r="J12" s="137"/>
       <c r="K12" s="138"/>
       <c r="L12" s="139"/>
-      <c r="M12" s="147"/>
+      <c r="M12" s="150"/>
       <c r="N12" s="148"/>
       <c r="O12" s="148"/>
       <c r="P12" s="148"/>
       <c r="Q12" s="148"/>
       <c r="R12" s="149"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="150"/>
-      <c r="W12" s="151"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="151"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="151"/>
-      <c r="AB12" s="151"/>
-      <c r="AC12" s="151"/>
-      <c r="AD12" s="151"/>
-      <c r="AE12" s="151"/>
-      <c r="AF12" s="151"/>
-      <c r="AG12" s="151"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="151"/>
-      <c r="AJ12" s="151"/>
-      <c r="AK12" s="151"/>
-      <c r="AL12" s="151"/>
-      <c r="AM12" s="152"/>
-      <c r="AN12" s="153"/>
-      <c r="AO12" s="154"/>
-      <c r="AP12" s="154"/>
-      <c r="AQ12" s="154"/>
-      <c r="AR12" s="155"/>
-      <c r="AS12" s="153"/>
-      <c r="AT12" s="154"/>
-      <c r="AU12" s="154"/>
-      <c r="AV12" s="154"/>
-      <c r="AW12" s="155"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="144"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145"/>
+      <c r="Y12" s="145"/>
+      <c r="Z12" s="145"/>
+      <c r="AA12" s="145"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="145"/>
+      <c r="AE12" s="145"/>
+      <c r="AF12" s="145"/>
+      <c r="AG12" s="145"/>
+      <c r="AH12" s="145"/>
+      <c r="AI12" s="145"/>
+      <c r="AJ12" s="145"/>
+      <c r="AK12" s="145"/>
+      <c r="AL12" s="145"/>
+      <c r="AM12" s="146"/>
+      <c r="AN12" s="130"/>
+      <c r="AO12" s="131"/>
+      <c r="AP12" s="131"/>
+      <c r="AQ12" s="131"/>
+      <c r="AR12" s="132"/>
+      <c r="AS12" s="130"/>
+      <c r="AT12" s="131"/>
+      <c r="AU12" s="131"/>
+      <c r="AV12" s="131"/>
+      <c r="AW12" s="132"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="146"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="136"/>
       <c r="F13" s="136"/>
       <c r="G13" s="136"/>
@@ -5632,49 +5645,49 @@
       <c r="J13" s="137"/>
       <c r="K13" s="138"/>
       <c r="L13" s="139"/>
-      <c r="M13" s="158"/>
+      <c r="M13" s="147"/>
       <c r="N13" s="148"/>
       <c r="O13" s="148"/>
       <c r="P13" s="148"/>
       <c r="Q13" s="148"/>
       <c r="R13" s="149"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="150"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="151"/>
-      <c r="AE13" s="151"/>
-      <c r="AF13" s="151"/>
-      <c r="AG13" s="151"/>
-      <c r="AH13" s="151"/>
-      <c r="AI13" s="151"/>
-      <c r="AJ13" s="151"/>
-      <c r="AK13" s="151"/>
-      <c r="AL13" s="151"/>
-      <c r="AM13" s="152"/>
-      <c r="AN13" s="153"/>
-      <c r="AO13" s="154"/>
-      <c r="AP13" s="154"/>
-      <c r="AQ13" s="154"/>
-      <c r="AR13" s="155"/>
-      <c r="AS13" s="153"/>
-      <c r="AT13" s="154"/>
-      <c r="AU13" s="154"/>
-      <c r="AV13" s="154"/>
-      <c r="AW13" s="155"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="145"/>
+      <c r="Z13" s="145"/>
+      <c r="AA13" s="145"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="145"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="145"/>
+      <c r="AG13" s="145"/>
+      <c r="AH13" s="145"/>
+      <c r="AI13" s="145"/>
+      <c r="AJ13" s="145"/>
+      <c r="AK13" s="145"/>
+      <c r="AL13" s="145"/>
+      <c r="AM13" s="146"/>
+      <c r="AN13" s="130"/>
+      <c r="AO13" s="131"/>
+      <c r="AP13" s="131"/>
+      <c r="AQ13" s="131"/>
+      <c r="AR13" s="132"/>
+      <c r="AS13" s="130"/>
+      <c r="AT13" s="131"/>
+      <c r="AU13" s="131"/>
+      <c r="AV13" s="131"/>
+      <c r="AW13" s="132"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="146"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="136"/>
       <c r="F14" s="136"/>
       <c r="G14" s="136"/>
@@ -5683,49 +5696,49 @@
       <c r="J14" s="137"/>
       <c r="K14" s="138"/>
       <c r="L14" s="139"/>
-      <c r="M14" s="158"/>
+      <c r="M14" s="147"/>
       <c r="N14" s="148"/>
       <c r="O14" s="148"/>
       <c r="P14" s="148"/>
       <c r="Q14" s="148"/>
       <c r="R14" s="149"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="134"/>
-      <c r="V14" s="159"/>
-      <c r="W14" s="143"/>
-      <c r="X14" s="143"/>
-      <c r="Y14" s="143"/>
-      <c r="Z14" s="143"/>
-      <c r="AA14" s="143"/>
-      <c r="AB14" s="143"/>
-      <c r="AC14" s="143"/>
-      <c r="AD14" s="143"/>
-      <c r="AE14" s="143"/>
-      <c r="AF14" s="143"/>
-      <c r="AG14" s="143"/>
-      <c r="AH14" s="143"/>
-      <c r="AI14" s="143"/>
-      <c r="AJ14" s="143"/>
-      <c r="AK14" s="143"/>
-      <c r="AL14" s="143"/>
-      <c r="AM14" s="143"/>
-      <c r="AN14" s="134"/>
-      <c r="AO14" s="134"/>
-      <c r="AP14" s="134"/>
-      <c r="AQ14" s="134"/>
-      <c r="AR14" s="134"/>
-      <c r="AS14" s="153"/>
-      <c r="AT14" s="154"/>
-      <c r="AU14" s="154"/>
-      <c r="AV14" s="154"/>
-      <c r="AW14" s="155"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="154"/>
+      <c r="AA14" s="154"/>
+      <c r="AB14" s="154"/>
+      <c r="AC14" s="154"/>
+      <c r="AD14" s="154"/>
+      <c r="AE14" s="154"/>
+      <c r="AF14" s="154"/>
+      <c r="AG14" s="154"/>
+      <c r="AH14" s="154"/>
+      <c r="AI14" s="154"/>
+      <c r="AJ14" s="154"/>
+      <c r="AK14" s="154"/>
+      <c r="AL14" s="154"/>
+      <c r="AM14" s="154"/>
+      <c r="AN14" s="143"/>
+      <c r="AO14" s="143"/>
+      <c r="AP14" s="143"/>
+      <c r="AQ14" s="143"/>
+      <c r="AR14" s="143"/>
+      <c r="AS14" s="130"/>
+      <c r="AT14" s="131"/>
+      <c r="AU14" s="131"/>
+      <c r="AV14" s="131"/>
+      <c r="AW14" s="132"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="146"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="136"/>
       <c r="F15" s="136"/>
       <c r="G15" s="136"/>
@@ -5734,49 +5747,49 @@
       <c r="J15" s="137"/>
       <c r="K15" s="138"/>
       <c r="L15" s="139"/>
-      <c r="M15" s="147"/>
+      <c r="M15" s="150"/>
       <c r="N15" s="148"/>
       <c r="O15" s="148"/>
       <c r="P15" s="148"/>
       <c r="Q15" s="148"/>
       <c r="R15" s="149"/>
-      <c r="S15" s="134"/>
-      <c r="T15" s="134"/>
-      <c r="U15" s="134"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="151"/>
-      <c r="X15" s="151"/>
-      <c r="Y15" s="151"/>
-      <c r="Z15" s="151"/>
-      <c r="AA15" s="151"/>
-      <c r="AB15" s="151"/>
-      <c r="AC15" s="151"/>
-      <c r="AD15" s="151"/>
-      <c r="AE15" s="151"/>
-      <c r="AF15" s="151"/>
-      <c r="AG15" s="151"/>
-      <c r="AH15" s="151"/>
-      <c r="AI15" s="151"/>
-      <c r="AJ15" s="151"/>
-      <c r="AK15" s="151"/>
-      <c r="AL15" s="151"/>
-      <c r="AM15" s="152"/>
-      <c r="AN15" s="153"/>
-      <c r="AO15" s="154"/>
-      <c r="AP15" s="154"/>
-      <c r="AQ15" s="154"/>
-      <c r="AR15" s="155"/>
-      <c r="AS15" s="153"/>
-      <c r="AT15" s="154"/>
-      <c r="AU15" s="154"/>
-      <c r="AV15" s="154"/>
-      <c r="AW15" s="155"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="144"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="145"/>
+      <c r="Z15" s="145"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="145"/>
+      <c r="AC15" s="145"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="145"/>
+      <c r="AF15" s="145"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="145"/>
+      <c r="AJ15" s="145"/>
+      <c r="AK15" s="145"/>
+      <c r="AL15" s="145"/>
+      <c r="AM15" s="146"/>
+      <c r="AN15" s="130"/>
+      <c r="AO15" s="131"/>
+      <c r="AP15" s="131"/>
+      <c r="AQ15" s="131"/>
+      <c r="AR15" s="132"/>
+      <c r="AS15" s="130"/>
+      <c r="AT15" s="131"/>
+      <c r="AU15" s="131"/>
+      <c r="AV15" s="131"/>
+      <c r="AW15" s="132"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="146"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="136"/>
       <c r="F16" s="136"/>
       <c r="G16" s="136"/>
@@ -5785,49 +5798,49 @@
       <c r="J16" s="137"/>
       <c r="K16" s="138"/>
       <c r="L16" s="139"/>
-      <c r="M16" s="147"/>
+      <c r="M16" s="150"/>
       <c r="N16" s="148"/>
       <c r="O16" s="148"/>
       <c r="P16" s="148"/>
       <c r="Q16" s="148"/>
       <c r="R16" s="149"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="134"/>
-      <c r="V16" s="150"/>
-      <c r="W16" s="151"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="151"/>
-      <c r="Z16" s="151"/>
-      <c r="AA16" s="151"/>
-      <c r="AB16" s="151"/>
-      <c r="AC16" s="151"/>
-      <c r="AD16" s="151"/>
-      <c r="AE16" s="151"/>
-      <c r="AF16" s="151"/>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="151"/>
-      <c r="AI16" s="151"/>
-      <c r="AJ16" s="151"/>
-      <c r="AK16" s="151"/>
-      <c r="AL16" s="151"/>
-      <c r="AM16" s="152"/>
-      <c r="AN16" s="153"/>
-      <c r="AO16" s="154"/>
-      <c r="AP16" s="154"/>
-      <c r="AQ16" s="154"/>
-      <c r="AR16" s="155"/>
-      <c r="AS16" s="153"/>
-      <c r="AT16" s="154"/>
-      <c r="AU16" s="154"/>
-      <c r="AV16" s="154"/>
-      <c r="AW16" s="155"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="144"/>
+      <c r="W16" s="145"/>
+      <c r="X16" s="145"/>
+      <c r="Y16" s="145"/>
+      <c r="Z16" s="145"/>
+      <c r="AA16" s="145"/>
+      <c r="AB16" s="145"/>
+      <c r="AC16" s="145"/>
+      <c r="AD16" s="145"/>
+      <c r="AE16" s="145"/>
+      <c r="AF16" s="145"/>
+      <c r="AG16" s="145"/>
+      <c r="AH16" s="145"/>
+      <c r="AI16" s="145"/>
+      <c r="AJ16" s="145"/>
+      <c r="AK16" s="145"/>
+      <c r="AL16" s="145"/>
+      <c r="AM16" s="146"/>
+      <c r="AN16" s="130"/>
+      <c r="AO16" s="131"/>
+      <c r="AP16" s="131"/>
+      <c r="AQ16" s="131"/>
+      <c r="AR16" s="132"/>
+      <c r="AS16" s="130"/>
+      <c r="AT16" s="131"/>
+      <c r="AU16" s="131"/>
+      <c r="AV16" s="131"/>
+      <c r="AW16" s="132"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="146"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="136"/>
       <c r="F17" s="136"/>
       <c r="G17" s="136"/>
@@ -5836,49 +5849,49 @@
       <c r="J17" s="137"/>
       <c r="K17" s="138"/>
       <c r="L17" s="139"/>
-      <c r="M17" s="147"/>
+      <c r="M17" s="150"/>
       <c r="N17" s="148"/>
       <c r="O17" s="148"/>
       <c r="P17" s="148"/>
       <c r="Q17" s="148"/>
-      <c r="R17" s="160"/>
-      <c r="S17" s="161"/>
-      <c r="T17" s="161"/>
-      <c r="U17" s="161"/>
-      <c r="V17" s="150"/>
-      <c r="W17" s="151"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="151"/>
-      <c r="Z17" s="151"/>
-      <c r="AA17" s="151"/>
-      <c r="AB17" s="151"/>
-      <c r="AC17" s="151"/>
-      <c r="AD17" s="151"/>
-      <c r="AE17" s="151"/>
-      <c r="AF17" s="151"/>
-      <c r="AG17" s="151"/>
-      <c r="AH17" s="151"/>
-      <c r="AI17" s="151"/>
-      <c r="AJ17" s="151"/>
-      <c r="AK17" s="151"/>
-      <c r="AL17" s="151"/>
-      <c r="AM17" s="152"/>
-      <c r="AN17" s="153"/>
-      <c r="AO17" s="154"/>
-      <c r="AP17" s="154"/>
-      <c r="AQ17" s="154"/>
-      <c r="AR17" s="155"/>
-      <c r="AS17" s="153"/>
-      <c r="AT17" s="154"/>
-      <c r="AU17" s="154"/>
-      <c r="AV17" s="154"/>
-      <c r="AW17" s="155"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="152"/>
+      <c r="U17" s="152"/>
+      <c r="V17" s="144"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="145"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="145"/>
+      <c r="AF17" s="145"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="145"/>
+      <c r="AL17" s="145"/>
+      <c r="AM17" s="146"/>
+      <c r="AN17" s="130"/>
+      <c r="AO17" s="131"/>
+      <c r="AP17" s="131"/>
+      <c r="AQ17" s="131"/>
+      <c r="AR17" s="132"/>
+      <c r="AS17" s="130"/>
+      <c r="AT17" s="131"/>
+      <c r="AU17" s="131"/>
+      <c r="AV17" s="131"/>
+      <c r="AW17" s="132"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="146"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
       <c r="E18" s="136"/>
       <c r="F18" s="136"/>
       <c r="G18" s="136"/>
@@ -5887,49 +5900,49 @@
       <c r="J18" s="137"/>
       <c r="K18" s="138"/>
       <c r="L18" s="139"/>
-      <c r="M18" s="158"/>
+      <c r="M18" s="147"/>
       <c r="N18" s="148"/>
       <c r="O18" s="148"/>
       <c r="P18" s="148"/>
       <c r="Q18" s="148"/>
       <c r="R18" s="149"/>
-      <c r="S18" s="134"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="134"/>
-      <c r="V18" s="150"/>
-      <c r="W18" s="151"/>
-      <c r="X18" s="151"/>
-      <c r="Y18" s="151"/>
-      <c r="Z18" s="151"/>
-      <c r="AA18" s="151"/>
-      <c r="AB18" s="151"/>
-      <c r="AC18" s="151"/>
-      <c r="AD18" s="151"/>
-      <c r="AE18" s="151"/>
-      <c r="AF18" s="151"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="151"/>
-      <c r="AJ18" s="151"/>
-      <c r="AK18" s="151"/>
-      <c r="AL18" s="151"/>
-      <c r="AM18" s="152"/>
-      <c r="AN18" s="153"/>
-      <c r="AO18" s="154"/>
-      <c r="AP18" s="154"/>
-      <c r="AQ18" s="154"/>
-      <c r="AR18" s="155"/>
-      <c r="AS18" s="153"/>
-      <c r="AT18" s="154"/>
-      <c r="AU18" s="154"/>
-      <c r="AV18" s="154"/>
-      <c r="AW18" s="155"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="144"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="145"/>
+      <c r="Y18" s="145"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="145"/>
+      <c r="AC18" s="145"/>
+      <c r="AD18" s="145"/>
+      <c r="AE18" s="145"/>
+      <c r="AF18" s="145"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="145"/>
+      <c r="AJ18" s="145"/>
+      <c r="AK18" s="145"/>
+      <c r="AL18" s="145"/>
+      <c r="AM18" s="146"/>
+      <c r="AN18" s="130"/>
+      <c r="AO18" s="131"/>
+      <c r="AP18" s="131"/>
+      <c r="AQ18" s="131"/>
+      <c r="AR18" s="132"/>
+      <c r="AS18" s="130"/>
+      <c r="AT18" s="131"/>
+      <c r="AU18" s="131"/>
+      <c r="AV18" s="131"/>
+      <c r="AW18" s="132"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="136"/>
       <c r="F19" s="136"/>
       <c r="G19" s="136"/>
@@ -5938,49 +5951,49 @@
       <c r="J19" s="137"/>
       <c r="K19" s="138"/>
       <c r="L19" s="139"/>
-      <c r="M19" s="147"/>
+      <c r="M19" s="150"/>
       <c r="N19" s="148"/>
       <c r="O19" s="148"/>
       <c r="P19" s="148"/>
       <c r="Q19" s="148"/>
       <c r="R19" s="149"/>
-      <c r="S19" s="134"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="134"/>
-      <c r="V19" s="150"/>
-      <c r="W19" s="151"/>
-      <c r="X19" s="151"/>
-      <c r="Y19" s="151"/>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="151"/>
-      <c r="AB19" s="151"/>
-      <c r="AC19" s="151"/>
-      <c r="AD19" s="151"/>
-      <c r="AE19" s="151"/>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="151"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="151"/>
-      <c r="AJ19" s="151"/>
-      <c r="AK19" s="151"/>
-      <c r="AL19" s="151"/>
-      <c r="AM19" s="152"/>
-      <c r="AN19" s="134"/>
-      <c r="AO19" s="134"/>
-      <c r="AP19" s="134"/>
-      <c r="AQ19" s="134"/>
-      <c r="AR19" s="134"/>
-      <c r="AS19" s="153"/>
-      <c r="AT19" s="154"/>
-      <c r="AU19" s="154"/>
-      <c r="AV19" s="154"/>
-      <c r="AW19" s="155"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="144"/>
+      <c r="W19" s="145"/>
+      <c r="X19" s="145"/>
+      <c r="Y19" s="145"/>
+      <c r="Z19" s="145"/>
+      <c r="AA19" s="145"/>
+      <c r="AB19" s="145"/>
+      <c r="AC19" s="145"/>
+      <c r="AD19" s="145"/>
+      <c r="AE19" s="145"/>
+      <c r="AF19" s="145"/>
+      <c r="AG19" s="145"/>
+      <c r="AH19" s="145"/>
+      <c r="AI19" s="145"/>
+      <c r="AJ19" s="145"/>
+      <c r="AK19" s="145"/>
+      <c r="AL19" s="145"/>
+      <c r="AM19" s="146"/>
+      <c r="AN19" s="143"/>
+      <c r="AO19" s="143"/>
+      <c r="AP19" s="143"/>
+      <c r="AQ19" s="143"/>
+      <c r="AR19" s="143"/>
+      <c r="AS19" s="130"/>
+      <c r="AT19" s="131"/>
+      <c r="AU19" s="131"/>
+      <c r="AV19" s="131"/>
+      <c r="AW19" s="132"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="136"/>
       <c r="F20" s="136"/>
       <c r="G20" s="136"/>
@@ -5989,49 +6002,49 @@
       <c r="J20" s="137"/>
       <c r="K20" s="138"/>
       <c r="L20" s="139"/>
-      <c r="M20" s="147"/>
+      <c r="M20" s="150"/>
       <c r="N20" s="148"/>
       <c r="O20" s="148"/>
       <c r="P20" s="148"/>
       <c r="Q20" s="148"/>
       <c r="R20" s="149"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="150"/>
-      <c r="W20" s="151"/>
-      <c r="X20" s="151"/>
-      <c r="Y20" s="151"/>
-      <c r="Z20" s="151"/>
-      <c r="AA20" s="151"/>
-      <c r="AB20" s="151"/>
-      <c r="AC20" s="151"/>
-      <c r="AD20" s="151"/>
-      <c r="AE20" s="151"/>
-      <c r="AF20" s="151"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="151"/>
-      <c r="AJ20" s="151"/>
-      <c r="AK20" s="151"/>
-      <c r="AL20" s="151"/>
-      <c r="AM20" s="152"/>
-      <c r="AN20" s="153"/>
-      <c r="AO20" s="154"/>
-      <c r="AP20" s="154"/>
-      <c r="AQ20" s="154"/>
-      <c r="AR20" s="155"/>
-      <c r="AS20" s="153"/>
-      <c r="AT20" s="154"/>
-      <c r="AU20" s="154"/>
-      <c r="AV20" s="154"/>
-      <c r="AW20" s="155"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="144"/>
+      <c r="W20" s="145"/>
+      <c r="X20" s="145"/>
+      <c r="Y20" s="145"/>
+      <c r="Z20" s="145"/>
+      <c r="AA20" s="145"/>
+      <c r="AB20" s="145"/>
+      <c r="AC20" s="145"/>
+      <c r="AD20" s="145"/>
+      <c r="AE20" s="145"/>
+      <c r="AF20" s="145"/>
+      <c r="AG20" s="145"/>
+      <c r="AH20" s="145"/>
+      <c r="AI20" s="145"/>
+      <c r="AJ20" s="145"/>
+      <c r="AK20" s="145"/>
+      <c r="AL20" s="145"/>
+      <c r="AM20" s="146"/>
+      <c r="AN20" s="130"/>
+      <c r="AO20" s="131"/>
+      <c r="AP20" s="131"/>
+      <c r="AQ20" s="131"/>
+      <c r="AR20" s="132"/>
+      <c r="AS20" s="130"/>
+      <c r="AT20" s="131"/>
+      <c r="AU20" s="131"/>
+      <c r="AV20" s="131"/>
+      <c r="AW20" s="132"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="136"/>
       <c r="F21" s="136"/>
       <c r="G21" s="136"/>
@@ -6040,49 +6053,49 @@
       <c r="J21" s="137"/>
       <c r="K21" s="138"/>
       <c r="L21" s="139"/>
-      <c r="M21" s="147"/>
+      <c r="M21" s="150"/>
       <c r="N21" s="148"/>
       <c r="O21" s="148"/>
       <c r="P21" s="148"/>
       <c r="Q21" s="148"/>
       <c r="R21" s="149"/>
-      <c r="S21" s="134"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="134"/>
-      <c r="V21" s="150"/>
-      <c r="W21" s="151"/>
-      <c r="X21" s="151"/>
-      <c r="Y21" s="151"/>
-      <c r="Z21" s="151"/>
-      <c r="AA21" s="151"/>
-      <c r="AB21" s="151"/>
-      <c r="AC21" s="151"/>
-      <c r="AD21" s="151"/>
-      <c r="AE21" s="151"/>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="151"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="151"/>
-      <c r="AJ21" s="151"/>
-      <c r="AK21" s="151"/>
-      <c r="AL21" s="151"/>
-      <c r="AM21" s="152"/>
-      <c r="AN21" s="153"/>
-      <c r="AO21" s="154"/>
-      <c r="AP21" s="154"/>
-      <c r="AQ21" s="154"/>
-      <c r="AR21" s="155"/>
-      <c r="AS21" s="153"/>
-      <c r="AT21" s="154"/>
-      <c r="AU21" s="154"/>
-      <c r="AV21" s="154"/>
-      <c r="AW21" s="155"/>
+      <c r="S21" s="143"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="143"/>
+      <c r="V21" s="144"/>
+      <c r="W21" s="145"/>
+      <c r="X21" s="145"/>
+      <c r="Y21" s="145"/>
+      <c r="Z21" s="145"/>
+      <c r="AA21" s="145"/>
+      <c r="AB21" s="145"/>
+      <c r="AC21" s="145"/>
+      <c r="AD21" s="145"/>
+      <c r="AE21" s="145"/>
+      <c r="AF21" s="145"/>
+      <c r="AG21" s="145"/>
+      <c r="AH21" s="145"/>
+      <c r="AI21" s="145"/>
+      <c r="AJ21" s="145"/>
+      <c r="AK21" s="145"/>
+      <c r="AL21" s="145"/>
+      <c r="AM21" s="146"/>
+      <c r="AN21" s="130"/>
+      <c r="AO21" s="131"/>
+      <c r="AP21" s="131"/>
+      <c r="AQ21" s="131"/>
+      <c r="AR21" s="132"/>
+      <c r="AS21" s="130"/>
+      <c r="AT21" s="131"/>
+      <c r="AU21" s="131"/>
+      <c r="AV21" s="131"/>
+      <c r="AW21" s="132"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="59"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="146"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="136"/>
       <c r="F22" s="136"/>
       <c r="G22" s="136"/>
@@ -6091,49 +6104,49 @@
       <c r="J22" s="137"/>
       <c r="K22" s="138"/>
       <c r="L22" s="139"/>
-      <c r="M22" s="147"/>
+      <c r="M22" s="150"/>
       <c r="N22" s="148"/>
       <c r="O22" s="148"/>
       <c r="P22" s="148"/>
       <c r="Q22" s="148"/>
       <c r="R22" s="149"/>
-      <c r="S22" s="134"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="134"/>
-      <c r="V22" s="150"/>
-      <c r="W22" s="151"/>
-      <c r="X22" s="151"/>
-      <c r="Y22" s="151"/>
-      <c r="Z22" s="151"/>
-      <c r="AA22" s="151"/>
-      <c r="AB22" s="151"/>
-      <c r="AC22" s="151"/>
-      <c r="AD22" s="151"/>
-      <c r="AE22" s="151"/>
-      <c r="AF22" s="151"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="151"/>
-      <c r="AJ22" s="151"/>
-      <c r="AK22" s="151"/>
-      <c r="AL22" s="151"/>
-      <c r="AM22" s="152"/>
-      <c r="AN22" s="153"/>
-      <c r="AO22" s="154"/>
-      <c r="AP22" s="154"/>
-      <c r="AQ22" s="154"/>
-      <c r="AR22" s="155"/>
-      <c r="AS22" s="153"/>
-      <c r="AT22" s="154"/>
-      <c r="AU22" s="154"/>
-      <c r="AV22" s="154"/>
-      <c r="AW22" s="155"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="144"/>
+      <c r="W22" s="145"/>
+      <c r="X22" s="145"/>
+      <c r="Y22" s="145"/>
+      <c r="Z22" s="145"/>
+      <c r="AA22" s="145"/>
+      <c r="AB22" s="145"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="145"/>
+      <c r="AE22" s="145"/>
+      <c r="AF22" s="145"/>
+      <c r="AG22" s="145"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="145"/>
+      <c r="AJ22" s="145"/>
+      <c r="AK22" s="145"/>
+      <c r="AL22" s="145"/>
+      <c r="AM22" s="146"/>
+      <c r="AN22" s="130"/>
+      <c r="AO22" s="131"/>
+      <c r="AP22" s="131"/>
+      <c r="AQ22" s="131"/>
+      <c r="AR22" s="132"/>
+      <c r="AS22" s="130"/>
+      <c r="AT22" s="131"/>
+      <c r="AU22" s="131"/>
+      <c r="AV22" s="131"/>
+      <c r="AW22" s="132"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="135"/>
       <c r="E23" s="136"/>
       <c r="F23" s="136"/>
       <c r="G23" s="136"/>
@@ -6142,49 +6155,49 @@
       <c r="J23" s="137"/>
       <c r="K23" s="138"/>
       <c r="L23" s="139"/>
-      <c r="M23" s="147"/>
+      <c r="M23" s="150"/>
       <c r="N23" s="148"/>
       <c r="O23" s="148"/>
       <c r="P23" s="148"/>
       <c r="Q23" s="148"/>
       <c r="R23" s="149"/>
-      <c r="S23" s="134"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="134"/>
-      <c r="V23" s="150"/>
-      <c r="W23" s="151"/>
-      <c r="X23" s="151"/>
-      <c r="Y23" s="151"/>
-      <c r="Z23" s="151"/>
-      <c r="AA23" s="151"/>
-      <c r="AB23" s="151"/>
-      <c r="AC23" s="151"/>
-      <c r="AD23" s="151"/>
-      <c r="AE23" s="151"/>
-      <c r="AF23" s="151"/>
-      <c r="AG23" s="151"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="151"/>
-      <c r="AJ23" s="151"/>
-      <c r="AK23" s="151"/>
-      <c r="AL23" s="151"/>
-      <c r="AM23" s="152"/>
-      <c r="AN23" s="153"/>
-      <c r="AO23" s="154"/>
-      <c r="AP23" s="154"/>
-      <c r="AQ23" s="154"/>
-      <c r="AR23" s="155"/>
-      <c r="AS23" s="153"/>
-      <c r="AT23" s="154"/>
-      <c r="AU23" s="154"/>
-      <c r="AV23" s="154"/>
-      <c r="AW23" s="155"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="144"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="145"/>
+      <c r="Y23" s="145"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="145"/>
+      <c r="AB23" s="145"/>
+      <c r="AC23" s="145"/>
+      <c r="AD23" s="145"/>
+      <c r="AE23" s="145"/>
+      <c r="AF23" s="145"/>
+      <c r="AG23" s="145"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="145"/>
+      <c r="AJ23" s="145"/>
+      <c r="AK23" s="145"/>
+      <c r="AL23" s="145"/>
+      <c r="AM23" s="146"/>
+      <c r="AN23" s="130"/>
+      <c r="AO23" s="131"/>
+      <c r="AP23" s="131"/>
+      <c r="AQ23" s="131"/>
+      <c r="AR23" s="132"/>
+      <c r="AS23" s="130"/>
+      <c r="AT23" s="131"/>
+      <c r="AU23" s="131"/>
+      <c r="AV23" s="131"/>
+      <c r="AW23" s="132"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="146"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="135"/>
       <c r="E24" s="136"/>
       <c r="F24" s="136"/>
       <c r="G24" s="136"/>
@@ -6193,49 +6206,49 @@
       <c r="J24" s="137"/>
       <c r="K24" s="138"/>
       <c r="L24" s="139"/>
-      <c r="M24" s="147"/>
+      <c r="M24" s="150"/>
       <c r="N24" s="148"/>
       <c r="O24" s="148"/>
       <c r="P24" s="148"/>
       <c r="Q24" s="148"/>
       <c r="R24" s="149"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="134"/>
-      <c r="V24" s="150"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="151"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="151"/>
-      <c r="AB24" s="151"/>
-      <c r="AC24" s="151"/>
-      <c r="AD24" s="151"/>
-      <c r="AE24" s="151"/>
-      <c r="AF24" s="151"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="151"/>
-      <c r="AJ24" s="151"/>
-      <c r="AK24" s="151"/>
-      <c r="AL24" s="151"/>
-      <c r="AM24" s="152"/>
-      <c r="AN24" s="153"/>
-      <c r="AO24" s="154"/>
-      <c r="AP24" s="154"/>
-      <c r="AQ24" s="154"/>
-      <c r="AR24" s="155"/>
-      <c r="AS24" s="153"/>
-      <c r="AT24" s="154"/>
-      <c r="AU24" s="154"/>
-      <c r="AV24" s="154"/>
-      <c r="AW24" s="155"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="143"/>
+      <c r="U24" s="143"/>
+      <c r="V24" s="144"/>
+      <c r="W24" s="145"/>
+      <c r="X24" s="145"/>
+      <c r="Y24" s="145"/>
+      <c r="Z24" s="145"/>
+      <c r="AA24" s="145"/>
+      <c r="AB24" s="145"/>
+      <c r="AC24" s="145"/>
+      <c r="AD24" s="145"/>
+      <c r="AE24" s="145"/>
+      <c r="AF24" s="145"/>
+      <c r="AG24" s="145"/>
+      <c r="AH24" s="145"/>
+      <c r="AI24" s="145"/>
+      <c r="AJ24" s="145"/>
+      <c r="AK24" s="145"/>
+      <c r="AL24" s="145"/>
+      <c r="AM24" s="146"/>
+      <c r="AN24" s="130"/>
+      <c r="AO24" s="131"/>
+      <c r="AP24" s="131"/>
+      <c r="AQ24" s="131"/>
+      <c r="AR24" s="132"/>
+      <c r="AS24" s="130"/>
+      <c r="AT24" s="131"/>
+      <c r="AU24" s="131"/>
+      <c r="AV24" s="131"/>
+      <c r="AW24" s="132"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="135"/>
       <c r="E25" s="136"/>
       <c r="F25" s="136"/>
       <c r="G25" s="136"/>
@@ -6244,49 +6257,49 @@
       <c r="J25" s="137"/>
       <c r="K25" s="138"/>
       <c r="L25" s="139"/>
-      <c r="M25" s="158"/>
+      <c r="M25" s="147"/>
       <c r="N25" s="148"/>
       <c r="O25" s="148"/>
       <c r="P25" s="148"/>
       <c r="Q25" s="148"/>
       <c r="R25" s="149"/>
-      <c r="S25" s="134"/>
-      <c r="T25" s="134"/>
-      <c r="U25" s="134"/>
-      <c r="V25" s="150"/>
-      <c r="W25" s="151"/>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="151"/>
-      <c r="Z25" s="151"/>
-      <c r="AA25" s="151"/>
-      <c r="AB25" s="151"/>
-      <c r="AC25" s="151"/>
-      <c r="AD25" s="151"/>
-      <c r="AE25" s="151"/>
-      <c r="AF25" s="151"/>
-      <c r="AG25" s="151"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="151"/>
-      <c r="AJ25" s="151"/>
-      <c r="AK25" s="151"/>
-      <c r="AL25" s="151"/>
-      <c r="AM25" s="152"/>
-      <c r="AN25" s="153"/>
-      <c r="AO25" s="154"/>
-      <c r="AP25" s="154"/>
-      <c r="AQ25" s="154"/>
-      <c r="AR25" s="155"/>
-      <c r="AS25" s="153"/>
-      <c r="AT25" s="154"/>
-      <c r="AU25" s="154"/>
-      <c r="AV25" s="154"/>
-      <c r="AW25" s="155"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="144"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="145"/>
+      <c r="Y25" s="145"/>
+      <c r="Z25" s="145"/>
+      <c r="AA25" s="145"/>
+      <c r="AB25" s="145"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="145"/>
+      <c r="AE25" s="145"/>
+      <c r="AF25" s="145"/>
+      <c r="AG25" s="145"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="145"/>
+      <c r="AJ25" s="145"/>
+      <c r="AK25" s="145"/>
+      <c r="AL25" s="145"/>
+      <c r="AM25" s="146"/>
+      <c r="AN25" s="130"/>
+      <c r="AO25" s="131"/>
+      <c r="AP25" s="131"/>
+      <c r="AQ25" s="131"/>
+      <c r="AR25" s="132"/>
+      <c r="AS25" s="130"/>
+      <c r="AT25" s="131"/>
+      <c r="AU25" s="131"/>
+      <c r="AV25" s="131"/>
+      <c r="AW25" s="132"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="146"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135"/>
       <c r="E26" s="136"/>
       <c r="F26" s="136"/>
       <c r="G26" s="136"/>
@@ -6295,49 +6308,49 @@
       <c r="J26" s="137"/>
       <c r="K26" s="138"/>
       <c r="L26" s="139"/>
-      <c r="M26" s="158"/>
+      <c r="M26" s="147"/>
       <c r="N26" s="148"/>
       <c r="O26" s="148"/>
       <c r="P26" s="148"/>
       <c r="Q26" s="148"/>
       <c r="R26" s="149"/>
-      <c r="S26" s="134"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="134"/>
-      <c r="V26" s="150"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="151"/>
-      <c r="AB26" s="151"/>
-      <c r="AC26" s="151"/>
-      <c r="AD26" s="151"/>
-      <c r="AE26" s="151"/>
-      <c r="AF26" s="151"/>
-      <c r="AG26" s="151"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="151"/>
-      <c r="AJ26" s="151"/>
-      <c r="AK26" s="151"/>
-      <c r="AL26" s="151"/>
-      <c r="AM26" s="152"/>
-      <c r="AN26" s="153"/>
-      <c r="AO26" s="154"/>
-      <c r="AP26" s="154"/>
-      <c r="AQ26" s="154"/>
-      <c r="AR26" s="155"/>
-      <c r="AS26" s="153"/>
-      <c r="AT26" s="154"/>
-      <c r="AU26" s="154"/>
-      <c r="AV26" s="154"/>
-      <c r="AW26" s="155"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="144"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="145"/>
+      <c r="AA26" s="145"/>
+      <c r="AB26" s="145"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="145"/>
+      <c r="AE26" s="145"/>
+      <c r="AF26" s="145"/>
+      <c r="AG26" s="145"/>
+      <c r="AH26" s="145"/>
+      <c r="AI26" s="145"/>
+      <c r="AJ26" s="145"/>
+      <c r="AK26" s="145"/>
+      <c r="AL26" s="145"/>
+      <c r="AM26" s="146"/>
+      <c r="AN26" s="130"/>
+      <c r="AO26" s="131"/>
+      <c r="AP26" s="131"/>
+      <c r="AQ26" s="131"/>
+      <c r="AR26" s="132"/>
+      <c r="AS26" s="130"/>
+      <c r="AT26" s="131"/>
+      <c r="AU26" s="131"/>
+      <c r="AV26" s="131"/>
+      <c r="AW26" s="132"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="57"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="146"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="135"/>
       <c r="E27" s="136"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136"/>
@@ -6346,49 +6359,49 @@
       <c r="J27" s="137"/>
       <c r="K27" s="138"/>
       <c r="L27" s="139"/>
-      <c r="M27" s="158"/>
+      <c r="M27" s="147"/>
       <c r="N27" s="148"/>
       <c r="O27" s="148"/>
       <c r="P27" s="148"/>
       <c r="Q27" s="148"/>
       <c r="R27" s="149"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="151"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="151"/>
-      <c r="AE27" s="151"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="151"/>
-      <c r="AJ27" s="151"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="151"/>
-      <c r="AM27" s="152"/>
-      <c r="AN27" s="153"/>
-      <c r="AO27" s="154"/>
-      <c r="AP27" s="154"/>
-      <c r="AQ27" s="154"/>
-      <c r="AR27" s="155"/>
-      <c r="AS27" s="153"/>
-      <c r="AT27" s="154"/>
-      <c r="AU27" s="154"/>
-      <c r="AV27" s="154"/>
-      <c r="AW27" s="155"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="144"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="145"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="145"/>
+      <c r="AB27" s="145"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="145"/>
+      <c r="AG27" s="145"/>
+      <c r="AH27" s="145"/>
+      <c r="AI27" s="145"/>
+      <c r="AJ27" s="145"/>
+      <c r="AK27" s="145"/>
+      <c r="AL27" s="145"/>
+      <c r="AM27" s="146"/>
+      <c r="AN27" s="130"/>
+      <c r="AO27" s="131"/>
+      <c r="AP27" s="131"/>
+      <c r="AQ27" s="131"/>
+      <c r="AR27" s="132"/>
+      <c r="AS27" s="130"/>
+      <c r="AT27" s="131"/>
+      <c r="AU27" s="131"/>
+      <c r="AV27" s="131"/>
+      <c r="AW27" s="132"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="146"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="135"/>
       <c r="E28" s="136"/>
       <c r="F28" s="136"/>
       <c r="G28" s="136"/>
@@ -6397,49 +6410,49 @@
       <c r="J28" s="137"/>
       <c r="K28" s="138"/>
       <c r="L28" s="139"/>
-      <c r="M28" s="147"/>
+      <c r="M28" s="150"/>
       <c r="N28" s="148"/>
       <c r="O28" s="148"/>
       <c r="P28" s="148"/>
       <c r="Q28" s="148"/>
       <c r="R28" s="149"/>
-      <c r="S28" s="134"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="134"/>
-      <c r="V28" s="150"/>
-      <c r="W28" s="151"/>
-      <c r="X28" s="151"/>
-      <c r="Y28" s="151"/>
-      <c r="Z28" s="151"/>
-      <c r="AA28" s="151"/>
-      <c r="AB28" s="151"/>
-      <c r="AC28" s="151"/>
-      <c r="AD28" s="151"/>
-      <c r="AE28" s="151"/>
-      <c r="AF28" s="151"/>
-      <c r="AG28" s="151"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="151"/>
-      <c r="AJ28" s="151"/>
-      <c r="AK28" s="151"/>
-      <c r="AL28" s="151"/>
-      <c r="AM28" s="152"/>
-      <c r="AN28" s="153"/>
-      <c r="AO28" s="154"/>
-      <c r="AP28" s="154"/>
-      <c r="AQ28" s="154"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="153"/>
-      <c r="AT28" s="154"/>
-      <c r="AU28" s="154"/>
-      <c r="AV28" s="154"/>
-      <c r="AW28" s="155"/>
+      <c r="S28" s="143"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="143"/>
+      <c r="V28" s="144"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="145"/>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="145"/>
+      <c r="AK28" s="145"/>
+      <c r="AL28" s="145"/>
+      <c r="AM28" s="146"/>
+      <c r="AN28" s="130"/>
+      <c r="AO28" s="131"/>
+      <c r="AP28" s="131"/>
+      <c r="AQ28" s="131"/>
+      <c r="AR28" s="132"/>
+      <c r="AS28" s="130"/>
+      <c r="AT28" s="131"/>
+      <c r="AU28" s="131"/>
+      <c r="AV28" s="131"/>
+      <c r="AW28" s="132"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="146"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
       <c r="E29" s="136"/>
       <c r="F29" s="136"/>
       <c r="G29" s="136"/>
@@ -6448,49 +6461,49 @@
       <c r="J29" s="137"/>
       <c r="K29" s="138"/>
       <c r="L29" s="139"/>
-      <c r="M29" s="147"/>
+      <c r="M29" s="150"/>
       <c r="N29" s="148"/>
       <c r="O29" s="148"/>
       <c r="P29" s="148"/>
       <c r="Q29" s="148"/>
       <c r="R29" s="149"/>
-      <c r="S29" s="134"/>
-      <c r="T29" s="134"/>
-      <c r="U29" s="134"/>
-      <c r="V29" s="150"/>
-      <c r="W29" s="151"/>
-      <c r="X29" s="151"/>
-      <c r="Y29" s="151"/>
-      <c r="Z29" s="151"/>
-      <c r="AA29" s="151"/>
-      <c r="AB29" s="151"/>
-      <c r="AC29" s="151"/>
-      <c r="AD29" s="151"/>
-      <c r="AE29" s="151"/>
-      <c r="AF29" s="151"/>
-      <c r="AG29" s="151"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="151"/>
-      <c r="AJ29" s="151"/>
-      <c r="AK29" s="151"/>
-      <c r="AL29" s="151"/>
-      <c r="AM29" s="152"/>
-      <c r="AN29" s="153"/>
-      <c r="AO29" s="154"/>
-      <c r="AP29" s="154"/>
-      <c r="AQ29" s="154"/>
-      <c r="AR29" s="155"/>
-      <c r="AS29" s="153"/>
-      <c r="AT29" s="154"/>
-      <c r="AU29" s="154"/>
-      <c r="AV29" s="154"/>
-      <c r="AW29" s="155"/>
+      <c r="S29" s="143"/>
+      <c r="T29" s="143"/>
+      <c r="U29" s="143"/>
+      <c r="V29" s="144"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="145"/>
+      <c r="AG29" s="145"/>
+      <c r="AH29" s="145"/>
+      <c r="AI29" s="145"/>
+      <c r="AJ29" s="145"/>
+      <c r="AK29" s="145"/>
+      <c r="AL29" s="145"/>
+      <c r="AM29" s="146"/>
+      <c r="AN29" s="130"/>
+      <c r="AO29" s="131"/>
+      <c r="AP29" s="131"/>
+      <c r="AQ29" s="131"/>
+      <c r="AR29" s="132"/>
+      <c r="AS29" s="130"/>
+      <c r="AT29" s="131"/>
+      <c r="AU29" s="131"/>
+      <c r="AV29" s="131"/>
+      <c r="AW29" s="132"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="146"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="135"/>
       <c r="E30" s="136"/>
       <c r="F30" s="136"/>
       <c r="G30" s="136"/>
@@ -6499,49 +6512,49 @@
       <c r="J30" s="137"/>
       <c r="K30" s="138"/>
       <c r="L30" s="139"/>
-      <c r="M30" s="158"/>
+      <c r="M30" s="147"/>
       <c r="N30" s="148"/>
       <c r="O30" s="148"/>
       <c r="P30" s="148"/>
       <c r="Q30" s="148"/>
       <c r="R30" s="149"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
-      <c r="V30" s="150"/>
-      <c r="W30" s="151"/>
-      <c r="X30" s="151"/>
-      <c r="Y30" s="151"/>
-      <c r="Z30" s="151"/>
-      <c r="AA30" s="151"/>
-      <c r="AB30" s="151"/>
-      <c r="AC30" s="151"/>
-      <c r="AD30" s="151"/>
-      <c r="AE30" s="151"/>
-      <c r="AF30" s="151"/>
-      <c r="AG30" s="151"/>
-      <c r="AH30" s="151"/>
-      <c r="AI30" s="151"/>
-      <c r="AJ30" s="151"/>
-      <c r="AK30" s="151"/>
-      <c r="AL30" s="151"/>
-      <c r="AM30" s="152"/>
-      <c r="AN30" s="153"/>
-      <c r="AO30" s="154"/>
-      <c r="AP30" s="154"/>
-      <c r="AQ30" s="154"/>
-      <c r="AR30" s="155"/>
-      <c r="AS30" s="153"/>
-      <c r="AT30" s="154"/>
-      <c r="AU30" s="154"/>
-      <c r="AV30" s="154"/>
-      <c r="AW30" s="155"/>
+      <c r="S30" s="143"/>
+      <c r="T30" s="143"/>
+      <c r="U30" s="143"/>
+      <c r="V30" s="144"/>
+      <c r="W30" s="145"/>
+      <c r="X30" s="145"/>
+      <c r="Y30" s="145"/>
+      <c r="Z30" s="145"/>
+      <c r="AA30" s="145"/>
+      <c r="AB30" s="145"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="145"/>
+      <c r="AE30" s="145"/>
+      <c r="AF30" s="145"/>
+      <c r="AG30" s="145"/>
+      <c r="AH30" s="145"/>
+      <c r="AI30" s="145"/>
+      <c r="AJ30" s="145"/>
+      <c r="AK30" s="145"/>
+      <c r="AL30" s="145"/>
+      <c r="AM30" s="146"/>
+      <c r="AN30" s="130"/>
+      <c r="AO30" s="131"/>
+      <c r="AP30" s="131"/>
+      <c r="AQ30" s="131"/>
+      <c r="AR30" s="132"/>
+      <c r="AS30" s="130"/>
+      <c r="AT30" s="131"/>
+      <c r="AU30" s="131"/>
+      <c r="AV30" s="131"/>
+      <c r="AW30" s="132"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="146"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="136"/>
       <c r="F31" s="136"/>
       <c r="G31" s="136"/>
@@ -6550,49 +6563,49 @@
       <c r="J31" s="137"/>
       <c r="K31" s="138"/>
       <c r="L31" s="139"/>
-      <c r="M31" s="158"/>
+      <c r="M31" s="147"/>
       <c r="N31" s="148"/>
       <c r="O31" s="148"/>
       <c r="P31" s="148"/>
       <c r="Q31" s="148"/>
       <c r="R31" s="149"/>
-      <c r="S31" s="134"/>
-      <c r="T31" s="134"/>
-      <c r="U31" s="134"/>
-      <c r="V31" s="150"/>
-      <c r="W31" s="151"/>
-      <c r="X31" s="151"/>
-      <c r="Y31" s="151"/>
-      <c r="Z31" s="151"/>
-      <c r="AA31" s="151"/>
-      <c r="AB31" s="151"/>
-      <c r="AC31" s="151"/>
-      <c r="AD31" s="151"/>
-      <c r="AE31" s="151"/>
-      <c r="AF31" s="151"/>
-      <c r="AG31" s="151"/>
-      <c r="AH31" s="151"/>
-      <c r="AI31" s="151"/>
-      <c r="AJ31" s="151"/>
-      <c r="AK31" s="151"/>
-      <c r="AL31" s="151"/>
-      <c r="AM31" s="152"/>
-      <c r="AN31" s="153"/>
-      <c r="AO31" s="154"/>
-      <c r="AP31" s="154"/>
-      <c r="AQ31" s="154"/>
-      <c r="AR31" s="155"/>
-      <c r="AS31" s="153"/>
-      <c r="AT31" s="154"/>
-      <c r="AU31" s="154"/>
-      <c r="AV31" s="154"/>
-      <c r="AW31" s="155"/>
+      <c r="S31" s="143"/>
+      <c r="T31" s="143"/>
+      <c r="U31" s="143"/>
+      <c r="V31" s="144"/>
+      <c r="W31" s="145"/>
+      <c r="X31" s="145"/>
+      <c r="Y31" s="145"/>
+      <c r="Z31" s="145"/>
+      <c r="AA31" s="145"/>
+      <c r="AB31" s="145"/>
+      <c r="AC31" s="145"/>
+      <c r="AD31" s="145"/>
+      <c r="AE31" s="145"/>
+      <c r="AF31" s="145"/>
+      <c r="AG31" s="145"/>
+      <c r="AH31" s="145"/>
+      <c r="AI31" s="145"/>
+      <c r="AJ31" s="145"/>
+      <c r="AK31" s="145"/>
+      <c r="AL31" s="145"/>
+      <c r="AM31" s="146"/>
+      <c r="AN31" s="130"/>
+      <c r="AO31" s="131"/>
+      <c r="AP31" s="131"/>
+      <c r="AQ31" s="131"/>
+      <c r="AR31" s="132"/>
+      <c r="AS31" s="130"/>
+      <c r="AT31" s="131"/>
+      <c r="AU31" s="131"/>
+      <c r="AV31" s="131"/>
+      <c r="AW31" s="132"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="146"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="135"/>
       <c r="E32" s="136"/>
       <c r="F32" s="136"/>
       <c r="G32" s="136"/>
@@ -6601,48 +6614,48 @@
       <c r="J32" s="137"/>
       <c r="K32" s="138"/>
       <c r="L32" s="139"/>
-      <c r="M32" s="158"/>
+      <c r="M32" s="147"/>
       <c r="N32" s="148"/>
       <c r="O32" s="148"/>
       <c r="P32" s="148"/>
       <c r="Q32" s="148"/>
       <c r="R32" s="149"/>
-      <c r="S32" s="134"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="150"/>
-      <c r="W32" s="151"/>
-      <c r="X32" s="151"/>
-      <c r="Y32" s="151"/>
-      <c r="Z32" s="151"/>
-      <c r="AA32" s="151"/>
-      <c r="AB32" s="151"/>
-      <c r="AC32" s="151"/>
-      <c r="AD32" s="151"/>
-      <c r="AE32" s="151"/>
-      <c r="AF32" s="151"/>
-      <c r="AG32" s="151"/>
-      <c r="AH32" s="151"/>
-      <c r="AI32" s="151"/>
-      <c r="AJ32" s="151"/>
-      <c r="AK32" s="151"/>
-      <c r="AL32" s="151"/>
-      <c r="AM32" s="152"/>
-      <c r="AN32" s="153"/>
-      <c r="AO32" s="154"/>
-      <c r="AP32" s="154"/>
-      <c r="AQ32" s="154"/>
-      <c r="AR32" s="155"/>
-      <c r="AS32" s="153"/>
-      <c r="AT32" s="154"/>
-      <c r="AU32" s="154"/>
-      <c r="AV32" s="154"/>
-      <c r="AW32" s="155"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="143"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="144"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="145"/>
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="145"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="145"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="145"/>
+      <c r="AF32" s="145"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="145"/>
+      <c r="AI32" s="145"/>
+      <c r="AJ32" s="145"/>
+      <c r="AK32" s="145"/>
+      <c r="AL32" s="145"/>
+      <c r="AM32" s="146"/>
+      <c r="AN32" s="130"/>
+      <c r="AO32" s="131"/>
+      <c r="AP32" s="131"/>
+      <c r="AQ32" s="131"/>
+      <c r="AR32" s="132"/>
+      <c r="AS32" s="130"/>
+      <c r="AT32" s="131"/>
+      <c r="AU32" s="131"/>
+      <c r="AV32" s="131"/>
+      <c r="AW32" s="132"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="144"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="135"/>
       <c r="E33" s="136"/>
       <c r="F33" s="136"/>
       <c r="G33" s="136"/>
@@ -6651,48 +6664,48 @@
       <c r="J33" s="137"/>
       <c r="K33" s="138"/>
       <c r="L33" s="139"/>
-      <c r="M33" s="158"/>
+      <c r="M33" s="147"/>
       <c r="N33" s="148"/>
       <c r="O33" s="148"/>
       <c r="P33" s="148"/>
       <c r="Q33" s="148"/>
       <c r="R33" s="149"/>
-      <c r="S33" s="134"/>
-      <c r="T33" s="134"/>
-      <c r="U33" s="134"/>
-      <c r="V33" s="150"/>
-      <c r="W33" s="151"/>
-      <c r="X33" s="151"/>
-      <c r="Y33" s="151"/>
-      <c r="Z33" s="151"/>
-      <c r="AA33" s="151"/>
-      <c r="AB33" s="151"/>
-      <c r="AC33" s="151"/>
-      <c r="AD33" s="151"/>
-      <c r="AE33" s="151"/>
-      <c r="AF33" s="151"/>
-      <c r="AG33" s="151"/>
-      <c r="AH33" s="151"/>
-      <c r="AI33" s="151"/>
-      <c r="AJ33" s="151"/>
-      <c r="AK33" s="151"/>
-      <c r="AL33" s="151"/>
-      <c r="AM33" s="152"/>
-      <c r="AN33" s="153"/>
-      <c r="AO33" s="154"/>
-      <c r="AP33" s="154"/>
-      <c r="AQ33" s="154"/>
-      <c r="AR33" s="155"/>
-      <c r="AS33" s="153"/>
-      <c r="AT33" s="154"/>
-      <c r="AU33" s="154"/>
-      <c r="AV33" s="154"/>
-      <c r="AW33" s="155"/>
+      <c r="S33" s="143"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="143"/>
+      <c r="V33" s="144"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="145"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="145"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="145"/>
+      <c r="AJ33" s="145"/>
+      <c r="AK33" s="145"/>
+      <c r="AL33" s="145"/>
+      <c r="AM33" s="146"/>
+      <c r="AN33" s="130"/>
+      <c r="AO33" s="131"/>
+      <c r="AP33" s="131"/>
+      <c r="AQ33" s="131"/>
+      <c r="AR33" s="132"/>
+      <c r="AS33" s="130"/>
+      <c r="AT33" s="131"/>
+      <c r="AU33" s="131"/>
+      <c r="AV33" s="131"/>
+      <c r="AW33" s="132"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="144"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="146"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="135"/>
       <c r="E34" s="136"/>
       <c r="F34" s="136"/>
       <c r="G34" s="136"/>
@@ -6701,46 +6714,279 @@
       <c r="J34" s="137"/>
       <c r="K34" s="138"/>
       <c r="L34" s="139"/>
-      <c r="M34" s="162"/>
-      <c r="N34" s="163"/>
-      <c r="O34" s="163"/>
-      <c r="P34" s="163"/>
-      <c r="Q34" s="163"/>
-      <c r="R34" s="164"/>
-      <c r="S34" s="134"/>
-      <c r="T34" s="134"/>
-      <c r="U34" s="134"/>
-      <c r="V34" s="150"/>
-      <c r="W34" s="151"/>
-      <c r="X34" s="151"/>
-      <c r="Y34" s="151"/>
-      <c r="Z34" s="151"/>
-      <c r="AA34" s="151"/>
-      <c r="AB34" s="151"/>
-      <c r="AC34" s="151"/>
-      <c r="AD34" s="151"/>
-      <c r="AE34" s="151"/>
-      <c r="AF34" s="151"/>
-      <c r="AG34" s="151"/>
-      <c r="AH34" s="151"/>
-      <c r="AI34" s="151"/>
-      <c r="AJ34" s="151"/>
-      <c r="AK34" s="151"/>
-      <c r="AL34" s="151"/>
-      <c r="AM34" s="152"/>
-      <c r="AN34" s="153"/>
-      <c r="AO34" s="154"/>
-      <c r="AP34" s="154"/>
-      <c r="AQ34" s="154"/>
-      <c r="AR34" s="155"/>
-      <c r="AS34" s="153"/>
-      <c r="AT34" s="154"/>
-      <c r="AU34" s="154"/>
-      <c r="AV34" s="154"/>
-      <c r="AW34" s="155"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="141"/>
+      <c r="P34" s="141"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="142"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="143"/>
+      <c r="U34" s="143"/>
+      <c r="V34" s="144"/>
+      <c r="W34" s="145"/>
+      <c r="X34" s="145"/>
+      <c r="Y34" s="145"/>
+      <c r="Z34" s="145"/>
+      <c r="AA34" s="145"/>
+      <c r="AB34" s="145"/>
+      <c r="AC34" s="145"/>
+      <c r="AD34" s="145"/>
+      <c r="AE34" s="145"/>
+      <c r="AF34" s="145"/>
+      <c r="AG34" s="145"/>
+      <c r="AH34" s="145"/>
+      <c r="AI34" s="145"/>
+      <c r="AJ34" s="145"/>
+      <c r="AK34" s="145"/>
+      <c r="AL34" s="145"/>
+      <c r="AM34" s="146"/>
+      <c r="AN34" s="130"/>
+      <c r="AO34" s="131"/>
+      <c r="AP34" s="131"/>
+      <c r="AQ34" s="131"/>
+      <c r="AR34" s="132"/>
+      <c r="AS34" s="130"/>
+      <c r="AT34" s="131"/>
+      <c r="AU34" s="131"/>
+      <c r="AV34" s="131"/>
+      <c r="AW34" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6757,239 +7003,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7149,11 +7162,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="167"/>
-      <c r="AP2" s="168"/>
-      <c r="AQ2" s="168"/>
-      <c r="AR2" s="168"/>
-      <c r="AS2" s="169"/>
+      <c r="AO2" s="176"/>
+      <c r="AP2" s="177"/>
+      <c r="AQ2" s="177"/>
+      <c r="AR2" s="177"/>
+      <c r="AS2" s="178"/>
       <c r="AT2" s="33" t="s">
         <v>26</v>
       </c>
@@ -7162,14 +7175,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="170"/>
-      <c r="BA2" s="171"/>
-      <c r="BB2" s="171"/>
-      <c r="BC2" s="171"/>
-      <c r="BD2" s="171"/>
-      <c r="BE2" s="171"/>
-      <c r="BF2" s="171"/>
-      <c r="BG2" s="172"/>
+      <c r="AZ2" s="179"/>
+      <c r="BA2" s="180"/>
+      <c r="BB2" s="180"/>
+      <c r="BC2" s="180"/>
+      <c r="BD2" s="180"/>
+      <c r="BE2" s="180"/>
+      <c r="BF2" s="180"/>
+      <c r="BG2" s="181"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -8568,10 +8581,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="173" t="s">
+      <c r="B43" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="174"/>
+      <c r="C43" s="183"/>
       <c r="D43" s="80" t="s">
         <v>102</v>
       </c>
@@ -8654,10 +8667,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="175">
+      <c r="B44" s="184">
         <v>1</v>
       </c>
-      <c r="C44" s="176"/>
+      <c r="C44" s="185"/>
       <c r="D44" s="104" t="s">
         <v>153</v>
       </c>
@@ -8689,22 +8702,22 @@
       <c r="AB44" s="79"/>
       <c r="AC44" s="79"/>
       <c r="AD44" s="105"/>
-      <c r="AE44" s="165" t="s">
+      <c r="AE44" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="AF44" s="166"/>
-      <c r="AG44" s="165" t="s">
+      <c r="AF44" s="175"/>
+      <c r="AG44" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="AH44" s="166"/>
-      <c r="AI44" s="165" t="s">
+      <c r="AH44" s="175"/>
+      <c r="AI44" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="AJ44" s="166"/>
-      <c r="AK44" s="165" t="s">
+      <c r="AJ44" s="175"/>
+      <c r="AK44" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="AL44" s="166"/>
+      <c r="AL44" s="175"/>
       <c r="AM44" s="76" t="s">
         <v>192</v>
       </c>
@@ -8738,10 +8751,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="113"/>
-      <c r="B45" s="177">
+      <c r="B45" s="170">
         <v>2</v>
       </c>
-      <c r="C45" s="178"/>
+      <c r="C45" s="171"/>
       <c r="D45" s="114" t="s">
         <v>224</v>
       </c>
@@ -8773,16 +8786,16 @@
       <c r="AB45" s="115"/>
       <c r="AC45" s="115"/>
       <c r="AD45" s="116"/>
-      <c r="AE45" s="179" t="s">
+      <c r="AE45" s="172" t="s">
         <v>111</v>
       </c>
-      <c r="AF45" s="180"/>
-      <c r="AG45" s="179"/>
-      <c r="AH45" s="180"/>
-      <c r="AI45" s="179"/>
-      <c r="AJ45" s="180"/>
-      <c r="AK45" s="179"/>
-      <c r="AL45" s="180"/>
+      <c r="AF45" s="173"/>
+      <c r="AG45" s="172"/>
+      <c r="AH45" s="173"/>
+      <c r="AI45" s="172"/>
+      <c r="AJ45" s="173"/>
+      <c r="AK45" s="172"/>
+      <c r="AL45" s="173"/>
       <c r="AM45" s="117" t="s">
         <v>226</v>
       </c>
@@ -8808,11 +8821,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
     <mergeCell ref="AI44:AJ44"/>
     <mergeCell ref="AK44:AL44"/>
     <mergeCell ref="AO2:AS2"/>
@@ -8821,6 +8829,11 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="AE44:AF44"/>
     <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8944,20 +8957,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="183">
+      <c r="CD1" s="188">
         <f>変更履歴!E5</f>
         <v>43706</v>
       </c>
-      <c r="CE1" s="184"/>
-      <c r="CF1" s="184"/>
-      <c r="CG1" s="184"/>
-      <c r="CH1" s="184"/>
-      <c r="CI1" s="184"/>
-      <c r="CJ1" s="184"/>
-      <c r="CK1" s="184"/>
-      <c r="CL1" s="184"/>
-      <c r="CM1" s="184"/>
-      <c r="CN1" s="185"/>
+      <c r="CE1" s="189"/>
+      <c r="CF1" s="189"/>
+      <c r="CG1" s="189"/>
+      <c r="CH1" s="189"/>
+      <c r="CI1" s="189"/>
+      <c r="CJ1" s="189"/>
+      <c r="CK1" s="189"/>
+      <c r="CL1" s="189"/>
+      <c r="CM1" s="189"/>
+      <c r="CN1" s="190"/>
       <c r="CO1" s="33" t="s">
         <v>25</v>
       </c>
@@ -8966,23 +8979,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="170" t="str">
+      <c r="CU1" s="179" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="CV1" s="181"/>
-      <c r="CW1" s="181"/>
-      <c r="CX1" s="181"/>
-      <c r="CY1" s="181"/>
-      <c r="CZ1" s="181"/>
-      <c r="DA1" s="181"/>
-      <c r="DB1" s="181"/>
-      <c r="DC1" s="181"/>
-      <c r="DD1" s="181"/>
-      <c r="DE1" s="181"/>
-      <c r="DF1" s="181"/>
-      <c r="DG1" s="181"/>
-      <c r="DH1" s="182"/>
+      <c r="CV1" s="186"/>
+      <c r="CW1" s="186"/>
+      <c r="CX1" s="186"/>
+      <c r="CY1" s="186"/>
+      <c r="CZ1" s="186"/>
+      <c r="DA1" s="186"/>
+      <c r="DB1" s="186"/>
+      <c r="DC1" s="186"/>
+      <c r="DD1" s="186"/>
+      <c r="DE1" s="186"/>
+      <c r="DF1" s="186"/>
+      <c r="DG1" s="186"/>
+      <c r="DH1" s="187"/>
     </row>
     <row r="2" spans="1:113" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -9037,39 +9050,39 @@
       <c r="AQ2" s="87"/>
       <c r="AR2" s="87"/>
       <c r="AS2" s="88"/>
-      <c r="AT2" s="187" t="str">
+      <c r="AT2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
         <v>ＩＰアドレス管理マスタ</v>
       </c>
-      <c r="AU2" s="188"/>
-      <c r="AV2" s="188"/>
-      <c r="AW2" s="188"/>
-      <c r="AX2" s="188"/>
-      <c r="AY2" s="188"/>
-      <c r="AZ2" s="188"/>
-      <c r="BA2" s="188"/>
-      <c r="BB2" s="188"/>
-      <c r="BC2" s="188"/>
-      <c r="BD2" s="188"/>
-      <c r="BE2" s="188"/>
-      <c r="BF2" s="188"/>
-      <c r="BG2" s="188"/>
-      <c r="BH2" s="188"/>
-      <c r="BI2" s="188"/>
-      <c r="BJ2" s="188"/>
-      <c r="BK2" s="188"/>
-      <c r="BL2" s="188"/>
-      <c r="BM2" s="188"/>
-      <c r="BN2" s="188"/>
-      <c r="BO2" s="188"/>
-      <c r="BP2" s="188"/>
-      <c r="BQ2" s="188"/>
-      <c r="BR2" s="188"/>
-      <c r="BS2" s="188"/>
-      <c r="BT2" s="188"/>
-      <c r="BU2" s="188"/>
-      <c r="BV2" s="188"/>
-      <c r="BW2" s="189"/>
+      <c r="AU2" s="193"/>
+      <c r="AV2" s="193"/>
+      <c r="AW2" s="193"/>
+      <c r="AX2" s="193"/>
+      <c r="AY2" s="193"/>
+      <c r="AZ2" s="193"/>
+      <c r="BA2" s="193"/>
+      <c r="BB2" s="193"/>
+      <c r="BC2" s="193"/>
+      <c r="BD2" s="193"/>
+      <c r="BE2" s="193"/>
+      <c r="BF2" s="193"/>
+      <c r="BG2" s="193"/>
+      <c r="BH2" s="193"/>
+      <c r="BI2" s="193"/>
+      <c r="BJ2" s="193"/>
+      <c r="BK2" s="193"/>
+      <c r="BL2" s="193"/>
+      <c r="BM2" s="193"/>
+      <c r="BN2" s="193"/>
+      <c r="BO2" s="193"/>
+      <c r="BP2" s="193"/>
+      <c r="BQ2" s="193"/>
+      <c r="BR2" s="193"/>
+      <c r="BS2" s="193"/>
+      <c r="BT2" s="193"/>
+      <c r="BU2" s="193"/>
+      <c r="BV2" s="193"/>
+      <c r="BW2" s="194"/>
       <c r="BX2" s="33" t="s">
         <v>24</v>
       </c>
@@ -9078,17 +9091,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="186"/>
-      <c r="CE2" s="181"/>
-      <c r="CF2" s="181"/>
-      <c r="CG2" s="181"/>
-      <c r="CH2" s="181"/>
-      <c r="CI2" s="181"/>
-      <c r="CJ2" s="181"/>
-      <c r="CK2" s="181"/>
-      <c r="CL2" s="181"/>
-      <c r="CM2" s="181"/>
-      <c r="CN2" s="182"/>
+      <c r="CD2" s="191"/>
+      <c r="CE2" s="186"/>
+      <c r="CF2" s="186"/>
+      <c r="CG2" s="186"/>
+      <c r="CH2" s="186"/>
+      <c r="CI2" s="186"/>
+      <c r="CJ2" s="186"/>
+      <c r="CK2" s="186"/>
+      <c r="CL2" s="186"/>
+      <c r="CM2" s="186"/>
+      <c r="CN2" s="187"/>
       <c r="CO2" s="33" t="s">
         <v>26</v>
       </c>
@@ -9097,20 +9110,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="170"/>
-      <c r="CV2" s="181"/>
-      <c r="CW2" s="181"/>
-      <c r="CX2" s="181"/>
-      <c r="CY2" s="181"/>
-      <c r="CZ2" s="181"/>
-      <c r="DA2" s="181"/>
-      <c r="DB2" s="181"/>
-      <c r="DC2" s="181"/>
-      <c r="DD2" s="181"/>
-      <c r="DE2" s="181"/>
-      <c r="DF2" s="181"/>
-      <c r="DG2" s="181"/>
-      <c r="DH2" s="182"/>
+      <c r="CU2" s="179"/>
+      <c r="CV2" s="186"/>
+      <c r="CW2" s="186"/>
+      <c r="CX2" s="186"/>
+      <c r="CY2" s="186"/>
+      <c r="CZ2" s="186"/>
+      <c r="DA2" s="186"/>
+      <c r="DB2" s="186"/>
+      <c r="DC2" s="186"/>
+      <c r="DD2" s="186"/>
+      <c r="DE2" s="186"/>
+      <c r="DF2" s="186"/>
+      <c r="DG2" s="186"/>
+      <c r="DH2" s="187"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="55"/>
@@ -9313,37 +9326,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="127" t="s">
+      <c r="E6" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="F6" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="127" t="s">
+      <c r="G6" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="127" t="s">
+      <c r="H6" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="190" t="s">
+      <c r="I6" s="197" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="190" t="s">
+      <c r="J6" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="127" t="s">
+      <c r="K6" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="127" t="s">
+      <c r="L6" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="127" t="s">
+      <c r="M6" s="163" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="69" t="s">
@@ -9351,24 +9364,24 @@
       </c>
       <c r="O6" s="69"/>
       <c r="P6" s="69"/>
-      <c r="Q6" s="190" t="s">
+      <c r="Q6" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="190"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
       <c r="N7" s="42" t="s">
         <v>80</v>
       </c>
@@ -9378,7 +9391,7 @@
       <c r="P7" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="190"/>
+      <c r="Q7" s="197"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -9681,37 +9694,37 @@
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="127" t="s">
+      <c r="D16" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="127" t="s">
+      <c r="E16" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="127" t="s">
+      <c r="H16" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="191" t="s">
+      <c r="I16" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="190" t="s">
+      <c r="J16" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="127" t="s">
+      <c r="K16" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="127" t="s">
+      <c r="L16" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="127" t="s">
+      <c r="M16" s="163" t="s">
         <v>33</v>
       </c>
       <c r="N16" s="69" t="s">
@@ -9719,24 +9732,24 @@
       </c>
       <c r="O16" s="69"/>
       <c r="P16" s="69"/>
-      <c r="Q16" s="191" t="s">
+      <c r="Q16" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
       <c r="N17" s="42" t="s">
         <v>80</v>
       </c>
@@ -9746,7 +9759,7 @@
       <c r="P17" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q17" s="192"/>
+      <c r="Q17" s="196"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C18" s="7">
@@ -9906,37 +9919,37 @@
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="61"/>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="127" t="s">
+      <c r="D23" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="127" t="s">
+      <c r="E23" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="127" t="s">
+      <c r="F23" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="127" t="s">
+      <c r="G23" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="127" t="s">
+      <c r="H23" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="190" t="s">
+      <c r="I23" s="197" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="190" t="s">
+      <c r="J23" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="127" t="s">
+      <c r="K23" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="127" t="s">
+      <c r="L23" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="127" t="s">
+      <c r="M23" s="163" t="s">
         <v>33</v>
       </c>
       <c r="N23" s="69" t="s">
@@ -9944,24 +9957,24 @@
       </c>
       <c r="O23" s="69"/>
       <c r="P23" s="69"/>
-      <c r="Q23" s="190" t="s">
+      <c r="Q23" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="61"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="190"/>
-      <c r="J24" s="190"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
       <c r="N24" s="42" t="s">
         <v>80</v>
       </c>
@@ -9971,7 +9984,7 @@
       <c r="P24" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q24" s="190"/>
+      <c r="Q24" s="197"/>
     </row>
     <row r="25" spans="1:17" s="50" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="56"/>
@@ -10363,37 +10376,37 @@
     <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="61"/>
-      <c r="C35" s="127" t="s">
+      <c r="C35" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="127" t="s">
+      <c r="D35" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="127" t="s">
+      <c r="E35" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="127" t="s">
+      <c r="F35" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="127" t="s">
+      <c r="G35" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="127" t="s">
+      <c r="H35" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="190" t="s">
+      <c r="I35" s="197" t="s">
         <v>46</v>
       </c>
-      <c r="J35" s="190" t="s">
+      <c r="J35" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="K35" s="127" t="s">
+      <c r="K35" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="L35" s="127" t="s">
+      <c r="L35" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="M35" s="127" t="s">
+      <c r="M35" s="163" t="s">
         <v>33</v>
       </c>
       <c r="N35" s="69" t="s">
@@ -10401,24 +10414,24 @@
       </c>
       <c r="O35" s="69"/>
       <c r="P35" s="69"/>
-      <c r="Q35" s="190" t="s">
+      <c r="Q35" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="61"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="127"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="163"/>
+      <c r="L36" s="163"/>
+      <c r="M36" s="163"/>
       <c r="N36" s="85" t="s">
         <v>80</v>
       </c>
@@ -10428,7 +10441,7 @@
       <c r="P36" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="Q36" s="190"/>
+      <c r="Q36" s="197"/>
     </row>
     <row r="37" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
@@ -10451,8 +10464,8 @@
       <c r="H37" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I37" s="102">
-        <v>14</v>
+      <c r="I37" s="125">
+        <v>15</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>35</v>
@@ -10527,7 +10540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="61"/>
       <c r="C39" s="7">
@@ -10563,14 +10576,14 @@
       <c r="M39" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N39" s="8" t="s">
-        <v>216</v>
+      <c r="N39" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P39" s="8" t="s">
-        <v>35</v>
+      <c r="P39" s="126" t="s">
+        <v>251</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>35</v>
@@ -10697,6 +10710,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="I23:I24"/>
@@ -10713,38 +10758,6 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10818,14 +10831,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="167">
+      <c r="AI1" s="176">
         <f>変更履歴!E5</f>
         <v>43706</v>
       </c>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="189"/>
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="194"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -10834,16 +10847,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="170" t="str">
+      <c r="AT1" s="179" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="181"/>
-      <c r="AV1" s="181"/>
-      <c r="AW1" s="181"/>
-      <c r="AX1" s="181"/>
-      <c r="AY1" s="181"/>
-      <c r="AZ1" s="182"/>
+      <c r="AU1" s="186"/>
+      <c r="AV1" s="186"/>
+      <c r="AW1" s="186"/>
+      <c r="AX1" s="186"/>
+      <c r="AY1" s="186"/>
+      <c r="AZ1" s="187"/>
     </row>
     <row r="2" spans="1:52" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -10871,32 +10884,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="187" t="str">
+      <c r="S2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
         <v>ＩＰアドレス管理マスタ</v>
       </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="189"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="194"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="186"/>
-      <c r="AJ2" s="181"/>
-      <c r="AK2" s="181"/>
-      <c r="AL2" s="181"/>
-      <c r="AM2" s="182"/>
+      <c r="AI2" s="191"/>
+      <c r="AJ2" s="186"/>
+      <c r="AK2" s="186"/>
+      <c r="AL2" s="186"/>
+      <c r="AM2" s="187"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -10905,13 +10918,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="170"/>
-      <c r="AU2" s="181"/>
-      <c r="AV2" s="181"/>
-      <c r="AW2" s="181"/>
-      <c r="AX2" s="181"/>
-      <c r="AY2" s="181"/>
-      <c r="AZ2" s="182"/>
+      <c r="AT2" s="179"/>
+      <c r="AU2" s="186"/>
+      <c r="AV2" s="186"/>
+      <c r="AW2" s="186"/>
+      <c r="AX2" s="186"/>
+      <c r="AY2" s="186"/>
+      <c r="AZ2" s="187"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="60"/>
@@ -12142,23 +12155,23 @@
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="22"/>
-      <c r="L32" s="193" t="s">
+      <c r="L32" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="M32" s="194"/>
-      <c r="N32" s="194"/>
-      <c r="O32" s="194"/>
-      <c r="P32" s="194"/>
-      <c r="Q32" s="194"/>
-      <c r="R32" s="194"/>
-      <c r="S32" s="194"/>
-      <c r="T32" s="194"/>
-      <c r="U32" s="194"/>
-      <c r="V32" s="194"/>
-      <c r="W32" s="194"/>
-      <c r="X32" s="194"/>
-      <c r="Y32" s="194"/>
-      <c r="Z32" s="194"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="123"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="123"/>
+      <c r="W32" s="123"/>
+      <c r="X32" s="123"/>
+      <c r="Y32" s="123"/>
+      <c r="Z32" s="123"/>
       <c r="AA32" s="21"/>
       <c r="AB32" s="21"/>
       <c r="AC32" s="21"/>
@@ -12190,23 +12203,23 @@
         <v>100</v>
       </c>
       <c r="K33" s="73"/>
-      <c r="L33" s="194" t="s">
+      <c r="L33" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="M33" s="194"/>
-      <c r="N33" s="194"/>
-      <c r="O33" s="194"/>
-      <c r="P33" s="194"/>
-      <c r="Q33" s="194"/>
-      <c r="R33" s="194"/>
-      <c r="S33" s="194"/>
-      <c r="T33" s="194"/>
-      <c r="U33" s="194"/>
-      <c r="V33" s="194"/>
-      <c r="W33" s="194"/>
-      <c r="X33" s="194"/>
-      <c r="Y33" s="194"/>
-      <c r="Z33" s="194"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="123"/>
+      <c r="U33" s="123"/>
+      <c r="V33" s="123"/>
+      <c r="W33" s="123"/>
+      <c r="X33" s="123"/>
+      <c r="Y33" s="123"/>
+      <c r="Z33" s="123"/>
       <c r="AV33" s="73"/>
     </row>
     <row r="34" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12215,21 +12228,21 @@
       <c r="F34" s="73"/>
       <c r="G34" s="72"/>
       <c r="K34" s="73"/>
-      <c r="L34" s="194"/>
-      <c r="M34" s="194"/>
-      <c r="N34" s="194"/>
-      <c r="O34" s="194"/>
-      <c r="P34" s="194"/>
-      <c r="Q34" s="194"/>
-      <c r="R34" s="194"/>
-      <c r="S34" s="194"/>
-      <c r="T34" s="194"/>
-      <c r="U34" s="194"/>
-      <c r="V34" s="194"/>
-      <c r="W34" s="194"/>
-      <c r="X34" s="194"/>
-      <c r="Y34" s="194"/>
-      <c r="Z34" s="194"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
+      <c r="S34" s="123"/>
+      <c r="T34" s="123"/>
+      <c r="U34" s="123"/>
+      <c r="V34" s="123"/>
+      <c r="W34" s="123"/>
+      <c r="X34" s="123"/>
+      <c r="Y34" s="123"/>
+      <c r="Z34" s="123"/>
       <c r="AV34" s="73"/>
     </row>
     <row r="35" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12238,23 +12251,23 @@
       <c r="F35" s="73"/>
       <c r="G35" s="72"/>
       <c r="K35" s="73"/>
-      <c r="L35" s="194" t="s">
+      <c r="L35" s="123" t="s">
         <v>242</v>
       </c>
-      <c r="M35" s="194"/>
-      <c r="N35" s="194"/>
-      <c r="O35" s="194"/>
-      <c r="P35" s="194"/>
-      <c r="Q35" s="194"/>
-      <c r="R35" s="194"/>
-      <c r="S35" s="194"/>
-      <c r="T35" s="194"/>
-      <c r="U35" s="194"/>
-      <c r="V35" s="194"/>
-      <c r="W35" s="194"/>
-      <c r="X35" s="194"/>
-      <c r="Y35" s="194"/>
-      <c r="Z35" s="194"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="123"/>
+      <c r="U35" s="123"/>
+      <c r="V35" s="123"/>
+      <c r="W35" s="123"/>
+      <c r="X35" s="123"/>
+      <c r="Y35" s="123"/>
+      <c r="Z35" s="123"/>
       <c r="AV35" s="73"/>
     </row>
     <row r="36" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12263,23 +12276,23 @@
       <c r="F36" s="73"/>
       <c r="G36" s="72"/>
       <c r="K36" s="73"/>
-      <c r="L36" s="194" t="s">
+      <c r="L36" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="M36" s="194"/>
-      <c r="N36" s="194"/>
-      <c r="O36" s="194"/>
-      <c r="P36" s="194"/>
-      <c r="Q36" s="194"/>
-      <c r="R36" s="194"/>
-      <c r="S36" s="194"/>
-      <c r="T36" s="194"/>
-      <c r="U36" s="194"/>
-      <c r="V36" s="194"/>
-      <c r="W36" s="194"/>
-      <c r="X36" s="194"/>
-      <c r="Y36" s="194"/>
-      <c r="Z36" s="194"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="123"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="123"/>
+      <c r="S36" s="123"/>
+      <c r="T36" s="123"/>
+      <c r="U36" s="123"/>
+      <c r="V36" s="123"/>
+      <c r="W36" s="123"/>
+      <c r="X36" s="123"/>
+      <c r="Y36" s="123"/>
+      <c r="Z36" s="123"/>
       <c r="AV36" s="73"/>
     </row>
     <row r="37" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12288,21 +12301,21 @@
       <c r="F37" s="73"/>
       <c r="G37" s="72"/>
       <c r="K37" s="73"/>
-      <c r="L37" s="194"/>
-      <c r="M37" s="194"/>
-      <c r="N37" s="194"/>
-      <c r="O37" s="194"/>
-      <c r="P37" s="194"/>
-      <c r="Q37" s="194"/>
-      <c r="R37" s="194"/>
-      <c r="S37" s="194"/>
-      <c r="T37" s="194"/>
-      <c r="U37" s="194"/>
-      <c r="V37" s="194"/>
-      <c r="W37" s="194"/>
-      <c r="X37" s="194"/>
-      <c r="Y37" s="194"/>
-      <c r="Z37" s="194"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="123"/>
+      <c r="U37" s="123"/>
+      <c r="V37" s="123"/>
+      <c r="W37" s="123"/>
+      <c r="X37" s="123"/>
+      <c r="Y37" s="123"/>
+      <c r="Z37" s="123"/>
       <c r="AV37" s="73"/>
     </row>
     <row r="38" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12311,23 +12324,23 @@
       <c r="F38" s="73"/>
       <c r="G38" s="72"/>
       <c r="K38" s="73"/>
-      <c r="L38" s="194" t="s">
+      <c r="L38" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="M38" s="194"/>
-      <c r="N38" s="194"/>
-      <c r="O38" s="194"/>
-      <c r="P38" s="194"/>
-      <c r="Q38" s="194"/>
-      <c r="R38" s="194"/>
-      <c r="S38" s="194"/>
-      <c r="T38" s="194"/>
-      <c r="U38" s="194"/>
-      <c r="V38" s="194"/>
-      <c r="W38" s="194"/>
-      <c r="X38" s="194"/>
-      <c r="Y38" s="194"/>
-      <c r="Z38" s="194"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="123"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="123"/>
+      <c r="Q38" s="123"/>
+      <c r="R38" s="123"/>
+      <c r="S38" s="123"/>
+      <c r="T38" s="123"/>
+      <c r="U38" s="123"/>
+      <c r="V38" s="123"/>
+      <c r="W38" s="123"/>
+      <c r="X38" s="123"/>
+      <c r="Y38" s="123"/>
+      <c r="Z38" s="123"/>
       <c r="AV38" s="73"/>
     </row>
     <row r="39" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12336,23 +12349,23 @@
       <c r="F39" s="73"/>
       <c r="G39" s="72"/>
       <c r="K39" s="73"/>
-      <c r="L39" s="194" t="s">
+      <c r="L39" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="M39" s="194"/>
-      <c r="N39" s="194"/>
-      <c r="O39" s="194"/>
-      <c r="P39" s="194"/>
-      <c r="Q39" s="194"/>
-      <c r="R39" s="194"/>
-      <c r="S39" s="194"/>
-      <c r="T39" s="194"/>
-      <c r="U39" s="194"/>
-      <c r="V39" s="194"/>
-      <c r="W39" s="194"/>
-      <c r="X39" s="194"/>
-      <c r="Y39" s="194"/>
-      <c r="Z39" s="194"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="123"/>
+      <c r="O39" s="123"/>
+      <c r="P39" s="123"/>
+      <c r="Q39" s="123"/>
+      <c r="R39" s="123"/>
+      <c r="S39" s="123"/>
+      <c r="T39" s="123"/>
+      <c r="U39" s="123"/>
+      <c r="V39" s="123"/>
+      <c r="W39" s="123"/>
+      <c r="X39" s="123"/>
+      <c r="Y39" s="123"/>
+      <c r="Z39" s="123"/>
       <c r="AV39" s="73"/>
     </row>
     <row r="40" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12361,21 +12374,21 @@
       <c r="F40" s="73"/>
       <c r="G40" s="72"/>
       <c r="K40" s="73"/>
-      <c r="L40" s="194"/>
-      <c r="M40" s="194"/>
-      <c r="N40" s="194"/>
-      <c r="O40" s="194"/>
-      <c r="P40" s="194"/>
-      <c r="Q40" s="194"/>
-      <c r="R40" s="194"/>
-      <c r="S40" s="194"/>
-      <c r="T40" s="194"/>
-      <c r="U40" s="194"/>
-      <c r="V40" s="194"/>
-      <c r="W40" s="194"/>
-      <c r="X40" s="194"/>
-      <c r="Y40" s="194"/>
-      <c r="Z40" s="194"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="123"/>
+      <c r="S40" s="123"/>
+      <c r="T40" s="123"/>
+      <c r="U40" s="123"/>
+      <c r="V40" s="123"/>
+      <c r="W40" s="123"/>
+      <c r="X40" s="123"/>
+      <c r="Y40" s="123"/>
+      <c r="Z40" s="123"/>
       <c r="AV40" s="73"/>
     </row>
     <row r="41" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12384,23 +12397,23 @@
       <c r="F41" s="73"/>
       <c r="G41" s="72"/>
       <c r="K41" s="73"/>
-      <c r="L41" s="194" t="s">
+      <c r="L41" s="123" t="s">
         <v>244</v>
       </c>
-      <c r="M41" s="194"/>
-      <c r="N41" s="194"/>
-      <c r="O41" s="194"/>
-      <c r="P41" s="194"/>
-      <c r="Q41" s="194"/>
-      <c r="R41" s="194"/>
-      <c r="S41" s="194"/>
-      <c r="T41" s="194"/>
-      <c r="U41" s="194"/>
-      <c r="V41" s="194"/>
-      <c r="W41" s="194"/>
-      <c r="X41" s="194"/>
-      <c r="Y41" s="194"/>
-      <c r="Z41" s="194"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
+      <c r="P41" s="123"/>
+      <c r="Q41" s="123"/>
+      <c r="R41" s="123"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="123"/>
+      <c r="U41" s="123"/>
+      <c r="V41" s="123"/>
+      <c r="W41" s="123"/>
+      <c r="X41" s="123"/>
+      <c r="Y41" s="123"/>
+      <c r="Z41" s="123"/>
       <c r="AV41" s="73"/>
     </row>
     <row r="42" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12434,7 +12447,7 @@
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="K43" s="22"/>
-      <c r="L43" s="193" t="s">
+      <c r="L43" s="122" t="s">
         <v>245</v>
       </c>
       <c r="M43" s="21"/>
@@ -12482,7 +12495,7 @@
         <v>100</v>
       </c>
       <c r="K44" s="73"/>
-      <c r="L44" s="195" t="s">
+      <c r="L44" s="124" t="s">
         <v>246</v>
       </c>
       <c r="AV44" s="73"/>
@@ -12493,7 +12506,7 @@
       <c r="F45" s="73"/>
       <c r="G45" s="72"/>
       <c r="K45" s="73"/>
-      <c r="L45" s="195"/>
+      <c r="L45" s="124"/>
       <c r="AV45" s="73"/>
     </row>
     <row r="46" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12502,7 +12515,7 @@
       <c r="F46" s="73"/>
       <c r="G46" s="72"/>
       <c r="K46" s="73"/>
-      <c r="L46" s="195" t="s">
+      <c r="L46" s="124" t="s">
         <v>240</v>
       </c>
       <c r="AV46" s="73"/>
@@ -12513,7 +12526,7 @@
       <c r="F47" s="73"/>
       <c r="G47" s="72"/>
       <c r="K47" s="73"/>
-      <c r="L47" s="195" t="s">
+      <c r="L47" s="124" t="s">
         <v>241</v>
       </c>
       <c r="AV47" s="73"/>
@@ -12524,7 +12537,7 @@
       <c r="F48" s="73"/>
       <c r="G48" s="72"/>
       <c r="K48" s="73"/>
-      <c r="L48" s="195"/>
+      <c r="L48" s="124"/>
       <c r="AV48" s="73"/>
     </row>
     <row r="49" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12533,7 +12546,7 @@
       <c r="F49" s="73"/>
       <c r="G49" s="72"/>
       <c r="K49" s="73"/>
-      <c r="L49" s="195" t="s">
+      <c r="L49" s="124" t="s">
         <v>242</v>
       </c>
       <c r="AV49" s="73"/>
@@ -12544,7 +12557,7 @@
       <c r="F50" s="73"/>
       <c r="G50" s="72"/>
       <c r="K50" s="73"/>
-      <c r="L50" s="194" t="s">
+      <c r="L50" s="123" t="s">
         <v>247</v>
       </c>
       <c r="AV50" s="73"/>
@@ -12555,7 +12568,7 @@
       <c r="F51" s="73"/>
       <c r="G51" s="72"/>
       <c r="K51" s="73"/>
-      <c r="L51" s="194"/>
+      <c r="L51" s="123"/>
       <c r="AV51" s="73"/>
     </row>
     <row r="52" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12564,7 +12577,7 @@
       <c r="F52" s="73"/>
       <c r="G52" s="72"/>
       <c r="K52" s="73"/>
-      <c r="L52" s="194" t="s">
+      <c r="L52" s="123" t="s">
         <v>248</v>
       </c>
       <c r="AV52" s="73"/>
@@ -12635,7 +12648,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
       <c r="K54" s="22"/>
-      <c r="L54" s="193" t="s">
+      <c r="L54" s="122" t="s">
         <v>245</v>
       </c>
       <c r="M54" s="21"/>
@@ -12683,7 +12696,7 @@
         <v>100</v>
       </c>
       <c r="K55" s="73"/>
-      <c r="L55" s="195" t="s">
+      <c r="L55" s="124" t="s">
         <v>249</v>
       </c>
       <c r="AV55" s="73"/>
@@ -12694,7 +12707,7 @@
       <c r="F56" s="73"/>
       <c r="G56" s="72"/>
       <c r="K56" s="73"/>
-      <c r="L56" s="194"/>
+      <c r="L56" s="123"/>
       <c r="AV56" s="73"/>
     </row>
     <row r="57" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12703,7 +12716,7 @@
       <c r="F57" s="73"/>
       <c r="G57" s="72"/>
       <c r="K57" s="73"/>
-      <c r="L57" s="195" t="s">
+      <c r="L57" s="124" t="s">
         <v>242</v>
       </c>
       <c r="AV57" s="73"/>
@@ -12714,7 +12727,7 @@
       <c r="F58" s="73"/>
       <c r="G58" s="72"/>
       <c r="K58" s="73"/>
-      <c r="L58" s="194" t="s">
+      <c r="L58" s="123" t="s">
         <v>146</v>
       </c>
       <c r="AV58" s="73"/>
@@ -12725,7 +12738,7 @@
       <c r="F59" s="73"/>
       <c r="G59" s="72"/>
       <c r="K59" s="73"/>
-      <c r="L59" s="194"/>
+      <c r="L59" s="123"/>
       <c r="AV59" s="73"/>
     </row>
     <row r="60" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -12734,7 +12747,7 @@
       <c r="F60" s="73"/>
       <c r="G60" s="72"/>
       <c r="K60" s="73"/>
-      <c r="L60" s="194" t="s">
+      <c r="L60" s="123" t="s">
         <v>250</v>
       </c>
       <c r="AV60" s="73"/>
@@ -20361,14 +20374,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="167">
+      <c r="AI1" s="176">
         <f>変更履歴!E5</f>
         <v>43706</v>
       </c>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="189"/>
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="194"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -20377,16 +20390,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="170" t="str">
+      <c r="AT1" s="179" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="181"/>
-      <c r="AV1" s="181"/>
-      <c r="AW1" s="181"/>
-      <c r="AX1" s="181"/>
-      <c r="AY1" s="181"/>
-      <c r="AZ1" s="182"/>
+      <c r="AU1" s="186"/>
+      <c r="AV1" s="186"/>
+      <c r="AW1" s="186"/>
+      <c r="AX1" s="186"/>
+      <c r="AY1" s="186"/>
+      <c r="AZ1" s="187"/>
     </row>
     <row r="2" spans="1:52" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -20414,32 +20427,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="187" t="str">
+      <c r="S2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
         <v>ＩＰアドレス管理マスタ</v>
       </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="189"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="194"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="186"/>
-      <c r="AJ2" s="181"/>
-      <c r="AK2" s="181"/>
-      <c r="AL2" s="181"/>
-      <c r="AM2" s="182"/>
+      <c r="AI2" s="191"/>
+      <c r="AJ2" s="186"/>
+      <c r="AK2" s="186"/>
+      <c r="AL2" s="186"/>
+      <c r="AM2" s="187"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -20448,13 +20461,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="170"/>
-      <c r="AU2" s="181"/>
-      <c r="AV2" s="181"/>
-      <c r="AW2" s="181"/>
-      <c r="AX2" s="181"/>
-      <c r="AY2" s="181"/>
-      <c r="AZ2" s="182"/>
+      <c r="AT2" s="179"/>
+      <c r="AU2" s="186"/>
+      <c r="AV2" s="186"/>
+      <c r="AW2" s="186"/>
+      <c r="AX2" s="186"/>
+      <c r="AY2" s="186"/>
+      <c r="AZ2" s="187"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="60"/>
@@ -26291,14 +26304,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="167">
+      <c r="AI1" s="176">
         <f>変更履歴!E5</f>
         <v>43706</v>
       </c>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="189"/>
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="194"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -26307,16 +26320,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="170" t="str">
+      <c r="AT1" s="179" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="181"/>
-      <c r="AV1" s="181"/>
-      <c r="AW1" s="181"/>
-      <c r="AX1" s="181"/>
-      <c r="AY1" s="181"/>
-      <c r="AZ1" s="182"/>
+      <c r="AU1" s="186"/>
+      <c r="AV1" s="186"/>
+      <c r="AW1" s="186"/>
+      <c r="AX1" s="186"/>
+      <c r="AY1" s="186"/>
+      <c r="AZ1" s="187"/>
     </row>
     <row r="2" spans="1:52" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -26344,32 +26357,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="187" t="str">
+      <c r="S2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
         <v>ＩＰアドレス管理マスタ</v>
       </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="189"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="194"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="186"/>
-      <c r="AJ2" s="181"/>
-      <c r="AK2" s="181"/>
-      <c r="AL2" s="181"/>
-      <c r="AM2" s="182"/>
+      <c r="AI2" s="191"/>
+      <c r="AJ2" s="186"/>
+      <c r="AK2" s="186"/>
+      <c r="AL2" s="186"/>
+      <c r="AM2" s="187"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -26378,13 +26391,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="170"/>
-      <c r="AU2" s="181"/>
-      <c r="AV2" s="181"/>
-      <c r="AW2" s="181"/>
-      <c r="AX2" s="181"/>
-      <c r="AY2" s="181"/>
-      <c r="AZ2" s="182"/>
+      <c r="AT2" s="179"/>
+      <c r="AU2" s="186"/>
+      <c r="AV2" s="186"/>
+      <c r="AW2" s="186"/>
+      <c r="AX2" s="186"/>
+      <c r="AY2" s="186"/>
+      <c r="AZ2" s="187"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="60"/>
@@ -37498,6 +37511,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -37655,22 +37683,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37686,21 +37716,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>